--- a/EST.xlsx
+++ b/EST.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="201">
   <si>
     <t>Estimativa de Esforço de Projeto baseado em                                                                Pontos de Caso de Uso (vs 1.1)</t>
   </si>
@@ -1618,7 +1618,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1842,9 +1842,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
@@ -17718,9 +17715,7 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="101" t="s">
-        <v>45</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -17731,7 +17726,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="33">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -17747,6 +17742,9 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -17757,7 +17755,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="33">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -17786,7 +17784,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="33">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -17801,9 +17799,10 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="1"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -17815,7 +17814,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="33">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -17830,7 +17829,6 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="102"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -17845,7 +17843,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="33">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -17860,6 +17858,7 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -17874,7 +17873,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="33">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -17904,7 +17903,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="33">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -17934,7 +17933,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="33">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -17964,7 +17963,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="33">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -17994,7 +17993,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="33">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -18024,7 +18023,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="33">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -18054,7 +18053,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="33">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -18084,7 +18083,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="33">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -18114,7 +18113,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="33">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -18144,7 +18143,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="33">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -18174,7 +18173,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="33">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -18204,7 +18203,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="33">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -18234,7 +18233,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="33">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -18264,7 +18263,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="33">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -18294,7 +18293,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="33">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -18324,7 +18323,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="33">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -18354,7 +18353,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="33">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -18384,7 +18383,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="33">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -18414,7 +18413,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="33">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -18444,7 +18443,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="33">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -18474,7 +18473,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="33">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -18504,7 +18503,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="33">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -18534,7 +18533,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="33">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -18564,7 +18563,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="33">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -18594,7 +18593,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="33">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -18624,7 +18623,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="33">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -18654,7 +18653,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="33">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -18684,7 +18683,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="33">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -18714,7 +18713,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="33">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -18744,7 +18743,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="33">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -18774,7 +18773,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="33">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -18804,7 +18803,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="33">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -18834,7 +18833,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="33">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -18864,7 +18863,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="33">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -18894,7 +18893,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="33">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -18924,7 +18923,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="33">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -18954,7 +18953,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="33">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -18984,7 +18983,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="33">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -19014,7 +19013,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="33">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -19044,7 +19043,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="33">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -19074,7 +19073,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="33">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -19104,7 +19103,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="33">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -19134,7 +19133,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="33">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -19164,7 +19163,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="33">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -19194,7 +19193,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="33">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -19224,7 +19223,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="33">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -19254,7 +19253,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="33">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -19284,7 +19283,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="33">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -19314,7 +19313,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="33">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -19344,7 +19343,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="33">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -19374,7 +19373,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="33">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -19404,7 +19403,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="33">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -19434,7 +19433,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="33">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -19464,7 +19463,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="33">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -19494,7 +19493,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="33">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -19524,7 +19523,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="33">
-        <v>104.0</v>
+        <v>105.0</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -19554,7 +19553,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="33">
-        <v>105.0</v>
+        <v>106.0</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -19584,7 +19583,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="33">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -19614,7 +19613,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="33">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -19644,7 +19643,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="33">
-        <v>108.0</v>
+        <v>109.0</v>
       </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -19674,7 +19673,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="33">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
@@ -19704,7 +19703,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="33">
-        <v>110.0</v>
+        <v>111.0</v>
       </c>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
@@ -19734,7 +19733,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="33">
-        <v>111.0</v>
+        <v>112.0</v>
       </c>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
@@ -19764,7 +19763,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="33">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
@@ -19794,7 +19793,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="33">
-        <v>113.0</v>
+        <v>114.0</v>
       </c>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
@@ -19824,7 +19823,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="33">
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -19854,7 +19853,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="33">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -19884,7 +19883,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="33">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
@@ -19914,7 +19913,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="33">
-        <v>117.0</v>
+        <v>118.0</v>
       </c>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
@@ -19944,7 +19943,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="33">
-        <v>118.0</v>
+        <v>119.0</v>
       </c>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -19974,7 +19973,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="33">
-        <v>119.0</v>
+        <v>120.0</v>
       </c>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
@@ -20004,7 +20003,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="33">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
@@ -20034,7 +20033,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="33">
-        <v>121.0</v>
+        <v>122.0</v>
       </c>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
@@ -20064,7 +20063,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="33">
-        <v>122.0</v>
+        <v>123.0</v>
       </c>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
@@ -20094,7 +20093,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="33">
-        <v>123.0</v>
+        <v>124.0</v>
       </c>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
@@ -20124,7 +20123,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="33">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
@@ -20154,7 +20153,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="33">
-        <v>125.0</v>
+        <v>126.0</v>
       </c>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
@@ -20184,7 +20183,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="33">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
@@ -20214,7 +20213,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="33">
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
@@ -20244,7 +20243,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="33">
-        <v>128.0</v>
+        <v>129.0</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
@@ -20274,7 +20273,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="33">
-        <v>129.0</v>
+        <v>130.0</v>
       </c>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
@@ -20304,7 +20303,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="33">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
@@ -20334,7 +20333,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="33">
-        <v>131.0</v>
+        <v>132.0</v>
       </c>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
@@ -20364,7 +20363,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="33">
-        <v>132.0</v>
+        <v>133.0</v>
       </c>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
@@ -20394,7 +20393,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="33">
-        <v>133.0</v>
+        <v>134.0</v>
       </c>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
@@ -20424,7 +20423,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="33">
-        <v>134.0</v>
+        <v>135.0</v>
       </c>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
@@ -20454,7 +20453,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="33">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
@@ -20484,7 +20483,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="33">
-        <v>136.0</v>
+        <v>137.0</v>
       </c>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
@@ -20514,7 +20513,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="33">
-        <v>137.0</v>
+        <v>138.0</v>
       </c>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
@@ -20544,7 +20543,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="33">
-        <v>138.0</v>
+        <v>139.0</v>
       </c>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
@@ -20574,7 +20573,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="33">
-        <v>139.0</v>
+        <v>140.0</v>
       </c>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
@@ -20604,7 +20603,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="33">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
@@ -20634,7 +20633,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="33">
-        <v>141.0</v>
+        <v>142.0</v>
       </c>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
@@ -20664,7 +20663,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="33">
-        <v>142.0</v>
+        <v>143.0</v>
       </c>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
@@ -20694,7 +20693,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="33">
-        <v>143.0</v>
+        <v>144.0</v>
       </c>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -20724,7 +20723,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="33">
-        <v>144.0</v>
+        <v>145.0</v>
       </c>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
@@ -20754,7 +20753,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="33">
-        <v>145.0</v>
+        <v>146.0</v>
       </c>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
@@ -20784,7 +20783,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="33">
-        <v>146.0</v>
+        <v>147.0</v>
       </c>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
@@ -20814,7 +20813,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="33">
-        <v>147.0</v>
+        <v>148.0</v>
       </c>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
@@ -20844,7 +20843,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
       <c r="O153" s="33">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
@@ -20874,7 +20873,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="33">
-        <v>149.0</v>
+        <v>150.0</v>
       </c>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
@@ -20904,7 +20903,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="33">
-        <v>150.0</v>
+        <v>151.0</v>
       </c>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
@@ -20934,7 +20933,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="33">
-        <v>151.0</v>
+        <v>152.0</v>
       </c>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
@@ -20964,7 +20963,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="33">
-        <v>152.0</v>
+        <v>153.0</v>
       </c>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
@@ -20994,7 +20993,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="33">
-        <v>153.0</v>
+        <v>154.0</v>
       </c>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
@@ -21024,7 +21023,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
       <c r="O159" s="33">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
@@ -21054,7 +21053,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
       <c r="O160" s="33">
-        <v>155.0</v>
+        <v>156.0</v>
       </c>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
@@ -21084,7 +21083,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
       <c r="O161" s="33">
-        <v>156.0</v>
+        <v>157.0</v>
       </c>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
@@ -21114,7 +21113,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
       <c r="O162" s="33">
-        <v>157.0</v>
+        <v>158.0</v>
       </c>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
@@ -21144,7 +21143,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="33">
-        <v>158.0</v>
+        <v>159.0</v>
       </c>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
@@ -21174,7 +21173,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="33">
-        <v>159.0</v>
+        <v>160.0</v>
       </c>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
@@ -21204,7 +21203,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
       <c r="O165" s="33">
-        <v>160.0</v>
+        <v>161.0</v>
       </c>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
@@ -21234,7 +21233,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
       <c r="O166" s="33">
-        <v>161.0</v>
+        <v>162.0</v>
       </c>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
@@ -21264,7 +21263,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="33">
-        <v>162.0</v>
+        <v>163.0</v>
       </c>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
@@ -21294,7 +21293,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
       <c r="O168" s="33">
-        <v>163.0</v>
+        <v>164.0</v>
       </c>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
@@ -21324,7 +21323,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
       <c r="O169" s="33">
-        <v>164.0</v>
+        <v>165.0</v>
       </c>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
@@ -21354,7 +21353,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="33">
-        <v>165.0</v>
+        <v>166.0</v>
       </c>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
@@ -21384,7 +21383,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
       <c r="O171" s="33">
-        <v>166.0</v>
+        <v>167.0</v>
       </c>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
@@ -21414,7 +21413,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
       <c r="O172" s="33">
-        <v>167.0</v>
+        <v>168.0</v>
       </c>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
@@ -21444,7 +21443,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
       <c r="O173" s="33">
-        <v>168.0</v>
+        <v>169.0</v>
       </c>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
@@ -21474,7 +21473,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
       <c r="O174" s="33">
-        <v>169.0</v>
+        <v>170.0</v>
       </c>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
@@ -21504,7 +21503,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
       <c r="O175" s="33">
-        <v>170.0</v>
+        <v>171.0</v>
       </c>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
@@ -21534,7 +21533,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="33">
-        <v>171.0</v>
+        <v>172.0</v>
       </c>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
@@ -21564,7 +21563,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
       <c r="O177" s="33">
-        <v>172.0</v>
+        <v>173.0</v>
       </c>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
@@ -21594,7 +21593,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
       <c r="O178" s="33">
-        <v>173.0</v>
+        <v>174.0</v>
       </c>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
@@ -21624,7 +21623,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="33">
-        <v>174.0</v>
+        <v>175.0</v>
       </c>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
@@ -21654,7 +21653,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
       <c r="O180" s="33">
-        <v>175.0</v>
+        <v>176.0</v>
       </c>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
@@ -21684,7 +21683,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="33">
-        <v>176.0</v>
+        <v>177.0</v>
       </c>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
@@ -21714,7 +21713,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="33">
-        <v>177.0</v>
+        <v>178.0</v>
       </c>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
@@ -21744,7 +21743,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="33">
-        <v>178.0</v>
+        <v>179.0</v>
       </c>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
@@ -21774,7 +21773,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="33">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
@@ -21804,7 +21803,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="33">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
@@ -21834,7 +21833,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="33">
-        <v>181.0</v>
+        <v>182.0</v>
       </c>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
@@ -21864,7 +21863,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="33">
-        <v>182.0</v>
+        <v>183.0</v>
       </c>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
@@ -21894,7 +21893,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="33">
-        <v>183.0</v>
+        <v>184.0</v>
       </c>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
@@ -21924,7 +21923,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="33">
-        <v>184.0</v>
+        <v>185.0</v>
       </c>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
@@ -21954,7 +21953,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="33">
-        <v>185.0</v>
+        <v>186.0</v>
       </c>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
@@ -21984,7 +21983,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="33">
-        <v>186.0</v>
+        <v>187.0</v>
       </c>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
@@ -22014,7 +22013,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
       <c r="O192" s="33">
-        <v>187.0</v>
+        <v>188.0</v>
       </c>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
@@ -22044,7 +22043,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="33">
-        <v>188.0</v>
+        <v>189.0</v>
       </c>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
@@ -22074,7 +22073,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
       <c r="O194" s="33">
-        <v>189.0</v>
+        <v>190.0</v>
       </c>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
@@ -22104,7 +22103,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
       <c r="O195" s="33">
-        <v>190.0</v>
+        <v>191.0</v>
       </c>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
@@ -22134,7 +22133,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
       <c r="O196" s="33">
-        <v>191.0</v>
+        <v>192.0</v>
       </c>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
@@ -22164,7 +22163,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
       <c r="O197" s="33">
-        <v>192.0</v>
+        <v>193.0</v>
       </c>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
@@ -22194,7 +22193,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
       <c r="O198" s="33">
-        <v>193.0</v>
+        <v>194.0</v>
       </c>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
@@ -22224,7 +22223,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
       <c r="O199" s="33">
-        <v>194.0</v>
+        <v>195.0</v>
       </c>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
@@ -22254,7 +22253,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="33">
-        <v>195.0</v>
+        <v>196.0</v>
       </c>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
@@ -22284,7 +22283,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
       <c r="O201" s="33">
-        <v>196.0</v>
+        <v>197.0</v>
       </c>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
@@ -22314,7 +22313,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
       <c r="O202" s="33">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
@@ -22344,7 +22343,7 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="33">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
@@ -22374,7 +22373,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
       <c r="O204" s="33">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
@@ -22404,7 +22403,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
       <c r="O205" s="33">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
@@ -22434,7 +22433,7 @@
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
       <c r="O206" s="33">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
@@ -22464,7 +22463,7 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
       <c r="O207" s="33">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
@@ -22494,7 +22493,7 @@
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
       <c r="O208" s="33">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
@@ -22524,7 +22523,7 @@
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="33">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
@@ -22554,7 +22553,7 @@
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="33">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
@@ -22584,7 +22583,7 @@
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="33">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
@@ -22614,7 +22613,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="33">
-        <v>207.0</v>
+        <v>208.0</v>
       </c>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
@@ -22644,7 +22643,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="33">
-        <v>208.0</v>
+        <v>209.0</v>
       </c>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
@@ -22674,7 +22673,7 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="33">
-        <v>209.0</v>
+        <v>210.0</v>
       </c>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
@@ -22704,7 +22703,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="33">
-        <v>210.0</v>
+        <v>211.0</v>
       </c>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
@@ -22734,7 +22733,7 @@
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
       <c r="O216" s="33">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
@@ -22764,7 +22763,7 @@
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
       <c r="O217" s="33">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
@@ -22794,7 +22793,7 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="33">
-        <v>213.0</v>
+        <v>214.0</v>
       </c>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
@@ -22824,7 +22823,7 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="33">
-        <v>214.0</v>
+        <v>215.0</v>
       </c>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
@@ -22854,7 +22853,7 @@
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="33">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
@@ -22884,7 +22883,7 @@
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="33">
-        <v>216.0</v>
+        <v>217.0</v>
       </c>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
@@ -22914,7 +22913,7 @@
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
       <c r="O222" s="33">
-        <v>217.0</v>
+        <v>218.0</v>
       </c>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
@@ -22944,7 +22943,7 @@
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
       <c r="O223" s="33">
-        <v>218.0</v>
+        <v>219.0</v>
       </c>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
@@ -22974,7 +22973,7 @@
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="33">
-        <v>219.0</v>
+        <v>220.0</v>
       </c>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
@@ -23004,7 +23003,7 @@
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="33">
-        <v>220.0</v>
+        <v>221.0</v>
       </c>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
@@ -23034,7 +23033,7 @@
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="33">
-        <v>221.0</v>
+        <v>222.0</v>
       </c>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
@@ -23064,7 +23063,7 @@
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="33">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
@@ -23094,7 +23093,7 @@
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="33">
-        <v>223.0</v>
+        <v>224.0</v>
       </c>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
@@ -23124,7 +23123,7 @@
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="33">
-        <v>224.0</v>
+        <v>225.0</v>
       </c>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
@@ -23154,7 +23153,7 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="33">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
@@ -23184,7 +23183,7 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="33">
-        <v>226.0</v>
+        <v>227.0</v>
       </c>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
@@ -23214,7 +23213,7 @@
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="33">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
@@ -23244,7 +23243,7 @@
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="33">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
@@ -23274,7 +23273,7 @@
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="33">
-        <v>229.0</v>
+        <v>230.0</v>
       </c>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
@@ -23304,7 +23303,7 @@
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="33">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
@@ -23334,7 +23333,7 @@
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="33">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
@@ -23364,7 +23363,7 @@
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="33">
-        <v>232.0</v>
+        <v>233.0</v>
       </c>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
@@ -23394,7 +23393,7 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="33">
-        <v>233.0</v>
+        <v>234.0</v>
       </c>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
@@ -23424,7 +23423,7 @@
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="33">
-        <v>234.0</v>
+        <v>235.0</v>
       </c>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
@@ -23454,7 +23453,7 @@
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="33">
-        <v>235.0</v>
+        <v>236.0</v>
       </c>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
@@ -23484,7 +23483,7 @@
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
       <c r="O241" s="33">
-        <v>236.0</v>
+        <v>237.0</v>
       </c>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
@@ -23514,7 +23513,7 @@
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
       <c r="O242" s="33">
-        <v>237.0</v>
+        <v>238.0</v>
       </c>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
@@ -23544,7 +23543,7 @@
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="33">
-        <v>238.0</v>
+        <v>239.0</v>
       </c>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
@@ -23574,7 +23573,7 @@
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="33">
-        <v>239.0</v>
+        <v>240.0</v>
       </c>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
@@ -23604,7 +23603,7 @@
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
       <c r="O245" s="33">
-        <v>240.0</v>
+        <v>241.0</v>
       </c>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
@@ -23634,7 +23633,7 @@
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="33">
-        <v>241.0</v>
+        <v>242.0</v>
       </c>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
@@ -23664,7 +23663,7 @@
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="33">
-        <v>242.0</v>
+        <v>243.0</v>
       </c>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
@@ -23694,7 +23693,7 @@
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="33">
-        <v>243.0</v>
+        <v>244.0</v>
       </c>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
@@ -23724,7 +23723,7 @@
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
       <c r="O249" s="33">
-        <v>244.0</v>
+        <v>245.0</v>
       </c>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
@@ -23754,7 +23753,7 @@
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="33">
-        <v>245.0</v>
+        <v>246.0</v>
       </c>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
@@ -23784,7 +23783,7 @@
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="33">
-        <v>246.0</v>
+        <v>247.0</v>
       </c>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
@@ -23814,7 +23813,7 @@
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="33">
-        <v>247.0</v>
+        <v>248.0</v>
       </c>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
@@ -23844,7 +23843,7 @@
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="33">
-        <v>248.0</v>
+        <v>249.0</v>
       </c>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
@@ -23874,7 +23873,7 @@
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="33">
-        <v>249.0</v>
+        <v>250.0</v>
       </c>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
@@ -23904,7 +23903,7 @@
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="33">
-        <v>250.0</v>
+        <v>251.0</v>
       </c>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
@@ -23934,7 +23933,7 @@
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
       <c r="O256" s="33">
-        <v>251.0</v>
+        <v>252.0</v>
       </c>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
@@ -23964,7 +23963,7 @@
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
       <c r="O257" s="33">
-        <v>252.0</v>
+        <v>253.0</v>
       </c>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
@@ -23994,7 +23993,7 @@
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="33">
-        <v>253.0</v>
+        <v>254.0</v>
       </c>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
@@ -24024,7 +24023,7 @@
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="33">
-        <v>254.0</v>
+        <v>255.0</v>
       </c>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
@@ -24054,7 +24053,7 @@
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="33">
-        <v>255.0</v>
+        <v>256.0</v>
       </c>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
@@ -24084,7 +24083,7 @@
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="33">
-        <v>256.0</v>
+        <v>257.0</v>
       </c>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
@@ -24114,7 +24113,7 @@
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="33">
-        <v>257.0</v>
+        <v>258.0</v>
       </c>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
@@ -24144,7 +24143,7 @@
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="33">
-        <v>258.0</v>
+        <v>259.0</v>
       </c>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
@@ -24174,7 +24173,7 @@
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="33">
-        <v>259.0</v>
+        <v>260.0</v>
       </c>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
@@ -24204,7 +24203,7 @@
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="33">
-        <v>260.0</v>
+        <v>261.0</v>
       </c>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
@@ -24234,7 +24233,7 @@
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="33">
-        <v>261.0</v>
+        <v>262.0</v>
       </c>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
@@ -24264,7 +24263,7 @@
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="33">
-        <v>262.0</v>
+        <v>263.0</v>
       </c>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
@@ -24294,7 +24293,7 @@
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="33">
-        <v>263.0</v>
+        <v>264.0</v>
       </c>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
@@ -24324,7 +24323,7 @@
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="33">
-        <v>264.0</v>
+        <v>265.0</v>
       </c>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
@@ -24354,7 +24353,7 @@
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="33">
-        <v>265.0</v>
+        <v>266.0</v>
       </c>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
@@ -24384,7 +24383,7 @@
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="33">
-        <v>266.0</v>
+        <v>267.0</v>
       </c>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
@@ -24414,7 +24413,7 @@
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="33">
-        <v>267.0</v>
+        <v>268.0</v>
       </c>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
@@ -24444,7 +24443,7 @@
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="33">
-        <v>268.0</v>
+        <v>269.0</v>
       </c>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
@@ -24474,7 +24473,7 @@
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="33">
-        <v>269.0</v>
+        <v>270.0</v>
       </c>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
@@ -24504,7 +24503,7 @@
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="33">
-        <v>270.0</v>
+        <v>271.0</v>
       </c>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
@@ -24534,7 +24533,7 @@
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="33">
-        <v>271.0</v>
+        <v>272.0</v>
       </c>
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
@@ -24564,7 +24563,7 @@
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="33">
-        <v>272.0</v>
+        <v>273.0</v>
       </c>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
@@ -24594,7 +24593,7 @@
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="33">
-        <v>273.0</v>
+        <v>274.0</v>
       </c>
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
@@ -24624,7 +24623,7 @@
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="33">
-        <v>274.0</v>
+        <v>275.0</v>
       </c>
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
@@ -24654,7 +24653,7 @@
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="33">
-        <v>275.0</v>
+        <v>276.0</v>
       </c>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
@@ -24684,7 +24683,7 @@
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="33">
-        <v>276.0</v>
+        <v>277.0</v>
       </c>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
@@ -24714,7 +24713,7 @@
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="33">
-        <v>277.0</v>
+        <v>278.0</v>
       </c>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
@@ -24744,7 +24743,7 @@
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="33">
-        <v>278.0</v>
+        <v>279.0</v>
       </c>
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
@@ -24774,7 +24773,7 @@
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="33">
-        <v>279.0</v>
+        <v>280.0</v>
       </c>
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
@@ -24804,7 +24803,7 @@
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="33">
-        <v>280.0</v>
+        <v>281.0</v>
       </c>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
@@ -24834,7 +24833,7 @@
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="33">
-        <v>281.0</v>
+        <v>282.0</v>
       </c>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
@@ -24864,7 +24863,7 @@
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="33">
-        <v>282.0</v>
+        <v>283.0</v>
       </c>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
@@ -24894,7 +24893,7 @@
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="33">
-        <v>283.0</v>
+        <v>284.0</v>
       </c>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
@@ -24924,7 +24923,7 @@
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="33">
-        <v>284.0</v>
+        <v>285.0</v>
       </c>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
@@ -24954,7 +24953,7 @@
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="33">
-        <v>285.0</v>
+        <v>286.0</v>
       </c>
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
@@ -24984,7 +24983,7 @@
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="33">
-        <v>286.0</v>
+        <v>287.0</v>
       </c>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
@@ -25014,7 +25013,7 @@
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="33">
-        <v>287.0</v>
+        <v>288.0</v>
       </c>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
@@ -25044,7 +25043,7 @@
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="33">
-        <v>288.0</v>
+        <v>289.0</v>
       </c>
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
@@ -25074,7 +25073,7 @@
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="33">
-        <v>289.0</v>
+        <v>290.0</v>
       </c>
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
@@ -25104,7 +25103,7 @@
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="33">
-        <v>290.0</v>
+        <v>291.0</v>
       </c>
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
@@ -25134,7 +25133,7 @@
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
       <c r="O296" s="33">
-        <v>291.0</v>
+        <v>292.0</v>
       </c>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
@@ -25164,7 +25163,7 @@
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="33">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
@@ -25194,7 +25193,7 @@
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="33">
-        <v>293.0</v>
+        <v>294.0</v>
       </c>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
@@ -25224,7 +25223,7 @@
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="33">
-        <v>294.0</v>
+        <v>295.0</v>
       </c>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
@@ -25254,7 +25253,7 @@
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="33">
-        <v>295.0</v>
+        <v>296.0</v>
       </c>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
@@ -25284,7 +25283,7 @@
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="33">
-        <v>296.0</v>
+        <v>297.0</v>
       </c>
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
@@ -25314,7 +25313,7 @@
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="33">
-        <v>297.0</v>
+        <v>298.0</v>
       </c>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
@@ -25344,7 +25343,7 @@
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="33">
-        <v>298.0</v>
+        <v>299.0</v>
       </c>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
@@ -25374,7 +25373,7 @@
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="33">
-        <v>299.0</v>
+        <v>300.0</v>
       </c>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
@@ -25404,7 +25403,7 @@
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="33">
-        <v>300.0</v>
+        <v>301.0</v>
       </c>
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
@@ -25434,7 +25433,7 @@
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="33">
-        <v>301.0</v>
+        <v>302.0</v>
       </c>
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
@@ -25464,7 +25463,7 @@
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="33">
-        <v>302.0</v>
+        <v>303.0</v>
       </c>
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
@@ -25494,7 +25493,7 @@
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="33">
-        <v>303.0</v>
+        <v>304.0</v>
       </c>
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
@@ -25524,7 +25523,7 @@
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="33">
-        <v>304.0</v>
+        <v>305.0</v>
       </c>
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
@@ -25554,7 +25553,7 @@
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="33">
-        <v>305.0</v>
+        <v>306.0</v>
       </c>
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
@@ -25584,7 +25583,7 @@
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
       <c r="O311" s="33">
-        <v>306.0</v>
+        <v>307.0</v>
       </c>
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
@@ -25614,7 +25613,7 @@
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="33">
-        <v>307.0</v>
+        <v>308.0</v>
       </c>
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
@@ -25644,7 +25643,7 @@
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="33">
-        <v>308.0</v>
+        <v>309.0</v>
       </c>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
@@ -25674,7 +25673,7 @@
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="33">
-        <v>309.0</v>
+        <v>310.0</v>
       </c>
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
@@ -25704,7 +25703,7 @@
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="33">
-        <v>310.0</v>
+        <v>311.0</v>
       </c>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
@@ -25734,7 +25733,7 @@
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="33">
-        <v>311.0</v>
+        <v>312.0</v>
       </c>
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
@@ -25764,7 +25763,7 @@
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="33">
-        <v>312.0</v>
+        <v>313.0</v>
       </c>
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
@@ -25794,7 +25793,7 @@
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="33">
-        <v>313.0</v>
+        <v>314.0</v>
       </c>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
@@ -25824,7 +25823,7 @@
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="33">
-        <v>314.0</v>
+        <v>315.0</v>
       </c>
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
@@ -25854,7 +25853,7 @@
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="33">
-        <v>315.0</v>
+        <v>316.0</v>
       </c>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
@@ -25884,7 +25883,7 @@
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="33">
-        <v>316.0</v>
+        <v>317.0</v>
       </c>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
@@ -25914,7 +25913,7 @@
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="33">
-        <v>317.0</v>
+        <v>318.0</v>
       </c>
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
@@ -25944,7 +25943,7 @@
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="33">
-        <v>318.0</v>
+        <v>319.0</v>
       </c>
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
@@ -25974,7 +25973,7 @@
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="33">
-        <v>319.0</v>
+        <v>320.0</v>
       </c>
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
@@ -26004,7 +26003,7 @@
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="33">
-        <v>320.0</v>
+        <v>321.0</v>
       </c>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
@@ -26034,7 +26033,7 @@
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="33">
-        <v>321.0</v>
+        <v>322.0</v>
       </c>
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
@@ -26064,7 +26063,7 @@
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="33">
-        <v>322.0</v>
+        <v>323.0</v>
       </c>
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
@@ -26094,7 +26093,7 @@
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="33">
-        <v>323.0</v>
+        <v>324.0</v>
       </c>
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
@@ -26124,7 +26123,7 @@
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="33">
-        <v>324.0</v>
+        <v>325.0</v>
       </c>
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
@@ -26154,7 +26153,7 @@
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
       <c r="O330" s="33">
-        <v>325.0</v>
+        <v>326.0</v>
       </c>
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
@@ -26184,7 +26183,7 @@
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="33">
-        <v>326.0</v>
+        <v>327.0</v>
       </c>
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
@@ -26214,7 +26213,7 @@
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="33">
-        <v>327.0</v>
+        <v>328.0</v>
       </c>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
@@ -26244,7 +26243,7 @@
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="33">
-        <v>328.0</v>
+        <v>329.0</v>
       </c>
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
@@ -26274,7 +26273,7 @@
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
       <c r="O334" s="33">
-        <v>329.0</v>
+        <v>330.0</v>
       </c>
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
@@ -26304,7 +26303,7 @@
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="33">
-        <v>330.0</v>
+        <v>331.0</v>
       </c>
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
@@ -26334,7 +26333,7 @@
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="33">
-        <v>331.0</v>
+        <v>332.0</v>
       </c>
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
@@ -26364,7 +26363,7 @@
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
       <c r="O337" s="33">
-        <v>332.0</v>
+        <v>333.0</v>
       </c>
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
@@ -26394,7 +26393,7 @@
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
       <c r="O338" s="33">
-        <v>333.0</v>
+        <v>334.0</v>
       </c>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
@@ -26424,7 +26423,7 @@
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="33">
-        <v>334.0</v>
+        <v>335.0</v>
       </c>
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
@@ -26454,7 +26453,7 @@
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="33">
-        <v>335.0</v>
+        <v>336.0</v>
       </c>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
@@ -26484,7 +26483,7 @@
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="33">
-        <v>336.0</v>
+        <v>337.0</v>
       </c>
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
@@ -26514,7 +26513,7 @@
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="33">
-        <v>337.0</v>
+        <v>338.0</v>
       </c>
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
@@ -26544,7 +26543,7 @@
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="33">
-        <v>338.0</v>
+        <v>339.0</v>
       </c>
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
@@ -26574,7 +26573,7 @@
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="33">
-        <v>339.0</v>
+        <v>340.0</v>
       </c>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
@@ -26604,7 +26603,7 @@
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="33">
-        <v>340.0</v>
+        <v>341.0</v>
       </c>
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
@@ -26634,7 +26633,7 @@
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="33">
-        <v>341.0</v>
+        <v>342.0</v>
       </c>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
@@ -26664,7 +26663,7 @@
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="33">
-        <v>342.0</v>
+        <v>343.0</v>
       </c>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
@@ -26694,7 +26693,7 @@
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="33">
-        <v>343.0</v>
+        <v>344.0</v>
       </c>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
@@ -26724,7 +26723,7 @@
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="33">
-        <v>344.0</v>
+        <v>345.0</v>
       </c>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
@@ -26754,7 +26753,7 @@
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="33">
-        <v>345.0</v>
+        <v>346.0</v>
       </c>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
@@ -26784,7 +26783,7 @@
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="33">
-        <v>346.0</v>
+        <v>347.0</v>
       </c>
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
@@ -26814,7 +26813,7 @@
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="33">
-        <v>347.0</v>
+        <v>348.0</v>
       </c>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
@@ -26844,7 +26843,7 @@
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
       <c r="O353" s="33">
-        <v>348.0</v>
+        <v>349.0</v>
       </c>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
@@ -26874,7 +26873,7 @@
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="33">
-        <v>349.0</v>
+        <v>350.0</v>
       </c>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
@@ -26904,7 +26903,7 @@
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="33">
-        <v>350.0</v>
+        <v>351.0</v>
       </c>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
@@ -26934,7 +26933,7 @@
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
       <c r="O356" s="33">
-        <v>351.0</v>
+        <v>352.0</v>
       </c>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
@@ -26964,7 +26963,7 @@
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="33">
-        <v>352.0</v>
+        <v>353.0</v>
       </c>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
@@ -26994,7 +26993,7 @@
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="33">
-        <v>353.0</v>
+        <v>354.0</v>
       </c>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
@@ -27024,7 +27023,7 @@
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
       <c r="O359" s="33">
-        <v>354.0</v>
+        <v>355.0</v>
       </c>
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
@@ -27054,7 +27053,7 @@
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="33">
-        <v>355.0</v>
+        <v>356.0</v>
       </c>
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
@@ -27084,7 +27083,7 @@
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
       <c r="O361" s="33">
-        <v>356.0</v>
+        <v>357.0</v>
       </c>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
@@ -27114,7 +27113,7 @@
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
       <c r="O362" s="33">
-        <v>357.0</v>
+        <v>358.0</v>
       </c>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
@@ -27144,7 +27143,7 @@
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
       <c r="O363" s="33">
-        <v>358.0</v>
+        <v>359.0</v>
       </c>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
@@ -27174,7 +27173,7 @@
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
       <c r="O364" s="33">
-        <v>359.0</v>
+        <v>360.0</v>
       </c>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
@@ -27204,7 +27203,7 @@
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
       <c r="O365" s="33">
-        <v>360.0</v>
+        <v>361.0</v>
       </c>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
@@ -27234,7 +27233,7 @@
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
       <c r="O366" s="33">
-        <v>361.0</v>
+        <v>362.0</v>
       </c>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
@@ -27264,7 +27263,7 @@
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
       <c r="O367" s="33">
-        <v>362.0</v>
+        <v>363.0</v>
       </c>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
@@ -27294,7 +27293,7 @@
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
       <c r="O368" s="33">
-        <v>363.0</v>
+        <v>364.0</v>
       </c>
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
@@ -27324,7 +27323,7 @@
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
       <c r="O369" s="33">
-        <v>364.0</v>
+        <v>365.0</v>
       </c>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
@@ -27354,7 +27353,7 @@
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
       <c r="O370" s="33">
-        <v>365.0</v>
+        <v>366.0</v>
       </c>
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
@@ -27384,7 +27383,7 @@
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
       <c r="O371" s="33">
-        <v>366.0</v>
+        <v>367.0</v>
       </c>
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
@@ -27414,7 +27413,7 @@
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
       <c r="O372" s="33">
-        <v>367.0</v>
+        <v>368.0</v>
       </c>
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
@@ -27444,7 +27443,7 @@
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
       <c r="O373" s="33">
-        <v>368.0</v>
+        <v>369.0</v>
       </c>
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
@@ -27474,7 +27473,7 @@
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
       <c r="O374" s="33">
-        <v>369.0</v>
+        <v>370.0</v>
       </c>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
@@ -27504,7 +27503,7 @@
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
       <c r="O375" s="33">
-        <v>370.0</v>
+        <v>371.0</v>
       </c>
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
@@ -27534,7 +27533,7 @@
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
       <c r="O376" s="33">
-        <v>371.0</v>
+        <v>372.0</v>
       </c>
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
@@ -27564,7 +27563,7 @@
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
       <c r="O377" s="33">
-        <v>372.0</v>
+        <v>373.0</v>
       </c>
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
@@ -27594,7 +27593,7 @@
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
       <c r="O378" s="33">
-        <v>373.0</v>
+        <v>374.0</v>
       </c>
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
@@ -27624,7 +27623,7 @@
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
       <c r="O379" s="33">
-        <v>374.0</v>
+        <v>375.0</v>
       </c>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
@@ -27654,7 +27653,7 @@
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
       <c r="O380" s="33">
-        <v>375.0</v>
+        <v>376.0</v>
       </c>
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
@@ -27684,7 +27683,7 @@
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
       <c r="O381" s="33">
-        <v>376.0</v>
+        <v>377.0</v>
       </c>
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
@@ -27714,7 +27713,7 @@
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
       <c r="O382" s="33">
-        <v>377.0</v>
+        <v>378.0</v>
       </c>
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
@@ -27744,7 +27743,7 @@
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
       <c r="O383" s="33">
-        <v>378.0</v>
+        <v>379.0</v>
       </c>
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
@@ -27774,7 +27773,7 @@
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
       <c r="O384" s="33">
-        <v>379.0</v>
+        <v>380.0</v>
       </c>
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
@@ -27804,7 +27803,7 @@
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
       <c r="O385" s="33">
-        <v>380.0</v>
+        <v>381.0</v>
       </c>
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
@@ -27834,7 +27833,7 @@
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
       <c r="O386" s="33">
-        <v>381.0</v>
+        <v>382.0</v>
       </c>
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
@@ -27864,7 +27863,7 @@
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
       <c r="O387" s="33">
-        <v>382.0</v>
+        <v>383.0</v>
       </c>
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
@@ -27894,7 +27893,7 @@
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
       <c r="O388" s="33">
-        <v>383.0</v>
+        <v>384.0</v>
       </c>
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
@@ -27924,7 +27923,7 @@
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
       <c r="O389" s="33">
-        <v>384.0</v>
+        <v>385.0</v>
       </c>
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
@@ -27954,7 +27953,7 @@
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
       <c r="O390" s="33">
-        <v>385.0</v>
+        <v>386.0</v>
       </c>
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
@@ -27984,7 +27983,7 @@
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
       <c r="O391" s="33">
-        <v>386.0</v>
+        <v>387.0</v>
       </c>
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
@@ -28014,7 +28013,7 @@
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
       <c r="O392" s="33">
-        <v>387.0</v>
+        <v>388.0</v>
       </c>
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
@@ -28044,7 +28043,7 @@
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
       <c r="O393" s="33">
-        <v>388.0</v>
+        <v>389.0</v>
       </c>
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
@@ -28074,7 +28073,7 @@
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
       <c r="O394" s="33">
-        <v>389.0</v>
+        <v>390.0</v>
       </c>
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
@@ -28104,7 +28103,7 @@
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
       <c r="O395" s="33">
-        <v>390.0</v>
+        <v>391.0</v>
       </c>
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
@@ -28134,7 +28133,7 @@
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
       <c r="O396" s="33">
-        <v>391.0</v>
+        <v>392.0</v>
       </c>
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
@@ -28164,7 +28163,7 @@
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
       <c r="O397" s="33">
-        <v>392.0</v>
+        <v>393.0</v>
       </c>
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
@@ -28194,7 +28193,7 @@
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
       <c r="O398" s="33">
-        <v>393.0</v>
+        <v>394.0</v>
       </c>
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
@@ -28224,7 +28223,7 @@
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
       <c r="O399" s="33">
-        <v>394.0</v>
+        <v>395.0</v>
       </c>
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
@@ -28254,7 +28253,7 @@
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
       <c r="O400" s="33">
-        <v>395.0</v>
+        <v>396.0</v>
       </c>
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
@@ -28284,7 +28283,7 @@
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
       <c r="O401" s="33">
-        <v>396.0</v>
+        <v>397.0</v>
       </c>
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
@@ -28314,7 +28313,7 @@
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
       <c r="O402" s="33">
-        <v>397.0</v>
+        <v>398.0</v>
       </c>
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
@@ -28344,7 +28343,7 @@
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
       <c r="O403" s="33">
-        <v>398.0</v>
+        <v>399.0</v>
       </c>
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
@@ -28374,7 +28373,7 @@
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
       <c r="O404" s="33">
-        <v>399.0</v>
+        <v>400.0</v>
       </c>
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
@@ -28404,7 +28403,7 @@
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
       <c r="O405" s="33">
-        <v>400.0</v>
+        <v>401.0</v>
       </c>
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
@@ -28434,7 +28433,7 @@
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
       <c r="O406" s="33">
-        <v>401.0</v>
+        <v>402.0</v>
       </c>
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
@@ -28464,7 +28463,7 @@
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
       <c r="O407" s="33">
-        <v>402.0</v>
+        <v>403.0</v>
       </c>
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
@@ -28494,7 +28493,7 @@
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
       <c r="O408" s="33">
-        <v>403.0</v>
+        <v>404.0</v>
       </c>
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
@@ -28524,7 +28523,7 @@
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
       <c r="O409" s="33">
-        <v>404.0</v>
+        <v>405.0</v>
       </c>
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
@@ -28554,7 +28553,7 @@
       <c r="M410" s="1"/>
       <c r="N410" s="1"/>
       <c r="O410" s="33">
-        <v>405.0</v>
+        <v>406.0</v>
       </c>
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
@@ -28584,7 +28583,7 @@
       <c r="M411" s="1"/>
       <c r="N411" s="1"/>
       <c r="O411" s="33">
-        <v>406.0</v>
+        <v>407.0</v>
       </c>
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
@@ -28614,7 +28613,7 @@
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
       <c r="O412" s="33">
-        <v>407.0</v>
+        <v>408.0</v>
       </c>
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
@@ -28644,7 +28643,7 @@
       <c r="M413" s="1"/>
       <c r="N413" s="1"/>
       <c r="O413" s="33">
-        <v>408.0</v>
+        <v>409.0</v>
       </c>
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
@@ -28674,7 +28673,7 @@
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
       <c r="O414" s="33">
-        <v>409.0</v>
+        <v>410.0</v>
       </c>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
@@ -28704,7 +28703,7 @@
       <c r="M415" s="1"/>
       <c r="N415" s="1"/>
       <c r="O415" s="33">
-        <v>410.0</v>
+        <v>411.0</v>
       </c>
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
@@ -28734,7 +28733,7 @@
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
       <c r="O416" s="33">
-        <v>411.0</v>
+        <v>412.0</v>
       </c>
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
@@ -28764,7 +28763,7 @@
       <c r="M417" s="1"/>
       <c r="N417" s="1"/>
       <c r="O417" s="33">
-        <v>412.0</v>
+        <v>413.0</v>
       </c>
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
@@ -28794,7 +28793,7 @@
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
       <c r="O418" s="33">
-        <v>413.0</v>
+        <v>414.0</v>
       </c>
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
@@ -28824,7 +28823,7 @@
       <c r="M419" s="1"/>
       <c r="N419" s="1"/>
       <c r="O419" s="33">
-        <v>414.0</v>
+        <v>415.0</v>
       </c>
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
@@ -28854,7 +28853,7 @@
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
       <c r="O420" s="33">
-        <v>415.0</v>
+        <v>416.0</v>
       </c>
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
@@ -28884,7 +28883,7 @@
       <c r="M421" s="1"/>
       <c r="N421" s="1"/>
       <c r="O421" s="33">
-        <v>416.0</v>
+        <v>417.0</v>
       </c>
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
@@ -28914,7 +28913,7 @@
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
       <c r="O422" s="33">
-        <v>417.0</v>
+        <v>418.0</v>
       </c>
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
@@ -28944,7 +28943,7 @@
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
       <c r="O423" s="33">
-        <v>418.0</v>
+        <v>419.0</v>
       </c>
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
@@ -28974,7 +28973,7 @@
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
       <c r="O424" s="33">
-        <v>419.0</v>
+        <v>420.0</v>
       </c>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
@@ -29004,7 +29003,7 @@
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
       <c r="O425" s="33">
-        <v>420.0</v>
+        <v>421.0</v>
       </c>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
@@ -29034,7 +29033,7 @@
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
       <c r="O426" s="33">
-        <v>421.0</v>
+        <v>422.0</v>
       </c>
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
@@ -29064,7 +29063,7 @@
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
       <c r="O427" s="33">
-        <v>422.0</v>
+        <v>423.0</v>
       </c>
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
@@ -29094,7 +29093,7 @@
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
       <c r="O428" s="33">
-        <v>423.0</v>
+        <v>424.0</v>
       </c>
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
@@ -29124,7 +29123,7 @@
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
       <c r="O429" s="33">
-        <v>424.0</v>
+        <v>425.0</v>
       </c>
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
@@ -29154,7 +29153,7 @@
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
       <c r="O430" s="33">
-        <v>425.0</v>
+        <v>426.0</v>
       </c>
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
@@ -29184,7 +29183,7 @@
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
       <c r="O431" s="33">
-        <v>426.0</v>
+        <v>427.0</v>
       </c>
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
@@ -29214,7 +29213,7 @@
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
       <c r="O432" s="33">
-        <v>427.0</v>
+        <v>428.0</v>
       </c>
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
@@ -29244,7 +29243,7 @@
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
       <c r="O433" s="33">
-        <v>428.0</v>
+        <v>429.0</v>
       </c>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
@@ -29274,7 +29273,7 @@
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
       <c r="O434" s="33">
-        <v>429.0</v>
+        <v>430.0</v>
       </c>
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
@@ -29304,7 +29303,7 @@
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
       <c r="O435" s="33">
-        <v>430.0</v>
+        <v>431.0</v>
       </c>
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
@@ -29334,7 +29333,7 @@
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
       <c r="O436" s="33">
-        <v>431.0</v>
+        <v>432.0</v>
       </c>
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
@@ -29364,7 +29363,7 @@
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
       <c r="O437" s="33">
-        <v>432.0</v>
+        <v>433.0</v>
       </c>
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
@@ -29394,7 +29393,7 @@
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
       <c r="O438" s="33">
-        <v>433.0</v>
+        <v>434.0</v>
       </c>
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
@@ -29424,7 +29423,7 @@
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
       <c r="O439" s="33">
-        <v>434.0</v>
+        <v>435.0</v>
       </c>
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
@@ -29454,7 +29453,7 @@
       <c r="M440" s="1"/>
       <c r="N440" s="1"/>
       <c r="O440" s="33">
-        <v>435.0</v>
+        <v>436.0</v>
       </c>
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
@@ -29484,7 +29483,7 @@
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
       <c r="O441" s="33">
-        <v>436.0</v>
+        <v>437.0</v>
       </c>
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
@@ -29514,7 +29513,7 @@
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
       <c r="O442" s="33">
-        <v>437.0</v>
+        <v>438.0</v>
       </c>
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
@@ -29544,7 +29543,7 @@
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
       <c r="O443" s="33">
-        <v>438.0</v>
+        <v>439.0</v>
       </c>
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
@@ -29574,7 +29573,7 @@
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
       <c r="O444" s="33">
-        <v>439.0</v>
+        <v>440.0</v>
       </c>
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
@@ -29604,7 +29603,7 @@
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
       <c r="O445" s="33">
-        <v>440.0</v>
+        <v>441.0</v>
       </c>
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
@@ -29634,7 +29633,7 @@
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
       <c r="O446" s="33">
-        <v>441.0</v>
+        <v>442.0</v>
       </c>
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
@@ -29664,7 +29663,7 @@
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
       <c r="O447" s="33">
-        <v>442.0</v>
+        <v>443.0</v>
       </c>
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
@@ -29694,7 +29693,7 @@
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
       <c r="O448" s="33">
-        <v>443.0</v>
+        <v>444.0</v>
       </c>
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
@@ -29724,7 +29723,7 @@
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
       <c r="O449" s="33">
-        <v>444.0</v>
+        <v>445.0</v>
       </c>
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
@@ -29754,7 +29753,7 @@
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
       <c r="O450" s="33">
-        <v>445.0</v>
+        <v>446.0</v>
       </c>
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
@@ -29784,7 +29783,7 @@
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
       <c r="O451" s="33">
-        <v>446.0</v>
+        <v>447.0</v>
       </c>
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
@@ -29814,7 +29813,7 @@
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
       <c r="O452" s="33">
-        <v>447.0</v>
+        <v>448.0</v>
       </c>
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
@@ -29844,7 +29843,7 @@
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
       <c r="O453" s="33">
-        <v>448.0</v>
+        <v>449.0</v>
       </c>
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
@@ -29874,7 +29873,7 @@
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
       <c r="O454" s="33">
-        <v>449.0</v>
+        <v>450.0</v>
       </c>
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
@@ -29904,7 +29903,7 @@
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
       <c r="O455" s="33">
-        <v>450.0</v>
+        <v>451.0</v>
       </c>
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
@@ -29934,7 +29933,7 @@
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
       <c r="O456" s="33">
-        <v>451.0</v>
+        <v>452.0</v>
       </c>
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
@@ -29964,7 +29963,7 @@
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
       <c r="O457" s="33">
-        <v>452.0</v>
+        <v>453.0</v>
       </c>
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
@@ -29994,7 +29993,7 @@
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
       <c r="O458" s="33">
-        <v>453.0</v>
+        <v>454.0</v>
       </c>
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
@@ -30024,7 +30023,7 @@
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
       <c r="O459" s="33">
-        <v>454.0</v>
+        <v>455.0</v>
       </c>
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
@@ -30054,7 +30053,7 @@
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
       <c r="O460" s="33">
-        <v>455.0</v>
+        <v>456.0</v>
       </c>
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
@@ -30084,7 +30083,7 @@
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
       <c r="O461" s="33">
-        <v>456.0</v>
+        <v>457.0</v>
       </c>
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
@@ -30114,7 +30113,7 @@
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
       <c r="O462" s="33">
-        <v>457.0</v>
+        <v>458.0</v>
       </c>
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
@@ -30144,7 +30143,7 @@
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
       <c r="O463" s="33">
-        <v>458.0</v>
+        <v>459.0</v>
       </c>
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
@@ -30174,7 +30173,7 @@
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
       <c r="O464" s="33">
-        <v>459.0</v>
+        <v>460.0</v>
       </c>
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
@@ -30204,7 +30203,7 @@
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
       <c r="O465" s="33">
-        <v>460.0</v>
+        <v>461.0</v>
       </c>
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
@@ -30234,7 +30233,7 @@
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
       <c r="O466" s="33">
-        <v>461.0</v>
+        <v>462.0</v>
       </c>
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
@@ -30264,7 +30263,7 @@
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
       <c r="O467" s="33">
-        <v>462.0</v>
+        <v>463.0</v>
       </c>
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
@@ -30294,7 +30293,7 @@
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
       <c r="O468" s="33">
-        <v>463.0</v>
+        <v>464.0</v>
       </c>
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
@@ -30324,7 +30323,7 @@
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
       <c r="O469" s="33">
-        <v>464.0</v>
+        <v>465.0</v>
       </c>
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
@@ -30354,7 +30353,7 @@
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
       <c r="O470" s="33">
-        <v>465.0</v>
+        <v>466.0</v>
       </c>
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
@@ -30384,7 +30383,7 @@
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
       <c r="O471" s="33">
-        <v>466.0</v>
+        <v>467.0</v>
       </c>
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
@@ -30414,7 +30413,7 @@
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
       <c r="O472" s="33">
-        <v>467.0</v>
+        <v>468.0</v>
       </c>
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
@@ -30444,7 +30443,7 @@
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
       <c r="O473" s="33">
-        <v>468.0</v>
+        <v>469.0</v>
       </c>
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
@@ -30474,7 +30473,7 @@
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
       <c r="O474" s="33">
-        <v>469.0</v>
+        <v>470.0</v>
       </c>
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
@@ -30504,7 +30503,7 @@
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
       <c r="O475" s="33">
-        <v>470.0</v>
+        <v>471.0</v>
       </c>
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
@@ -30534,7 +30533,7 @@
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
       <c r="O476" s="33">
-        <v>471.0</v>
+        <v>472.0</v>
       </c>
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
@@ -30564,7 +30563,7 @@
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
       <c r="O477" s="33">
-        <v>472.0</v>
+        <v>473.0</v>
       </c>
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
@@ -30594,7 +30593,7 @@
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
       <c r="O478" s="33">
-        <v>473.0</v>
+        <v>474.0</v>
       </c>
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
@@ -30624,7 +30623,7 @@
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
       <c r="O479" s="33">
-        <v>474.0</v>
+        <v>475.0</v>
       </c>
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
@@ -30654,7 +30653,7 @@
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
       <c r="O480" s="33">
-        <v>475.0</v>
+        <v>476.0</v>
       </c>
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
@@ -30684,7 +30683,7 @@
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
       <c r="O481" s="33">
-        <v>476.0</v>
+        <v>477.0</v>
       </c>
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
@@ -30714,7 +30713,7 @@
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
       <c r="O482" s="33">
-        <v>477.0</v>
+        <v>478.0</v>
       </c>
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
@@ -30744,7 +30743,7 @@
       <c r="M483" s="1"/>
       <c r="N483" s="1"/>
       <c r="O483" s="33">
-        <v>478.0</v>
+        <v>479.0</v>
       </c>
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
@@ -30774,7 +30773,7 @@
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
       <c r="O484" s="33">
-        <v>479.0</v>
+        <v>480.0</v>
       </c>
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
@@ -30804,7 +30803,7 @@
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
       <c r="O485" s="33">
-        <v>480.0</v>
+        <v>481.0</v>
       </c>
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
@@ -30834,7 +30833,7 @@
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>
       <c r="O486" s="33">
-        <v>481.0</v>
+        <v>482.0</v>
       </c>
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
@@ -30864,7 +30863,7 @@
       <c r="M487" s="1"/>
       <c r="N487" s="1"/>
       <c r="O487" s="33">
-        <v>482.0</v>
+        <v>483.0</v>
       </c>
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
@@ -30894,7 +30893,7 @@
       <c r="M488" s="1"/>
       <c r="N488" s="1"/>
       <c r="O488" s="33">
-        <v>483.0</v>
+        <v>484.0</v>
       </c>
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
@@ -30924,7 +30923,7 @@
       <c r="M489" s="1"/>
       <c r="N489" s="1"/>
       <c r="O489" s="33">
-        <v>484.0</v>
+        <v>485.0</v>
       </c>
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
@@ -30954,7 +30953,7 @@
       <c r="M490" s="1"/>
       <c r="N490" s="1"/>
       <c r="O490" s="33">
-        <v>485.0</v>
+        <v>486.0</v>
       </c>
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
@@ -30984,7 +30983,7 @@
       <c r="M491" s="1"/>
       <c r="N491" s="1"/>
       <c r="O491" s="33">
-        <v>486.0</v>
+        <v>487.0</v>
       </c>
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
@@ -31014,7 +31013,7 @@
       <c r="M492" s="1"/>
       <c r="N492" s="1"/>
       <c r="O492" s="33">
-        <v>487.0</v>
+        <v>488.0</v>
       </c>
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
@@ -31044,7 +31043,7 @@
       <c r="M493" s="1"/>
       <c r="N493" s="1"/>
       <c r="O493" s="33">
-        <v>488.0</v>
+        <v>489.0</v>
       </c>
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
@@ -31074,7 +31073,7 @@
       <c r="M494" s="1"/>
       <c r="N494" s="1"/>
       <c r="O494" s="33">
-        <v>489.0</v>
+        <v>490.0</v>
       </c>
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
@@ -31104,7 +31103,7 @@
       <c r="M495" s="1"/>
       <c r="N495" s="1"/>
       <c r="O495" s="33">
-        <v>490.0</v>
+        <v>491.0</v>
       </c>
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
@@ -31134,7 +31133,7 @@
       <c r="M496" s="1"/>
       <c r="N496" s="1"/>
       <c r="O496" s="33">
-        <v>491.0</v>
+        <v>492.0</v>
       </c>
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
@@ -31164,7 +31163,7 @@
       <c r="M497" s="1"/>
       <c r="N497" s="1"/>
       <c r="O497" s="33">
-        <v>492.0</v>
+        <v>493.0</v>
       </c>
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
@@ -31194,7 +31193,7 @@
       <c r="M498" s="1"/>
       <c r="N498" s="1"/>
       <c r="O498" s="33">
-        <v>493.0</v>
+        <v>494.0</v>
       </c>
       <c r="P498" s="1"/>
       <c r="Q498" s="1"/>
@@ -31224,7 +31223,7 @@
       <c r="M499" s="1"/>
       <c r="N499" s="1"/>
       <c r="O499" s="33">
-        <v>494.0</v>
+        <v>495.0</v>
       </c>
       <c r="P499" s="1"/>
       <c r="Q499" s="1"/>
@@ -31254,7 +31253,7 @@
       <c r="M500" s="1"/>
       <c r="N500" s="1"/>
       <c r="O500" s="33">
-        <v>495.0</v>
+        <v>496.0</v>
       </c>
       <c r="P500" s="1"/>
       <c r="Q500" s="1"/>
@@ -31284,7 +31283,7 @@
       <c r="M501" s="1"/>
       <c r="N501" s="1"/>
       <c r="O501" s="33">
-        <v>496.0</v>
+        <v>497.0</v>
       </c>
       <c r="P501" s="1"/>
       <c r="Q501" s="1"/>
@@ -31314,7 +31313,7 @@
       <c r="M502" s="1"/>
       <c r="N502" s="1"/>
       <c r="O502" s="33">
-        <v>497.0</v>
+        <v>498.0</v>
       </c>
       <c r="P502" s="1"/>
       <c r="Q502" s="1"/>
@@ -31344,7 +31343,7 @@
       <c r="M503" s="1"/>
       <c r="N503" s="1"/>
       <c r="O503" s="33">
-        <v>498.0</v>
+        <v>499.0</v>
       </c>
       <c r="P503" s="1"/>
       <c r="Q503" s="1"/>
@@ -31374,7 +31373,7 @@
       <c r="M504" s="1"/>
       <c r="N504" s="1"/>
       <c r="O504" s="33">
-        <v>499.0</v>
+        <v>500.0</v>
       </c>
       <c r="P504" s="1"/>
       <c r="Q504" s="1"/>
@@ -31404,7 +31403,7 @@
       <c r="M505" s="1"/>
       <c r="N505" s="1"/>
       <c r="O505" s="33">
-        <v>500.0</v>
+        <v>501.0</v>
       </c>
       <c r="P505" s="1"/>
       <c r="Q505" s="1"/>
@@ -31434,7 +31433,7 @@
       <c r="M506" s="1"/>
       <c r="N506" s="1"/>
       <c r="O506" s="33">
-        <v>501.0</v>
+        <v>502.0</v>
       </c>
       <c r="P506" s="1"/>
       <c r="Q506" s="1"/>
@@ -31464,7 +31463,7 @@
       <c r="M507" s="1"/>
       <c r="N507" s="1"/>
       <c r="O507" s="33">
-        <v>502.0</v>
+        <v>503.0</v>
       </c>
       <c r="P507" s="1"/>
       <c r="Q507" s="1"/>
@@ -31494,7 +31493,7 @@
       <c r="M508" s="1"/>
       <c r="N508" s="1"/>
       <c r="O508" s="33">
-        <v>503.0</v>
+        <v>504.0</v>
       </c>
       <c r="P508" s="1"/>
       <c r="Q508" s="1"/>
@@ -31524,7 +31523,7 @@
       <c r="M509" s="1"/>
       <c r="N509" s="1"/>
       <c r="O509" s="33">
-        <v>504.0</v>
+        <v>505.0</v>
       </c>
       <c r="P509" s="1"/>
       <c r="Q509" s="1"/>
@@ -31554,7 +31553,7 @@
       <c r="M510" s="1"/>
       <c r="N510" s="1"/>
       <c r="O510" s="33">
-        <v>505.0</v>
+        <v>506.0</v>
       </c>
       <c r="P510" s="1"/>
       <c r="Q510" s="1"/>
@@ -31584,7 +31583,7 @@
       <c r="M511" s="1"/>
       <c r="N511" s="1"/>
       <c r="O511" s="33">
-        <v>506.0</v>
+        <v>507.0</v>
       </c>
       <c r="P511" s="1"/>
       <c r="Q511" s="1"/>
@@ -31614,7 +31613,7 @@
       <c r="M512" s="1"/>
       <c r="N512" s="1"/>
       <c r="O512" s="33">
-        <v>507.0</v>
+        <v>508.0</v>
       </c>
       <c r="P512" s="1"/>
       <c r="Q512" s="1"/>
@@ -31644,7 +31643,7 @@
       <c r="M513" s="1"/>
       <c r="N513" s="1"/>
       <c r="O513" s="33">
-        <v>508.0</v>
+        <v>509.0</v>
       </c>
       <c r="P513" s="1"/>
       <c r="Q513" s="1"/>
@@ -31674,7 +31673,7 @@
       <c r="M514" s="1"/>
       <c r="N514" s="1"/>
       <c r="O514" s="33">
-        <v>509.0</v>
+        <v>510.0</v>
       </c>
       <c r="P514" s="1"/>
       <c r="Q514" s="1"/>
@@ -31704,7 +31703,7 @@
       <c r="M515" s="1"/>
       <c r="N515" s="1"/>
       <c r="O515" s="33">
-        <v>510.0</v>
+        <v>511.0</v>
       </c>
       <c r="P515" s="1"/>
       <c r="Q515" s="1"/>
@@ -31734,7 +31733,7 @@
       <c r="M516" s="1"/>
       <c r="N516" s="1"/>
       <c r="O516" s="33">
-        <v>511.0</v>
+        <v>512.0</v>
       </c>
       <c r="P516" s="1"/>
       <c r="Q516" s="1"/>
@@ -31764,7 +31763,7 @@
       <c r="M517" s="1"/>
       <c r="N517" s="1"/>
       <c r="O517" s="33">
-        <v>512.0</v>
+        <v>513.0</v>
       </c>
       <c r="P517" s="1"/>
       <c r="Q517" s="1"/>
@@ -31794,7 +31793,7 @@
       <c r="M518" s="1"/>
       <c r="N518" s="1"/>
       <c r="O518" s="33">
-        <v>513.0</v>
+        <v>514.0</v>
       </c>
       <c r="P518" s="1"/>
       <c r="Q518" s="1"/>
@@ -31824,7 +31823,7 @@
       <c r="M519" s="1"/>
       <c r="N519" s="1"/>
       <c r="O519" s="33">
-        <v>514.0</v>
+        <v>515.0</v>
       </c>
       <c r="P519" s="1"/>
       <c r="Q519" s="1"/>
@@ -31854,7 +31853,7 @@
       <c r="M520" s="1"/>
       <c r="N520" s="1"/>
       <c r="O520" s="33">
-        <v>515.0</v>
+        <v>516.0</v>
       </c>
       <c r="P520" s="1"/>
       <c r="Q520" s="1"/>
@@ -31884,7 +31883,7 @@
       <c r="M521" s="1"/>
       <c r="N521" s="1"/>
       <c r="O521" s="33">
-        <v>516.0</v>
+        <v>517.0</v>
       </c>
       <c r="P521" s="1"/>
       <c r="Q521" s="1"/>
@@ -31914,7 +31913,7 @@
       <c r="M522" s="1"/>
       <c r="N522" s="1"/>
       <c r="O522" s="33">
-        <v>517.0</v>
+        <v>518.0</v>
       </c>
       <c r="P522" s="1"/>
       <c r="Q522" s="1"/>
@@ -31944,7 +31943,7 @@
       <c r="M523" s="1"/>
       <c r="N523" s="1"/>
       <c r="O523" s="33">
-        <v>518.0</v>
+        <v>519.0</v>
       </c>
       <c r="P523" s="1"/>
       <c r="Q523" s="1"/>
@@ -31974,7 +31973,7 @@
       <c r="M524" s="1"/>
       <c r="N524" s="1"/>
       <c r="O524" s="33">
-        <v>519.0</v>
+        <v>520.0</v>
       </c>
       <c r="P524" s="1"/>
       <c r="Q524" s="1"/>
@@ -32004,7 +32003,7 @@
       <c r="M525" s="1"/>
       <c r="N525" s="1"/>
       <c r="O525" s="33">
-        <v>520.0</v>
+        <v>521.0</v>
       </c>
       <c r="P525" s="1"/>
       <c r="Q525" s="1"/>
@@ -32034,7 +32033,7 @@
       <c r="M526" s="1"/>
       <c r="N526" s="1"/>
       <c r="O526" s="33">
-        <v>521.0</v>
+        <v>522.0</v>
       </c>
       <c r="P526" s="1"/>
       <c r="Q526" s="1"/>
@@ -32064,7 +32063,7 @@
       <c r="M527" s="1"/>
       <c r="N527" s="1"/>
       <c r="O527" s="33">
-        <v>522.0</v>
+        <v>523.0</v>
       </c>
       <c r="P527" s="1"/>
       <c r="Q527" s="1"/>
@@ -32094,7 +32093,7 @@
       <c r="M528" s="1"/>
       <c r="N528" s="1"/>
       <c r="O528" s="33">
-        <v>523.0</v>
+        <v>524.0</v>
       </c>
       <c r="P528" s="1"/>
       <c r="Q528" s="1"/>
@@ -32124,7 +32123,7 @@
       <c r="M529" s="1"/>
       <c r="N529" s="1"/>
       <c r="O529" s="33">
-        <v>524.0</v>
+        <v>525.0</v>
       </c>
       <c r="P529" s="1"/>
       <c r="Q529" s="1"/>
@@ -32154,7 +32153,7 @@
       <c r="M530" s="1"/>
       <c r="N530" s="1"/>
       <c r="O530" s="33">
-        <v>525.0</v>
+        <v>526.0</v>
       </c>
       <c r="P530" s="1"/>
       <c r="Q530" s="1"/>
@@ -32184,7 +32183,7 @@
       <c r="M531" s="1"/>
       <c r="N531" s="1"/>
       <c r="O531" s="33">
-        <v>526.0</v>
+        <v>527.0</v>
       </c>
       <c r="P531" s="1"/>
       <c r="Q531" s="1"/>
@@ -32214,7 +32213,7 @@
       <c r="M532" s="1"/>
       <c r="N532" s="1"/>
       <c r="O532" s="33">
-        <v>527.0</v>
+        <v>528.0</v>
       </c>
       <c r="P532" s="1"/>
       <c r="Q532" s="1"/>
@@ -32244,7 +32243,7 @@
       <c r="M533" s="1"/>
       <c r="N533" s="1"/>
       <c r="O533" s="33">
-        <v>528.0</v>
+        <v>529.0</v>
       </c>
       <c r="P533" s="1"/>
       <c r="Q533" s="1"/>
@@ -32274,7 +32273,7 @@
       <c r="M534" s="1"/>
       <c r="N534" s="1"/>
       <c r="O534" s="33">
-        <v>529.0</v>
+        <v>530.0</v>
       </c>
       <c r="P534" s="1"/>
       <c r="Q534" s="1"/>
@@ -32304,7 +32303,7 @@
       <c r="M535" s="1"/>
       <c r="N535" s="1"/>
       <c r="O535" s="33">
-        <v>530.0</v>
+        <v>531.0</v>
       </c>
       <c r="P535" s="1"/>
       <c r="Q535" s="1"/>
@@ -32334,7 +32333,7 @@
       <c r="M536" s="1"/>
       <c r="N536" s="1"/>
       <c r="O536" s="33">
-        <v>531.0</v>
+        <v>532.0</v>
       </c>
       <c r="P536" s="1"/>
       <c r="Q536" s="1"/>
@@ -32364,7 +32363,7 @@
       <c r="M537" s="1"/>
       <c r="N537" s="1"/>
       <c r="O537" s="33">
-        <v>532.0</v>
+        <v>533.0</v>
       </c>
       <c r="P537" s="1"/>
       <c r="Q537" s="1"/>
@@ -32394,7 +32393,7 @@
       <c r="M538" s="1"/>
       <c r="N538" s="1"/>
       <c r="O538" s="33">
-        <v>533.0</v>
+        <v>534.0</v>
       </c>
       <c r="P538" s="1"/>
       <c r="Q538" s="1"/>
@@ -32424,7 +32423,7 @@
       <c r="M539" s="1"/>
       <c r="N539" s="1"/>
       <c r="O539" s="33">
-        <v>534.0</v>
+        <v>535.0</v>
       </c>
       <c r="P539" s="1"/>
       <c r="Q539" s="1"/>
@@ -32454,7 +32453,7 @@
       <c r="M540" s="1"/>
       <c r="N540" s="1"/>
       <c r="O540" s="33">
-        <v>535.0</v>
+        <v>536.0</v>
       </c>
       <c r="P540" s="1"/>
       <c r="Q540" s="1"/>
@@ -32484,7 +32483,7 @@
       <c r="M541" s="1"/>
       <c r="N541" s="1"/>
       <c r="O541" s="33">
-        <v>536.0</v>
+        <v>537.0</v>
       </c>
       <c r="P541" s="1"/>
       <c r="Q541" s="1"/>
@@ -32514,7 +32513,7 @@
       <c r="M542" s="1"/>
       <c r="N542" s="1"/>
       <c r="O542" s="33">
-        <v>537.0</v>
+        <v>538.0</v>
       </c>
       <c r="P542" s="1"/>
       <c r="Q542" s="1"/>
@@ -32544,7 +32543,7 @@
       <c r="M543" s="1"/>
       <c r="N543" s="1"/>
       <c r="O543" s="33">
-        <v>538.0</v>
+        <v>539.0</v>
       </c>
       <c r="P543" s="1"/>
       <c r="Q543" s="1"/>
@@ -32574,7 +32573,7 @@
       <c r="M544" s="1"/>
       <c r="N544" s="1"/>
       <c r="O544" s="33">
-        <v>539.0</v>
+        <v>540.0</v>
       </c>
       <c r="P544" s="1"/>
       <c r="Q544" s="1"/>
@@ -32604,7 +32603,7 @@
       <c r="M545" s="1"/>
       <c r="N545" s="1"/>
       <c r="O545" s="33">
-        <v>540.0</v>
+        <v>541.0</v>
       </c>
       <c r="P545" s="1"/>
       <c r="Q545" s="1"/>
@@ -32634,7 +32633,7 @@
       <c r="M546" s="1"/>
       <c r="N546" s="1"/>
       <c r="O546" s="33">
-        <v>541.0</v>
+        <v>542.0</v>
       </c>
       <c r="P546" s="1"/>
       <c r="Q546" s="1"/>
@@ -32664,7 +32663,7 @@
       <c r="M547" s="1"/>
       <c r="N547" s="1"/>
       <c r="O547" s="33">
-        <v>542.0</v>
+        <v>543.0</v>
       </c>
       <c r="P547" s="1"/>
       <c r="Q547" s="1"/>
@@ -32694,7 +32693,7 @@
       <c r="M548" s="1"/>
       <c r="N548" s="1"/>
       <c r="O548" s="33">
-        <v>543.0</v>
+        <v>544.0</v>
       </c>
       <c r="P548" s="1"/>
       <c r="Q548" s="1"/>
@@ -32724,7 +32723,7 @@
       <c r="M549" s="1"/>
       <c r="N549" s="1"/>
       <c r="O549" s="33">
-        <v>544.0</v>
+        <v>545.0</v>
       </c>
       <c r="P549" s="1"/>
       <c r="Q549" s="1"/>
@@ -32754,7 +32753,7 @@
       <c r="M550" s="1"/>
       <c r="N550" s="1"/>
       <c r="O550" s="33">
-        <v>545.0</v>
+        <v>546.0</v>
       </c>
       <c r="P550" s="1"/>
       <c r="Q550" s="1"/>
@@ -32784,7 +32783,7 @@
       <c r="M551" s="1"/>
       <c r="N551" s="1"/>
       <c r="O551" s="33">
-        <v>546.0</v>
+        <v>547.0</v>
       </c>
       <c r="P551" s="1"/>
       <c r="Q551" s="1"/>
@@ -32814,7 +32813,7 @@
       <c r="M552" s="1"/>
       <c r="N552" s="1"/>
       <c r="O552" s="33">
-        <v>547.0</v>
+        <v>548.0</v>
       </c>
       <c r="P552" s="1"/>
       <c r="Q552" s="1"/>
@@ -32844,7 +32843,7 @@
       <c r="M553" s="1"/>
       <c r="N553" s="1"/>
       <c r="O553" s="33">
-        <v>548.0</v>
+        <v>549.0</v>
       </c>
       <c r="P553" s="1"/>
       <c r="Q553" s="1"/>
@@ -32874,7 +32873,7 @@
       <c r="M554" s="1"/>
       <c r="N554" s="1"/>
       <c r="O554" s="33">
-        <v>549.0</v>
+        <v>550.0</v>
       </c>
       <c r="P554" s="1"/>
       <c r="Q554" s="1"/>
@@ -32904,7 +32903,7 @@
       <c r="M555" s="1"/>
       <c r="N555" s="1"/>
       <c r="O555" s="33">
-        <v>550.0</v>
+        <v>551.0</v>
       </c>
       <c r="P555" s="1"/>
       <c r="Q555" s="1"/>
@@ -32934,7 +32933,7 @@
       <c r="M556" s="1"/>
       <c r="N556" s="1"/>
       <c r="O556" s="33">
-        <v>551.0</v>
+        <v>552.0</v>
       </c>
       <c r="P556" s="1"/>
       <c r="Q556" s="1"/>
@@ -32964,7 +32963,7 @@
       <c r="M557" s="1"/>
       <c r="N557" s="1"/>
       <c r="O557" s="33">
-        <v>552.0</v>
+        <v>553.0</v>
       </c>
       <c r="P557" s="1"/>
       <c r="Q557" s="1"/>
@@ -32994,7 +32993,7 @@
       <c r="M558" s="1"/>
       <c r="N558" s="1"/>
       <c r="O558" s="33">
-        <v>553.0</v>
+        <v>554.0</v>
       </c>
       <c r="P558" s="1"/>
       <c r="Q558" s="1"/>
@@ -33024,7 +33023,7 @@
       <c r="M559" s="1"/>
       <c r="N559" s="1"/>
       <c r="O559" s="33">
-        <v>554.0</v>
+        <v>555.0</v>
       </c>
       <c r="P559" s="1"/>
       <c r="Q559" s="1"/>
@@ -33054,7 +33053,7 @@
       <c r="M560" s="1"/>
       <c r="N560" s="1"/>
       <c r="O560" s="33">
-        <v>555.0</v>
+        <v>556.0</v>
       </c>
       <c r="P560" s="1"/>
       <c r="Q560" s="1"/>
@@ -33084,7 +33083,7 @@
       <c r="M561" s="1"/>
       <c r="N561" s="1"/>
       <c r="O561" s="33">
-        <v>556.0</v>
+        <v>557.0</v>
       </c>
       <c r="P561" s="1"/>
       <c r="Q561" s="1"/>
@@ -33114,7 +33113,7 @@
       <c r="M562" s="1"/>
       <c r="N562" s="1"/>
       <c r="O562" s="33">
-        <v>557.0</v>
+        <v>558.0</v>
       </c>
       <c r="P562" s="1"/>
       <c r="Q562" s="1"/>
@@ -33144,7 +33143,7 @@
       <c r="M563" s="1"/>
       <c r="N563" s="1"/>
       <c r="O563" s="33">
-        <v>558.0</v>
+        <v>559.0</v>
       </c>
       <c r="P563" s="1"/>
       <c r="Q563" s="1"/>
@@ -33174,7 +33173,7 @@
       <c r="M564" s="1"/>
       <c r="N564" s="1"/>
       <c r="O564" s="33">
-        <v>559.0</v>
+        <v>560.0</v>
       </c>
       <c r="P564" s="1"/>
       <c r="Q564" s="1"/>
@@ -33204,7 +33203,7 @@
       <c r="M565" s="1"/>
       <c r="N565" s="1"/>
       <c r="O565" s="33">
-        <v>560.0</v>
+        <v>561.0</v>
       </c>
       <c r="P565" s="1"/>
       <c r="Q565" s="1"/>
@@ -33234,7 +33233,7 @@
       <c r="M566" s="1"/>
       <c r="N566" s="1"/>
       <c r="O566" s="33">
-        <v>561.0</v>
+        <v>562.0</v>
       </c>
       <c r="P566" s="1"/>
       <c r="Q566" s="1"/>
@@ -33264,7 +33263,7 @@
       <c r="M567" s="1"/>
       <c r="N567" s="1"/>
       <c r="O567" s="33">
-        <v>562.0</v>
+        <v>563.0</v>
       </c>
       <c r="P567" s="1"/>
       <c r="Q567" s="1"/>
@@ -33294,7 +33293,7 @@
       <c r="M568" s="1"/>
       <c r="N568" s="1"/>
       <c r="O568" s="33">
-        <v>563.0</v>
+        <v>564.0</v>
       </c>
       <c r="P568" s="1"/>
       <c r="Q568" s="1"/>
@@ -33324,7 +33323,7 @@
       <c r="M569" s="1"/>
       <c r="N569" s="1"/>
       <c r="O569" s="33">
-        <v>564.0</v>
+        <v>565.0</v>
       </c>
       <c r="P569" s="1"/>
       <c r="Q569" s="1"/>
@@ -33354,7 +33353,7 @@
       <c r="M570" s="1"/>
       <c r="N570" s="1"/>
       <c r="O570" s="33">
-        <v>565.0</v>
+        <v>566.0</v>
       </c>
       <c r="P570" s="1"/>
       <c r="Q570" s="1"/>
@@ -33384,7 +33383,7 @@
       <c r="M571" s="1"/>
       <c r="N571" s="1"/>
       <c r="O571" s="33">
-        <v>566.0</v>
+        <v>567.0</v>
       </c>
       <c r="P571" s="1"/>
       <c r="Q571" s="1"/>
@@ -33414,7 +33413,7 @@
       <c r="M572" s="1"/>
       <c r="N572" s="1"/>
       <c r="O572" s="33">
-        <v>567.0</v>
+        <v>568.0</v>
       </c>
       <c r="P572" s="1"/>
       <c r="Q572" s="1"/>
@@ -33444,7 +33443,7 @@
       <c r="M573" s="1"/>
       <c r="N573" s="1"/>
       <c r="O573" s="33">
-        <v>568.0</v>
+        <v>569.0</v>
       </c>
       <c r="P573" s="1"/>
       <c r="Q573" s="1"/>
@@ -33474,7 +33473,7 @@
       <c r="M574" s="1"/>
       <c r="N574" s="1"/>
       <c r="O574" s="33">
-        <v>569.0</v>
+        <v>570.0</v>
       </c>
       <c r="P574" s="1"/>
       <c r="Q574" s="1"/>
@@ -33504,7 +33503,7 @@
       <c r="M575" s="1"/>
       <c r="N575" s="1"/>
       <c r="O575" s="33">
-        <v>570.0</v>
+        <v>571.0</v>
       </c>
       <c r="P575" s="1"/>
       <c r="Q575" s="1"/>
@@ -33534,7 +33533,7 @@
       <c r="M576" s="1"/>
       <c r="N576" s="1"/>
       <c r="O576" s="33">
-        <v>571.0</v>
+        <v>572.0</v>
       </c>
       <c r="P576" s="1"/>
       <c r="Q576" s="1"/>
@@ -33564,7 +33563,7 @@
       <c r="M577" s="1"/>
       <c r="N577" s="1"/>
       <c r="O577" s="33">
-        <v>572.0</v>
+        <v>573.0</v>
       </c>
       <c r="P577" s="1"/>
       <c r="Q577" s="1"/>
@@ -33594,7 +33593,7 @@
       <c r="M578" s="1"/>
       <c r="N578" s="1"/>
       <c r="O578" s="33">
-        <v>573.0</v>
+        <v>574.0</v>
       </c>
       <c r="P578" s="1"/>
       <c r="Q578" s="1"/>
@@ -33624,7 +33623,7 @@
       <c r="M579" s="1"/>
       <c r="N579" s="1"/>
       <c r="O579" s="33">
-        <v>574.0</v>
+        <v>575.0</v>
       </c>
       <c r="P579" s="1"/>
       <c r="Q579" s="1"/>
@@ -33654,7 +33653,7 @@
       <c r="M580" s="1"/>
       <c r="N580" s="1"/>
       <c r="O580" s="33">
-        <v>575.0</v>
+        <v>576.0</v>
       </c>
       <c r="P580" s="1"/>
       <c r="Q580" s="1"/>
@@ -33684,7 +33683,7 @@
       <c r="M581" s="1"/>
       <c r="N581" s="1"/>
       <c r="O581" s="33">
-        <v>576.0</v>
+        <v>577.0</v>
       </c>
       <c r="P581" s="1"/>
       <c r="Q581" s="1"/>
@@ -33714,7 +33713,7 @@
       <c r="M582" s="1"/>
       <c r="N582" s="1"/>
       <c r="O582" s="33">
-        <v>577.0</v>
+        <v>578.0</v>
       </c>
       <c r="P582" s="1"/>
       <c r="Q582" s="1"/>
@@ -33744,7 +33743,7 @@
       <c r="M583" s="1"/>
       <c r="N583" s="1"/>
       <c r="O583" s="33">
-        <v>578.0</v>
+        <v>579.0</v>
       </c>
       <c r="P583" s="1"/>
       <c r="Q583" s="1"/>
@@ -33774,7 +33773,7 @@
       <c r="M584" s="1"/>
       <c r="N584" s="1"/>
       <c r="O584" s="33">
-        <v>579.0</v>
+        <v>580.0</v>
       </c>
       <c r="P584" s="1"/>
       <c r="Q584" s="1"/>
@@ -33804,7 +33803,7 @@
       <c r="M585" s="1"/>
       <c r="N585" s="1"/>
       <c r="O585" s="33">
-        <v>580.0</v>
+        <v>581.0</v>
       </c>
       <c r="P585" s="1"/>
       <c r="Q585" s="1"/>
@@ -33834,7 +33833,7 @@
       <c r="M586" s="1"/>
       <c r="N586" s="1"/>
       <c r="O586" s="33">
-        <v>581.0</v>
+        <v>582.0</v>
       </c>
       <c r="P586" s="1"/>
       <c r="Q586" s="1"/>
@@ -33864,7 +33863,7 @@
       <c r="M587" s="1"/>
       <c r="N587" s="1"/>
       <c r="O587" s="33">
-        <v>582.0</v>
+        <v>583.0</v>
       </c>
       <c r="P587" s="1"/>
       <c r="Q587" s="1"/>
@@ -33894,7 +33893,7 @@
       <c r="M588" s="1"/>
       <c r="N588" s="1"/>
       <c r="O588" s="33">
-        <v>583.0</v>
+        <v>584.0</v>
       </c>
       <c r="P588" s="1"/>
       <c r="Q588" s="1"/>
@@ -33924,7 +33923,7 @@
       <c r="M589" s="1"/>
       <c r="N589" s="1"/>
       <c r="O589" s="33">
-        <v>584.0</v>
+        <v>585.0</v>
       </c>
       <c r="P589" s="1"/>
       <c r="Q589" s="1"/>
@@ -33954,7 +33953,7 @@
       <c r="M590" s="1"/>
       <c r="N590" s="1"/>
       <c r="O590" s="33">
-        <v>585.0</v>
+        <v>586.0</v>
       </c>
       <c r="P590" s="1"/>
       <c r="Q590" s="1"/>
@@ -33984,7 +33983,7 @@
       <c r="M591" s="1"/>
       <c r="N591" s="1"/>
       <c r="O591" s="33">
-        <v>586.0</v>
+        <v>587.0</v>
       </c>
       <c r="P591" s="1"/>
       <c r="Q591" s="1"/>
@@ -34014,7 +34013,7 @@
       <c r="M592" s="1"/>
       <c r="N592" s="1"/>
       <c r="O592" s="33">
-        <v>587.0</v>
+        <v>588.0</v>
       </c>
       <c r="P592" s="1"/>
       <c r="Q592" s="1"/>
@@ -34044,7 +34043,7 @@
       <c r="M593" s="1"/>
       <c r="N593" s="1"/>
       <c r="O593" s="33">
-        <v>588.0</v>
+        <v>589.0</v>
       </c>
       <c r="P593" s="1"/>
       <c r="Q593" s="1"/>
@@ -34074,7 +34073,7 @@
       <c r="M594" s="1"/>
       <c r="N594" s="1"/>
       <c r="O594" s="33">
-        <v>589.0</v>
+        <v>590.0</v>
       </c>
       <c r="P594" s="1"/>
       <c r="Q594" s="1"/>
@@ -34104,7 +34103,7 @@
       <c r="M595" s="1"/>
       <c r="N595" s="1"/>
       <c r="O595" s="33">
-        <v>590.0</v>
+        <v>591.0</v>
       </c>
       <c r="P595" s="1"/>
       <c r="Q595" s="1"/>
@@ -34134,7 +34133,7 @@
       <c r="M596" s="1"/>
       <c r="N596" s="1"/>
       <c r="O596" s="33">
-        <v>591.0</v>
+        <v>592.0</v>
       </c>
       <c r="P596" s="1"/>
       <c r="Q596" s="1"/>
@@ -34164,7 +34163,7 @@
       <c r="M597" s="1"/>
       <c r="N597" s="1"/>
       <c r="O597" s="33">
-        <v>592.0</v>
+        <v>593.0</v>
       </c>
       <c r="P597" s="1"/>
       <c r="Q597" s="1"/>
@@ -34194,7 +34193,7 @@
       <c r="M598" s="1"/>
       <c r="N598" s="1"/>
       <c r="O598" s="33">
-        <v>593.0</v>
+        <v>594.0</v>
       </c>
       <c r="P598" s="1"/>
       <c r="Q598" s="1"/>
@@ -34224,7 +34223,7 @@
       <c r="M599" s="1"/>
       <c r="N599" s="1"/>
       <c r="O599" s="33">
-        <v>594.0</v>
+        <v>595.0</v>
       </c>
       <c r="P599" s="1"/>
       <c r="Q599" s="1"/>
@@ -34254,7 +34253,7 @@
       <c r="M600" s="1"/>
       <c r="N600" s="1"/>
       <c r="O600" s="33">
-        <v>595.0</v>
+        <v>596.0</v>
       </c>
       <c r="P600" s="1"/>
       <c r="Q600" s="1"/>
@@ -34284,7 +34283,7 @@
       <c r="M601" s="1"/>
       <c r="N601" s="1"/>
       <c r="O601" s="33">
-        <v>596.0</v>
+        <v>597.0</v>
       </c>
       <c r="P601" s="1"/>
       <c r="Q601" s="1"/>
@@ -34314,7 +34313,7 @@
       <c r="M602" s="1"/>
       <c r="N602" s="1"/>
       <c r="O602" s="33">
-        <v>597.0</v>
+        <v>598.0</v>
       </c>
       <c r="P602" s="1"/>
       <c r="Q602" s="1"/>
@@ -34344,7 +34343,7 @@
       <c r="M603" s="1"/>
       <c r="N603" s="1"/>
       <c r="O603" s="33">
-        <v>598.0</v>
+        <v>599.0</v>
       </c>
       <c r="P603" s="1"/>
       <c r="Q603" s="1"/>
@@ -34374,7 +34373,7 @@
       <c r="M604" s="1"/>
       <c r="N604" s="1"/>
       <c r="O604" s="33">
-        <v>599.0</v>
+        <v>600.0</v>
       </c>
       <c r="P604" s="1"/>
       <c r="Q604" s="1"/>
@@ -34404,7 +34403,7 @@
       <c r="M605" s="1"/>
       <c r="N605" s="1"/>
       <c r="O605" s="33">
-        <v>600.0</v>
+        <v>601.0</v>
       </c>
       <c r="P605" s="1"/>
       <c r="Q605" s="1"/>
@@ -34434,7 +34433,7 @@
       <c r="M606" s="1"/>
       <c r="N606" s="1"/>
       <c r="O606" s="33">
-        <v>601.0</v>
+        <v>602.0</v>
       </c>
       <c r="P606" s="1"/>
       <c r="Q606" s="1"/>
@@ -34464,7 +34463,7 @@
       <c r="M607" s="1"/>
       <c r="N607" s="1"/>
       <c r="O607" s="33">
-        <v>602.0</v>
+        <v>603.0</v>
       </c>
       <c r="P607" s="1"/>
       <c r="Q607" s="1"/>
@@ -34494,7 +34493,7 @@
       <c r="M608" s="1"/>
       <c r="N608" s="1"/>
       <c r="O608" s="33">
-        <v>603.0</v>
+        <v>604.0</v>
       </c>
       <c r="P608" s="1"/>
       <c r="Q608" s="1"/>
@@ -34524,7 +34523,7 @@
       <c r="M609" s="1"/>
       <c r="N609" s="1"/>
       <c r="O609" s="33">
-        <v>604.0</v>
+        <v>605.0</v>
       </c>
       <c r="P609" s="1"/>
       <c r="Q609" s="1"/>
@@ -34554,7 +34553,7 @@
       <c r="M610" s="1"/>
       <c r="N610" s="1"/>
       <c r="O610" s="33">
-        <v>605.0</v>
+        <v>606.0</v>
       </c>
       <c r="P610" s="1"/>
       <c r="Q610" s="1"/>
@@ -34584,7 +34583,7 @@
       <c r="M611" s="1"/>
       <c r="N611" s="1"/>
       <c r="O611" s="33">
-        <v>606.0</v>
+        <v>607.0</v>
       </c>
       <c r="P611" s="1"/>
       <c r="Q611" s="1"/>
@@ -34614,7 +34613,7 @@
       <c r="M612" s="1"/>
       <c r="N612" s="1"/>
       <c r="O612" s="33">
-        <v>607.0</v>
+        <v>608.0</v>
       </c>
       <c r="P612" s="1"/>
       <c r="Q612" s="1"/>
@@ -34644,7 +34643,7 @@
       <c r="M613" s="1"/>
       <c r="N613" s="1"/>
       <c r="O613" s="33">
-        <v>608.0</v>
+        <v>609.0</v>
       </c>
       <c r="P613" s="1"/>
       <c r="Q613" s="1"/>
@@ -34674,7 +34673,7 @@
       <c r="M614" s="1"/>
       <c r="N614" s="1"/>
       <c r="O614" s="33">
-        <v>609.0</v>
+        <v>610.0</v>
       </c>
       <c r="P614" s="1"/>
       <c r="Q614" s="1"/>
@@ -34704,7 +34703,7 @@
       <c r="M615" s="1"/>
       <c r="N615" s="1"/>
       <c r="O615" s="33">
-        <v>610.0</v>
+        <v>611.0</v>
       </c>
       <c r="P615" s="1"/>
       <c r="Q615" s="1"/>
@@ -34734,7 +34733,7 @@
       <c r="M616" s="1"/>
       <c r="N616" s="1"/>
       <c r="O616" s="33">
-        <v>611.0</v>
+        <v>612.0</v>
       </c>
       <c r="P616" s="1"/>
       <c r="Q616" s="1"/>
@@ -34764,7 +34763,7 @@
       <c r="M617" s="1"/>
       <c r="N617" s="1"/>
       <c r="O617" s="33">
-        <v>612.0</v>
+        <v>613.0</v>
       </c>
       <c r="P617" s="1"/>
       <c r="Q617" s="1"/>
@@ -34794,7 +34793,7 @@
       <c r="M618" s="1"/>
       <c r="N618" s="1"/>
       <c r="O618" s="33">
-        <v>613.0</v>
+        <v>614.0</v>
       </c>
       <c r="P618" s="1"/>
       <c r="Q618" s="1"/>
@@ -34824,7 +34823,7 @@
       <c r="M619" s="1"/>
       <c r="N619" s="1"/>
       <c r="O619" s="33">
-        <v>614.0</v>
+        <v>615.0</v>
       </c>
       <c r="P619" s="1"/>
       <c r="Q619" s="1"/>
@@ -34854,7 +34853,7 @@
       <c r="M620" s="1"/>
       <c r="N620" s="1"/>
       <c r="O620" s="33">
-        <v>615.0</v>
+        <v>616.0</v>
       </c>
       <c r="P620" s="1"/>
       <c r="Q620" s="1"/>
@@ -34884,7 +34883,7 @@
       <c r="M621" s="1"/>
       <c r="N621" s="1"/>
       <c r="O621" s="33">
-        <v>616.0</v>
+        <v>617.0</v>
       </c>
       <c r="P621" s="1"/>
       <c r="Q621" s="1"/>
@@ -34914,7 +34913,7 @@
       <c r="M622" s="1"/>
       <c r="N622" s="1"/>
       <c r="O622" s="33">
-        <v>617.0</v>
+        <v>618.0</v>
       </c>
       <c r="P622" s="1"/>
       <c r="Q622" s="1"/>
@@ -34944,7 +34943,7 @@
       <c r="M623" s="1"/>
       <c r="N623" s="1"/>
       <c r="O623" s="33">
-        <v>618.0</v>
+        <v>619.0</v>
       </c>
       <c r="P623" s="1"/>
       <c r="Q623" s="1"/>
@@ -34974,7 +34973,7 @@
       <c r="M624" s="1"/>
       <c r="N624" s="1"/>
       <c r="O624" s="33">
-        <v>619.0</v>
+        <v>620.0</v>
       </c>
       <c r="P624" s="1"/>
       <c r="Q624" s="1"/>
@@ -35004,7 +35003,7 @@
       <c r="M625" s="1"/>
       <c r="N625" s="1"/>
       <c r="O625" s="33">
-        <v>620.0</v>
+        <v>621.0</v>
       </c>
       <c r="P625" s="1"/>
       <c r="Q625" s="1"/>
@@ -35034,7 +35033,7 @@
       <c r="M626" s="1"/>
       <c r="N626" s="1"/>
       <c r="O626" s="33">
-        <v>621.0</v>
+        <v>622.0</v>
       </c>
       <c r="P626" s="1"/>
       <c r="Q626" s="1"/>
@@ -35064,7 +35063,7 @@
       <c r="M627" s="1"/>
       <c r="N627" s="1"/>
       <c r="O627" s="33">
-        <v>622.0</v>
+        <v>623.0</v>
       </c>
       <c r="P627" s="1"/>
       <c r="Q627" s="1"/>
@@ -35094,7 +35093,7 @@
       <c r="M628" s="1"/>
       <c r="N628" s="1"/>
       <c r="O628" s="33">
-        <v>623.0</v>
+        <v>624.0</v>
       </c>
       <c r="P628" s="1"/>
       <c r="Q628" s="1"/>
@@ -35124,7 +35123,7 @@
       <c r="M629" s="1"/>
       <c r="N629" s="1"/>
       <c r="O629" s="33">
-        <v>624.0</v>
+        <v>625.0</v>
       </c>
       <c r="P629" s="1"/>
       <c r="Q629" s="1"/>
@@ -35154,7 +35153,7 @@
       <c r="M630" s="1"/>
       <c r="N630" s="1"/>
       <c r="O630" s="33">
-        <v>625.0</v>
+        <v>626.0</v>
       </c>
       <c r="P630" s="1"/>
       <c r="Q630" s="1"/>
@@ -35184,7 +35183,7 @@
       <c r="M631" s="1"/>
       <c r="N631" s="1"/>
       <c r="O631" s="33">
-        <v>626.0</v>
+        <v>627.0</v>
       </c>
       <c r="P631" s="1"/>
       <c r="Q631" s="1"/>
@@ -35214,7 +35213,7 @@
       <c r="M632" s="1"/>
       <c r="N632" s="1"/>
       <c r="O632" s="33">
-        <v>627.0</v>
+        <v>628.0</v>
       </c>
       <c r="P632" s="1"/>
       <c r="Q632" s="1"/>
@@ -35244,7 +35243,7 @@
       <c r="M633" s="1"/>
       <c r="N633" s="1"/>
       <c r="O633" s="33">
-        <v>628.0</v>
+        <v>629.0</v>
       </c>
       <c r="P633" s="1"/>
       <c r="Q633" s="1"/>
@@ -35274,7 +35273,7 @@
       <c r="M634" s="1"/>
       <c r="N634" s="1"/>
       <c r="O634" s="33">
-        <v>629.0</v>
+        <v>630.0</v>
       </c>
       <c r="P634" s="1"/>
       <c r="Q634" s="1"/>
@@ -35304,7 +35303,7 @@
       <c r="M635" s="1"/>
       <c r="N635" s="1"/>
       <c r="O635" s="33">
-        <v>630.0</v>
+        <v>631.0</v>
       </c>
       <c r="P635" s="1"/>
       <c r="Q635" s="1"/>
@@ -35334,7 +35333,7 @@
       <c r="M636" s="1"/>
       <c r="N636" s="1"/>
       <c r="O636" s="33">
-        <v>631.0</v>
+        <v>632.0</v>
       </c>
       <c r="P636" s="1"/>
       <c r="Q636" s="1"/>
@@ -35364,7 +35363,7 @@
       <c r="M637" s="1"/>
       <c r="N637" s="1"/>
       <c r="O637" s="33">
-        <v>632.0</v>
+        <v>633.0</v>
       </c>
       <c r="P637" s="1"/>
       <c r="Q637" s="1"/>
@@ -35394,7 +35393,7 @@
       <c r="M638" s="1"/>
       <c r="N638" s="1"/>
       <c r="O638" s="33">
-        <v>633.0</v>
+        <v>634.0</v>
       </c>
       <c r="P638" s="1"/>
       <c r="Q638" s="1"/>
@@ -35424,7 +35423,7 @@
       <c r="M639" s="1"/>
       <c r="N639" s="1"/>
       <c r="O639" s="33">
-        <v>634.0</v>
+        <v>635.0</v>
       </c>
       <c r="P639" s="1"/>
       <c r="Q639" s="1"/>
@@ -35454,7 +35453,7 @@
       <c r="M640" s="1"/>
       <c r="N640" s="1"/>
       <c r="O640" s="33">
-        <v>635.0</v>
+        <v>636.0</v>
       </c>
       <c r="P640" s="1"/>
       <c r="Q640" s="1"/>
@@ -35484,7 +35483,7 @@
       <c r="M641" s="1"/>
       <c r="N641" s="1"/>
       <c r="O641" s="33">
-        <v>636.0</v>
+        <v>637.0</v>
       </c>
       <c r="P641" s="1"/>
       <c r="Q641" s="1"/>
@@ -35514,7 +35513,7 @@
       <c r="M642" s="1"/>
       <c r="N642" s="1"/>
       <c r="O642" s="33">
-        <v>637.0</v>
+        <v>638.0</v>
       </c>
       <c r="P642" s="1"/>
       <c r="Q642" s="1"/>
@@ -35544,7 +35543,7 @@
       <c r="M643" s="1"/>
       <c r="N643" s="1"/>
       <c r="O643" s="33">
-        <v>638.0</v>
+        <v>639.0</v>
       </c>
       <c r="P643" s="1"/>
       <c r="Q643" s="1"/>
@@ -35574,7 +35573,7 @@
       <c r="M644" s="1"/>
       <c r="N644" s="1"/>
       <c r="O644" s="33">
-        <v>639.0</v>
+        <v>640.0</v>
       </c>
       <c r="P644" s="1"/>
       <c r="Q644" s="1"/>
@@ -35604,7 +35603,7 @@
       <c r="M645" s="1"/>
       <c r="N645" s="1"/>
       <c r="O645" s="33">
-        <v>640.0</v>
+        <v>641.0</v>
       </c>
       <c r="P645" s="1"/>
       <c r="Q645" s="1"/>
@@ -35634,7 +35633,7 @@
       <c r="M646" s="1"/>
       <c r="N646" s="1"/>
       <c r="O646" s="33">
-        <v>641.0</v>
+        <v>642.0</v>
       </c>
       <c r="P646" s="1"/>
       <c r="Q646" s="1"/>
@@ -35664,7 +35663,7 @@
       <c r="M647" s="1"/>
       <c r="N647" s="1"/>
       <c r="O647" s="33">
-        <v>642.0</v>
+        <v>643.0</v>
       </c>
       <c r="P647" s="1"/>
       <c r="Q647" s="1"/>
@@ -35694,7 +35693,7 @@
       <c r="M648" s="1"/>
       <c r="N648" s="1"/>
       <c r="O648" s="33">
-        <v>643.0</v>
+        <v>644.0</v>
       </c>
       <c r="P648" s="1"/>
       <c r="Q648" s="1"/>
@@ -35724,7 +35723,7 @@
       <c r="M649" s="1"/>
       <c r="N649" s="1"/>
       <c r="O649" s="33">
-        <v>644.0</v>
+        <v>645.0</v>
       </c>
       <c r="P649" s="1"/>
       <c r="Q649" s="1"/>
@@ -35754,7 +35753,7 @@
       <c r="M650" s="1"/>
       <c r="N650" s="1"/>
       <c r="O650" s="33">
-        <v>645.0</v>
+        <v>646.0</v>
       </c>
       <c r="P650" s="1"/>
       <c r="Q650" s="1"/>
@@ -35784,7 +35783,7 @@
       <c r="M651" s="1"/>
       <c r="N651" s="1"/>
       <c r="O651" s="33">
-        <v>646.0</v>
+        <v>647.0</v>
       </c>
       <c r="P651" s="1"/>
       <c r="Q651" s="1"/>
@@ -35814,7 +35813,7 @@
       <c r="M652" s="1"/>
       <c r="N652" s="1"/>
       <c r="O652" s="33">
-        <v>647.0</v>
+        <v>648.0</v>
       </c>
       <c r="P652" s="1"/>
       <c r="Q652" s="1"/>
@@ -35844,7 +35843,7 @@
       <c r="M653" s="1"/>
       <c r="N653" s="1"/>
       <c r="O653" s="33">
-        <v>648.0</v>
+        <v>649.0</v>
       </c>
       <c r="P653" s="1"/>
       <c r="Q653" s="1"/>
@@ -35874,7 +35873,7 @@
       <c r="M654" s="1"/>
       <c r="N654" s="1"/>
       <c r="O654" s="33">
-        <v>649.0</v>
+        <v>650.0</v>
       </c>
       <c r="P654" s="1"/>
       <c r="Q654" s="1"/>
@@ -35904,7 +35903,7 @@
       <c r="M655" s="1"/>
       <c r="N655" s="1"/>
       <c r="O655" s="33">
-        <v>650.0</v>
+        <v>651.0</v>
       </c>
       <c r="P655" s="1"/>
       <c r="Q655" s="1"/>
@@ -35934,7 +35933,7 @@
       <c r="M656" s="1"/>
       <c r="N656" s="1"/>
       <c r="O656" s="33">
-        <v>651.0</v>
+        <v>652.0</v>
       </c>
       <c r="P656" s="1"/>
       <c r="Q656" s="1"/>
@@ -35964,7 +35963,7 @@
       <c r="M657" s="1"/>
       <c r="N657" s="1"/>
       <c r="O657" s="33">
-        <v>652.0</v>
+        <v>653.0</v>
       </c>
       <c r="P657" s="1"/>
       <c r="Q657" s="1"/>
@@ -35994,7 +35993,7 @@
       <c r="M658" s="1"/>
       <c r="N658" s="1"/>
       <c r="O658" s="33">
-        <v>653.0</v>
+        <v>654.0</v>
       </c>
       <c r="P658" s="1"/>
       <c r="Q658" s="1"/>
@@ -36024,7 +36023,7 @@
       <c r="M659" s="1"/>
       <c r="N659" s="1"/>
       <c r="O659" s="33">
-        <v>654.0</v>
+        <v>655.0</v>
       </c>
       <c r="P659" s="1"/>
       <c r="Q659" s="1"/>
@@ -36054,7 +36053,7 @@
       <c r="M660" s="1"/>
       <c r="N660" s="1"/>
       <c r="O660" s="33">
-        <v>655.0</v>
+        <v>656.0</v>
       </c>
       <c r="P660" s="1"/>
       <c r="Q660" s="1"/>
@@ -36084,7 +36083,7 @@
       <c r="M661" s="1"/>
       <c r="N661" s="1"/>
       <c r="O661" s="33">
-        <v>656.0</v>
+        <v>657.0</v>
       </c>
       <c r="P661" s="1"/>
       <c r="Q661" s="1"/>
@@ -36114,7 +36113,7 @@
       <c r="M662" s="1"/>
       <c r="N662" s="1"/>
       <c r="O662" s="33">
-        <v>657.0</v>
+        <v>658.0</v>
       </c>
       <c r="P662" s="1"/>
       <c r="Q662" s="1"/>
@@ -36144,7 +36143,7 @@
       <c r="M663" s="1"/>
       <c r="N663" s="1"/>
       <c r="O663" s="33">
-        <v>658.0</v>
+        <v>659.0</v>
       </c>
       <c r="P663" s="1"/>
       <c r="Q663" s="1"/>
@@ -36174,7 +36173,7 @@
       <c r="M664" s="1"/>
       <c r="N664" s="1"/>
       <c r="O664" s="33">
-        <v>659.0</v>
+        <v>660.0</v>
       </c>
       <c r="P664" s="1"/>
       <c r="Q664" s="1"/>
@@ -36204,7 +36203,7 @@
       <c r="M665" s="1"/>
       <c r="N665" s="1"/>
       <c r="O665" s="33">
-        <v>660.0</v>
+        <v>661.0</v>
       </c>
       <c r="P665" s="1"/>
       <c r="Q665" s="1"/>
@@ -36234,7 +36233,7 @@
       <c r="M666" s="1"/>
       <c r="N666" s="1"/>
       <c r="O666" s="33">
-        <v>661.0</v>
+        <v>662.0</v>
       </c>
       <c r="P666" s="1"/>
       <c r="Q666" s="1"/>
@@ -36264,7 +36263,7 @@
       <c r="M667" s="1"/>
       <c r="N667" s="1"/>
       <c r="O667" s="33">
-        <v>662.0</v>
+        <v>663.0</v>
       </c>
       <c r="P667" s="1"/>
       <c r="Q667" s="1"/>
@@ -36294,7 +36293,7 @@
       <c r="M668" s="1"/>
       <c r="N668" s="1"/>
       <c r="O668" s="33">
-        <v>663.0</v>
+        <v>664.0</v>
       </c>
       <c r="P668" s="1"/>
       <c r="Q668" s="1"/>
@@ -36324,7 +36323,7 @@
       <c r="M669" s="1"/>
       <c r="N669" s="1"/>
       <c r="O669" s="33">
-        <v>664.0</v>
+        <v>665.0</v>
       </c>
       <c r="P669" s="1"/>
       <c r="Q669" s="1"/>
@@ -36354,7 +36353,7 @@
       <c r="M670" s="1"/>
       <c r="N670" s="1"/>
       <c r="O670" s="33">
-        <v>665.0</v>
+        <v>666.0</v>
       </c>
       <c r="P670" s="1"/>
       <c r="Q670" s="1"/>
@@ -36384,7 +36383,7 @@
       <c r="M671" s="1"/>
       <c r="N671" s="1"/>
       <c r="O671" s="33">
-        <v>666.0</v>
+        <v>667.0</v>
       </c>
       <c r="P671" s="1"/>
       <c r="Q671" s="1"/>
@@ -36414,7 +36413,7 @@
       <c r="M672" s="1"/>
       <c r="N672" s="1"/>
       <c r="O672" s="33">
-        <v>667.0</v>
+        <v>668.0</v>
       </c>
       <c r="P672" s="1"/>
       <c r="Q672" s="1"/>
@@ -36444,7 +36443,7 @@
       <c r="M673" s="1"/>
       <c r="N673" s="1"/>
       <c r="O673" s="33">
-        <v>668.0</v>
+        <v>669.0</v>
       </c>
       <c r="P673" s="1"/>
       <c r="Q673" s="1"/>
@@ -36474,7 +36473,7 @@
       <c r="M674" s="1"/>
       <c r="N674" s="1"/>
       <c r="O674" s="33">
-        <v>669.0</v>
+        <v>670.0</v>
       </c>
       <c r="P674" s="1"/>
       <c r="Q674" s="1"/>
@@ -36504,7 +36503,7 @@
       <c r="M675" s="1"/>
       <c r="N675" s="1"/>
       <c r="O675" s="33">
-        <v>670.0</v>
+        <v>671.0</v>
       </c>
       <c r="P675" s="1"/>
       <c r="Q675" s="1"/>
@@ -36534,7 +36533,7 @@
       <c r="M676" s="1"/>
       <c r="N676" s="1"/>
       <c r="O676" s="33">
-        <v>671.0</v>
+        <v>672.0</v>
       </c>
       <c r="P676" s="1"/>
       <c r="Q676" s="1"/>
@@ -36564,7 +36563,7 @@
       <c r="M677" s="1"/>
       <c r="N677" s="1"/>
       <c r="O677" s="33">
-        <v>672.0</v>
+        <v>673.0</v>
       </c>
       <c r="P677" s="1"/>
       <c r="Q677" s="1"/>
@@ -36594,7 +36593,7 @@
       <c r="M678" s="1"/>
       <c r="N678" s="1"/>
       <c r="O678" s="33">
-        <v>673.0</v>
+        <v>674.0</v>
       </c>
       <c r="P678" s="1"/>
       <c r="Q678" s="1"/>
@@ -36624,7 +36623,7 @@
       <c r="M679" s="1"/>
       <c r="N679" s="1"/>
       <c r="O679" s="33">
-        <v>674.0</v>
+        <v>675.0</v>
       </c>
       <c r="P679" s="1"/>
       <c r="Q679" s="1"/>
@@ -36654,7 +36653,7 @@
       <c r="M680" s="1"/>
       <c r="N680" s="1"/>
       <c r="O680" s="33">
-        <v>675.0</v>
+        <v>676.0</v>
       </c>
       <c r="P680" s="1"/>
       <c r="Q680" s="1"/>
@@ -36684,7 +36683,7 @@
       <c r="M681" s="1"/>
       <c r="N681" s="1"/>
       <c r="O681" s="33">
-        <v>676.0</v>
+        <v>677.0</v>
       </c>
       <c r="P681" s="1"/>
       <c r="Q681" s="1"/>
@@ -36714,7 +36713,7 @@
       <c r="M682" s="1"/>
       <c r="N682" s="1"/>
       <c r="O682" s="33">
-        <v>677.0</v>
+        <v>678.0</v>
       </c>
       <c r="P682" s="1"/>
       <c r="Q682" s="1"/>
@@ -36744,7 +36743,7 @@
       <c r="M683" s="1"/>
       <c r="N683" s="1"/>
       <c r="O683" s="33">
-        <v>678.0</v>
+        <v>679.0</v>
       </c>
       <c r="P683" s="1"/>
       <c r="Q683" s="1"/>
@@ -36774,7 +36773,7 @@
       <c r="M684" s="1"/>
       <c r="N684" s="1"/>
       <c r="O684" s="33">
-        <v>679.0</v>
+        <v>680.0</v>
       </c>
       <c r="P684" s="1"/>
       <c r="Q684" s="1"/>
@@ -36804,7 +36803,7 @@
       <c r="M685" s="1"/>
       <c r="N685" s="1"/>
       <c r="O685" s="33">
-        <v>680.0</v>
+        <v>681.0</v>
       </c>
       <c r="P685" s="1"/>
       <c r="Q685" s="1"/>
@@ -36834,7 +36833,7 @@
       <c r="M686" s="1"/>
       <c r="N686" s="1"/>
       <c r="O686" s="33">
-        <v>681.0</v>
+        <v>682.0</v>
       </c>
       <c r="P686" s="1"/>
       <c r="Q686" s="1"/>
@@ -36864,7 +36863,7 @@
       <c r="M687" s="1"/>
       <c r="N687" s="1"/>
       <c r="O687" s="33">
-        <v>682.0</v>
+        <v>683.0</v>
       </c>
       <c r="P687" s="1"/>
       <c r="Q687" s="1"/>
@@ -36894,7 +36893,7 @@
       <c r="M688" s="1"/>
       <c r="N688" s="1"/>
       <c r="O688" s="33">
-        <v>683.0</v>
+        <v>684.0</v>
       </c>
       <c r="P688" s="1"/>
       <c r="Q688" s="1"/>
@@ -36924,7 +36923,7 @@
       <c r="M689" s="1"/>
       <c r="N689" s="1"/>
       <c r="O689" s="33">
-        <v>684.0</v>
+        <v>685.0</v>
       </c>
       <c r="P689" s="1"/>
       <c r="Q689" s="1"/>
@@ -36954,7 +36953,7 @@
       <c r="M690" s="1"/>
       <c r="N690" s="1"/>
       <c r="O690" s="33">
-        <v>685.0</v>
+        <v>686.0</v>
       </c>
       <c r="P690" s="1"/>
       <c r="Q690" s="1"/>
@@ -36984,7 +36983,7 @@
       <c r="M691" s="1"/>
       <c r="N691" s="1"/>
       <c r="O691" s="33">
-        <v>686.0</v>
+        <v>687.0</v>
       </c>
       <c r="P691" s="1"/>
       <c r="Q691" s="1"/>
@@ -37014,7 +37013,7 @@
       <c r="M692" s="1"/>
       <c r="N692" s="1"/>
       <c r="O692" s="33">
-        <v>687.0</v>
+        <v>688.0</v>
       </c>
       <c r="P692" s="1"/>
       <c r="Q692" s="1"/>
@@ -37044,7 +37043,7 @@
       <c r="M693" s="1"/>
       <c r="N693" s="1"/>
       <c r="O693" s="33">
-        <v>688.0</v>
+        <v>689.0</v>
       </c>
       <c r="P693" s="1"/>
       <c r="Q693" s="1"/>
@@ -37074,7 +37073,7 @@
       <c r="M694" s="1"/>
       <c r="N694" s="1"/>
       <c r="O694" s="33">
-        <v>689.0</v>
+        <v>690.0</v>
       </c>
       <c r="P694" s="1"/>
       <c r="Q694" s="1"/>
@@ -37104,7 +37103,7 @@
       <c r="M695" s="1"/>
       <c r="N695" s="1"/>
       <c r="O695" s="33">
-        <v>690.0</v>
+        <v>691.0</v>
       </c>
       <c r="P695" s="1"/>
       <c r="Q695" s="1"/>
@@ -37134,7 +37133,7 @@
       <c r="M696" s="1"/>
       <c r="N696" s="1"/>
       <c r="O696" s="33">
-        <v>691.0</v>
+        <v>692.0</v>
       </c>
       <c r="P696" s="1"/>
       <c r="Q696" s="1"/>
@@ -37164,7 +37163,7 @@
       <c r="M697" s="1"/>
       <c r="N697" s="1"/>
       <c r="O697" s="33">
-        <v>692.0</v>
+        <v>693.0</v>
       </c>
       <c r="P697" s="1"/>
       <c r="Q697" s="1"/>
@@ -37194,7 +37193,7 @@
       <c r="M698" s="1"/>
       <c r="N698" s="1"/>
       <c r="O698" s="33">
-        <v>693.0</v>
+        <v>694.0</v>
       </c>
       <c r="P698" s="1"/>
       <c r="Q698" s="1"/>
@@ -37224,7 +37223,7 @@
       <c r="M699" s="1"/>
       <c r="N699" s="1"/>
       <c r="O699" s="33">
-        <v>694.0</v>
+        <v>695.0</v>
       </c>
       <c r="P699" s="1"/>
       <c r="Q699" s="1"/>
@@ -37254,7 +37253,7 @@
       <c r="M700" s="1"/>
       <c r="N700" s="1"/>
       <c r="O700" s="33">
-        <v>695.0</v>
+        <v>696.0</v>
       </c>
       <c r="P700" s="1"/>
       <c r="Q700" s="1"/>
@@ -37284,7 +37283,7 @@
       <c r="M701" s="1"/>
       <c r="N701" s="1"/>
       <c r="O701" s="33">
-        <v>696.0</v>
+        <v>697.0</v>
       </c>
       <c r="P701" s="1"/>
       <c r="Q701" s="1"/>
@@ -37314,7 +37313,7 @@
       <c r="M702" s="1"/>
       <c r="N702" s="1"/>
       <c r="O702" s="33">
-        <v>697.0</v>
+        <v>698.0</v>
       </c>
       <c r="P702" s="1"/>
       <c r="Q702" s="1"/>
@@ -37344,7 +37343,7 @@
       <c r="M703" s="1"/>
       <c r="N703" s="1"/>
       <c r="O703" s="33">
-        <v>698.0</v>
+        <v>699.0</v>
       </c>
       <c r="P703" s="1"/>
       <c r="Q703" s="1"/>
@@ -37374,7 +37373,7 @@
       <c r="M704" s="1"/>
       <c r="N704" s="1"/>
       <c r="O704" s="33">
-        <v>699.0</v>
+        <v>700.0</v>
       </c>
       <c r="P704" s="1"/>
       <c r="Q704" s="1"/>
@@ -37404,7 +37403,7 @@
       <c r="M705" s="1"/>
       <c r="N705" s="1"/>
       <c r="O705" s="33">
-        <v>700.0</v>
+        <v>701.0</v>
       </c>
       <c r="P705" s="1"/>
       <c r="Q705" s="1"/>
@@ -37434,7 +37433,7 @@
       <c r="M706" s="1"/>
       <c r="N706" s="1"/>
       <c r="O706" s="33">
-        <v>701.0</v>
+        <v>702.0</v>
       </c>
       <c r="P706" s="1"/>
       <c r="Q706" s="1"/>
@@ -37464,7 +37463,7 @@
       <c r="M707" s="1"/>
       <c r="N707" s="1"/>
       <c r="O707" s="33">
-        <v>702.0</v>
+        <v>703.0</v>
       </c>
       <c r="P707" s="1"/>
       <c r="Q707" s="1"/>
@@ -37494,7 +37493,7 @@
       <c r="M708" s="1"/>
       <c r="N708" s="1"/>
       <c r="O708" s="33">
-        <v>703.0</v>
+        <v>704.0</v>
       </c>
       <c r="P708" s="1"/>
       <c r="Q708" s="1"/>
@@ -37524,7 +37523,7 @@
       <c r="M709" s="1"/>
       <c r="N709" s="1"/>
       <c r="O709" s="33">
-        <v>704.0</v>
+        <v>705.0</v>
       </c>
       <c r="P709" s="1"/>
       <c r="Q709" s="1"/>
@@ -37554,7 +37553,7 @@
       <c r="M710" s="1"/>
       <c r="N710" s="1"/>
       <c r="O710" s="33">
-        <v>705.0</v>
+        <v>706.0</v>
       </c>
       <c r="P710" s="1"/>
       <c r="Q710" s="1"/>
@@ -37584,7 +37583,7 @@
       <c r="M711" s="1"/>
       <c r="N711" s="1"/>
       <c r="O711" s="33">
-        <v>706.0</v>
+        <v>707.0</v>
       </c>
       <c r="P711" s="1"/>
       <c r="Q711" s="1"/>
@@ -37614,7 +37613,7 @@
       <c r="M712" s="1"/>
       <c r="N712" s="1"/>
       <c r="O712" s="33">
-        <v>707.0</v>
+        <v>708.0</v>
       </c>
       <c r="P712" s="1"/>
       <c r="Q712" s="1"/>
@@ -37644,7 +37643,7 @@
       <c r="M713" s="1"/>
       <c r="N713" s="1"/>
       <c r="O713" s="33">
-        <v>708.0</v>
+        <v>709.0</v>
       </c>
       <c r="P713" s="1"/>
       <c r="Q713" s="1"/>
@@ -37674,7 +37673,7 @@
       <c r="M714" s="1"/>
       <c r="N714" s="1"/>
       <c r="O714" s="33">
-        <v>709.0</v>
+        <v>710.0</v>
       </c>
       <c r="P714" s="1"/>
       <c r="Q714" s="1"/>
@@ -37704,7 +37703,7 @@
       <c r="M715" s="1"/>
       <c r="N715" s="1"/>
       <c r="O715" s="33">
-        <v>710.0</v>
+        <v>711.0</v>
       </c>
       <c r="P715" s="1"/>
       <c r="Q715" s="1"/>
@@ -37734,7 +37733,7 @@
       <c r="M716" s="1"/>
       <c r="N716" s="1"/>
       <c r="O716" s="33">
-        <v>711.0</v>
+        <v>712.0</v>
       </c>
       <c r="P716" s="1"/>
       <c r="Q716" s="1"/>
@@ -37764,7 +37763,7 @@
       <c r="M717" s="1"/>
       <c r="N717" s="1"/>
       <c r="O717" s="33">
-        <v>712.0</v>
+        <v>713.0</v>
       </c>
       <c r="P717" s="1"/>
       <c r="Q717" s="1"/>
@@ -37794,7 +37793,7 @@
       <c r="M718" s="1"/>
       <c r="N718" s="1"/>
       <c r="O718" s="33">
-        <v>713.0</v>
+        <v>714.0</v>
       </c>
       <c r="P718" s="1"/>
       <c r="Q718" s="1"/>
@@ -37824,7 +37823,7 @@
       <c r="M719" s="1"/>
       <c r="N719" s="1"/>
       <c r="O719" s="33">
-        <v>714.0</v>
+        <v>715.0</v>
       </c>
       <c r="P719" s="1"/>
       <c r="Q719" s="1"/>
@@ -37854,7 +37853,7 @@
       <c r="M720" s="1"/>
       <c r="N720" s="1"/>
       <c r="O720" s="33">
-        <v>715.0</v>
+        <v>716.0</v>
       </c>
       <c r="P720" s="1"/>
       <c r="Q720" s="1"/>
@@ -37884,7 +37883,7 @@
       <c r="M721" s="1"/>
       <c r="N721" s="1"/>
       <c r="O721" s="33">
-        <v>716.0</v>
+        <v>717.0</v>
       </c>
       <c r="P721" s="1"/>
       <c r="Q721" s="1"/>
@@ -37914,7 +37913,7 @@
       <c r="M722" s="1"/>
       <c r="N722" s="1"/>
       <c r="O722" s="33">
-        <v>717.0</v>
+        <v>718.0</v>
       </c>
       <c r="P722" s="1"/>
       <c r="Q722" s="1"/>
@@ -37944,7 +37943,7 @@
       <c r="M723" s="1"/>
       <c r="N723" s="1"/>
       <c r="O723" s="33">
-        <v>718.0</v>
+        <v>719.0</v>
       </c>
       <c r="P723" s="1"/>
       <c r="Q723" s="1"/>
@@ -37974,7 +37973,7 @@
       <c r="M724" s="1"/>
       <c r="N724" s="1"/>
       <c r="O724" s="33">
-        <v>719.0</v>
+        <v>720.0</v>
       </c>
       <c r="P724" s="1"/>
       <c r="Q724" s="1"/>
@@ -38004,7 +38003,7 @@
       <c r="M725" s="1"/>
       <c r="N725" s="1"/>
       <c r="O725" s="33">
-        <v>720.0</v>
+        <v>721.0</v>
       </c>
       <c r="P725" s="1"/>
       <c r="Q725" s="1"/>
@@ -38034,7 +38033,7 @@
       <c r="M726" s="1"/>
       <c r="N726" s="1"/>
       <c r="O726" s="33">
-        <v>721.0</v>
+        <v>722.0</v>
       </c>
       <c r="P726" s="1"/>
       <c r="Q726" s="1"/>
@@ -38064,7 +38063,7 @@
       <c r="M727" s="1"/>
       <c r="N727" s="1"/>
       <c r="O727" s="33">
-        <v>722.0</v>
+        <v>723.0</v>
       </c>
       <c r="P727" s="1"/>
       <c r="Q727" s="1"/>
@@ -38094,7 +38093,7 @@
       <c r="M728" s="1"/>
       <c r="N728" s="1"/>
       <c r="O728" s="33">
-        <v>723.0</v>
+        <v>724.0</v>
       </c>
       <c r="P728" s="1"/>
       <c r="Q728" s="1"/>
@@ -38124,7 +38123,7 @@
       <c r="M729" s="1"/>
       <c r="N729" s="1"/>
       <c r="O729" s="33">
-        <v>724.0</v>
+        <v>725.0</v>
       </c>
       <c r="P729" s="1"/>
       <c r="Q729" s="1"/>
@@ -38154,7 +38153,7 @@
       <c r="M730" s="1"/>
       <c r="N730" s="1"/>
       <c r="O730" s="33">
-        <v>725.0</v>
+        <v>726.0</v>
       </c>
       <c r="P730" s="1"/>
       <c r="Q730" s="1"/>
@@ -38184,7 +38183,7 @@
       <c r="M731" s="1"/>
       <c r="N731" s="1"/>
       <c r="O731" s="33">
-        <v>726.0</v>
+        <v>727.0</v>
       </c>
       <c r="P731" s="1"/>
       <c r="Q731" s="1"/>
@@ -38214,7 +38213,7 @@
       <c r="M732" s="1"/>
       <c r="N732" s="1"/>
       <c r="O732" s="33">
-        <v>727.0</v>
+        <v>728.0</v>
       </c>
       <c r="P732" s="1"/>
       <c r="Q732" s="1"/>
@@ -38244,7 +38243,7 @@
       <c r="M733" s="1"/>
       <c r="N733" s="1"/>
       <c r="O733" s="33">
-        <v>728.0</v>
+        <v>729.0</v>
       </c>
       <c r="P733" s="1"/>
       <c r="Q733" s="1"/>
@@ -38274,7 +38273,7 @@
       <c r="M734" s="1"/>
       <c r="N734" s="1"/>
       <c r="O734" s="33">
-        <v>729.0</v>
+        <v>730.0</v>
       </c>
       <c r="P734" s="1"/>
       <c r="Q734" s="1"/>
@@ -38304,7 +38303,7 @@
       <c r="M735" s="1"/>
       <c r="N735" s="1"/>
       <c r="O735" s="33">
-        <v>730.0</v>
+        <v>731.0</v>
       </c>
       <c r="P735" s="1"/>
       <c r="Q735" s="1"/>
@@ -38334,7 +38333,7 @@
       <c r="M736" s="1"/>
       <c r="N736" s="1"/>
       <c r="O736" s="33">
-        <v>731.0</v>
+        <v>732.0</v>
       </c>
       <c r="P736" s="1"/>
       <c r="Q736" s="1"/>
@@ -38364,7 +38363,7 @@
       <c r="M737" s="1"/>
       <c r="N737" s="1"/>
       <c r="O737" s="33">
-        <v>732.0</v>
+        <v>733.0</v>
       </c>
       <c r="P737" s="1"/>
       <c r="Q737" s="1"/>
@@ -38394,7 +38393,7 @@
       <c r="M738" s="1"/>
       <c r="N738" s="1"/>
       <c r="O738" s="33">
-        <v>733.0</v>
+        <v>734.0</v>
       </c>
       <c r="P738" s="1"/>
       <c r="Q738" s="1"/>
@@ -38424,7 +38423,7 @@
       <c r="M739" s="1"/>
       <c r="N739" s="1"/>
       <c r="O739" s="33">
-        <v>734.0</v>
+        <v>735.0</v>
       </c>
       <c r="P739" s="1"/>
       <c r="Q739" s="1"/>
@@ -38454,7 +38453,7 @@
       <c r="M740" s="1"/>
       <c r="N740" s="1"/>
       <c r="O740" s="33">
-        <v>735.0</v>
+        <v>736.0</v>
       </c>
       <c r="P740" s="1"/>
       <c r="Q740" s="1"/>
@@ -38484,7 +38483,7 @@
       <c r="M741" s="1"/>
       <c r="N741" s="1"/>
       <c r="O741" s="33">
-        <v>736.0</v>
+        <v>737.0</v>
       </c>
       <c r="P741" s="1"/>
       <c r="Q741" s="1"/>
@@ -38514,7 +38513,7 @@
       <c r="M742" s="1"/>
       <c r="N742" s="1"/>
       <c r="O742" s="33">
-        <v>737.0</v>
+        <v>738.0</v>
       </c>
       <c r="P742" s="1"/>
       <c r="Q742" s="1"/>
@@ -38544,7 +38543,7 @@
       <c r="M743" s="1"/>
       <c r="N743" s="1"/>
       <c r="O743" s="33">
-        <v>738.0</v>
+        <v>739.0</v>
       </c>
       <c r="P743" s="1"/>
       <c r="Q743" s="1"/>
@@ -38574,7 +38573,7 @@
       <c r="M744" s="1"/>
       <c r="N744" s="1"/>
       <c r="O744" s="33">
-        <v>739.0</v>
+        <v>740.0</v>
       </c>
       <c r="P744" s="1"/>
       <c r="Q744" s="1"/>
@@ -38604,7 +38603,7 @@
       <c r="M745" s="1"/>
       <c r="N745" s="1"/>
       <c r="O745" s="33">
-        <v>740.0</v>
+        <v>741.0</v>
       </c>
       <c r="P745" s="1"/>
       <c r="Q745" s="1"/>
@@ -38634,7 +38633,7 @@
       <c r="M746" s="1"/>
       <c r="N746" s="1"/>
       <c r="O746" s="33">
-        <v>741.0</v>
+        <v>742.0</v>
       </c>
       <c r="P746" s="1"/>
       <c r="Q746" s="1"/>
@@ -38664,7 +38663,7 @@
       <c r="M747" s="1"/>
       <c r="N747" s="1"/>
       <c r="O747" s="33">
-        <v>742.0</v>
+        <v>743.0</v>
       </c>
       <c r="P747" s="1"/>
       <c r="Q747" s="1"/>
@@ -38694,7 +38693,7 @@
       <c r="M748" s="1"/>
       <c r="N748" s="1"/>
       <c r="O748" s="33">
-        <v>743.0</v>
+        <v>744.0</v>
       </c>
       <c r="P748" s="1"/>
       <c r="Q748" s="1"/>
@@ -38724,7 +38723,7 @@
       <c r="M749" s="1"/>
       <c r="N749" s="1"/>
       <c r="O749" s="33">
-        <v>744.0</v>
+        <v>745.0</v>
       </c>
       <c r="P749" s="1"/>
       <c r="Q749" s="1"/>
@@ -38754,7 +38753,7 @@
       <c r="M750" s="1"/>
       <c r="N750" s="1"/>
       <c r="O750" s="33">
-        <v>745.0</v>
+        <v>746.0</v>
       </c>
       <c r="P750" s="1"/>
       <c r="Q750" s="1"/>
@@ -38784,7 +38783,7 @@
       <c r="M751" s="1"/>
       <c r="N751" s="1"/>
       <c r="O751" s="33">
-        <v>746.0</v>
+        <v>747.0</v>
       </c>
       <c r="P751" s="1"/>
       <c r="Q751" s="1"/>
@@ -38814,7 +38813,7 @@
       <c r="M752" s="1"/>
       <c r="N752" s="1"/>
       <c r="O752" s="33">
-        <v>747.0</v>
+        <v>748.0</v>
       </c>
       <c r="P752" s="1"/>
       <c r="Q752" s="1"/>
@@ -38844,7 +38843,7 @@
       <c r="M753" s="1"/>
       <c r="N753" s="1"/>
       <c r="O753" s="33">
-        <v>748.0</v>
+        <v>749.0</v>
       </c>
       <c r="P753" s="1"/>
       <c r="Q753" s="1"/>
@@ -38874,7 +38873,7 @@
       <c r="M754" s="1"/>
       <c r="N754" s="1"/>
       <c r="O754" s="33">
-        <v>749.0</v>
+        <v>750.0</v>
       </c>
       <c r="P754" s="1"/>
       <c r="Q754" s="1"/>
@@ -38904,7 +38903,7 @@
       <c r="M755" s="1"/>
       <c r="N755" s="1"/>
       <c r="O755" s="33">
-        <v>750.0</v>
+        <v>751.0</v>
       </c>
       <c r="P755" s="1"/>
       <c r="Q755" s="1"/>
@@ -38934,7 +38933,7 @@
       <c r="M756" s="1"/>
       <c r="N756" s="1"/>
       <c r="O756" s="33">
-        <v>751.0</v>
+        <v>752.0</v>
       </c>
       <c r="P756" s="1"/>
       <c r="Q756" s="1"/>
@@ -38964,7 +38963,7 @@
       <c r="M757" s="1"/>
       <c r="N757" s="1"/>
       <c r="O757" s="33">
-        <v>752.0</v>
+        <v>753.0</v>
       </c>
       <c r="P757" s="1"/>
       <c r="Q757" s="1"/>
@@ -38994,7 +38993,7 @@
       <c r="M758" s="1"/>
       <c r="N758" s="1"/>
       <c r="O758" s="33">
-        <v>753.0</v>
+        <v>754.0</v>
       </c>
       <c r="P758" s="1"/>
       <c r="Q758" s="1"/>
@@ -39024,7 +39023,7 @@
       <c r="M759" s="1"/>
       <c r="N759" s="1"/>
       <c r="O759" s="33">
-        <v>754.0</v>
+        <v>755.0</v>
       </c>
       <c r="P759" s="1"/>
       <c r="Q759" s="1"/>
@@ -39054,7 +39053,7 @@
       <c r="M760" s="1"/>
       <c r="N760" s="1"/>
       <c r="O760" s="33">
-        <v>755.0</v>
+        <v>756.0</v>
       </c>
       <c r="P760" s="1"/>
       <c r="Q760" s="1"/>
@@ -39084,7 +39083,7 @@
       <c r="M761" s="1"/>
       <c r="N761" s="1"/>
       <c r="O761" s="33">
-        <v>756.0</v>
+        <v>757.0</v>
       </c>
       <c r="P761" s="1"/>
       <c r="Q761" s="1"/>
@@ -39114,7 +39113,7 @@
       <c r="M762" s="1"/>
       <c r="N762" s="1"/>
       <c r="O762" s="33">
-        <v>757.0</v>
+        <v>758.0</v>
       </c>
       <c r="P762" s="1"/>
       <c r="Q762" s="1"/>
@@ -39144,7 +39143,7 @@
       <c r="M763" s="1"/>
       <c r="N763" s="1"/>
       <c r="O763" s="33">
-        <v>758.0</v>
+        <v>759.0</v>
       </c>
       <c r="P763" s="1"/>
       <c r="Q763" s="1"/>
@@ -39174,7 +39173,7 @@
       <c r="M764" s="1"/>
       <c r="N764" s="1"/>
       <c r="O764" s="33">
-        <v>759.0</v>
+        <v>760.0</v>
       </c>
       <c r="P764" s="1"/>
       <c r="Q764" s="1"/>
@@ -39204,7 +39203,7 @@
       <c r="M765" s="1"/>
       <c r="N765" s="1"/>
       <c r="O765" s="33">
-        <v>760.0</v>
+        <v>761.0</v>
       </c>
       <c r="P765" s="1"/>
       <c r="Q765" s="1"/>
@@ -39234,7 +39233,7 @@
       <c r="M766" s="1"/>
       <c r="N766" s="1"/>
       <c r="O766" s="33">
-        <v>761.0</v>
+        <v>762.0</v>
       </c>
       <c r="P766" s="1"/>
       <c r="Q766" s="1"/>
@@ -39264,7 +39263,7 @@
       <c r="M767" s="1"/>
       <c r="N767" s="1"/>
       <c r="O767" s="33">
-        <v>762.0</v>
+        <v>763.0</v>
       </c>
       <c r="P767" s="1"/>
       <c r="Q767" s="1"/>
@@ -39294,7 +39293,7 @@
       <c r="M768" s="1"/>
       <c r="N768" s="1"/>
       <c r="O768" s="33">
-        <v>763.0</v>
+        <v>764.0</v>
       </c>
       <c r="P768" s="1"/>
       <c r="Q768" s="1"/>
@@ -39324,7 +39323,7 @@
       <c r="M769" s="1"/>
       <c r="N769" s="1"/>
       <c r="O769" s="33">
-        <v>764.0</v>
+        <v>765.0</v>
       </c>
       <c r="P769" s="1"/>
       <c r="Q769" s="1"/>
@@ -39354,7 +39353,7 @@
       <c r="M770" s="1"/>
       <c r="N770" s="1"/>
       <c r="O770" s="33">
-        <v>765.0</v>
+        <v>766.0</v>
       </c>
       <c r="P770" s="1"/>
       <c r="Q770" s="1"/>
@@ -39384,7 +39383,7 @@
       <c r="M771" s="1"/>
       <c r="N771" s="1"/>
       <c r="O771" s="33">
-        <v>766.0</v>
+        <v>767.0</v>
       </c>
       <c r="P771" s="1"/>
       <c r="Q771" s="1"/>
@@ -39414,7 +39413,7 @@
       <c r="M772" s="1"/>
       <c r="N772" s="1"/>
       <c r="O772" s="33">
-        <v>767.0</v>
+        <v>768.0</v>
       </c>
       <c r="P772" s="1"/>
       <c r="Q772" s="1"/>
@@ -39444,7 +39443,7 @@
       <c r="M773" s="1"/>
       <c r="N773" s="1"/>
       <c r="O773" s="33">
-        <v>768.0</v>
+        <v>769.0</v>
       </c>
       <c r="P773" s="1"/>
       <c r="Q773" s="1"/>
@@ -39474,7 +39473,7 @@
       <c r="M774" s="1"/>
       <c r="N774" s="1"/>
       <c r="O774" s="33">
-        <v>769.0</v>
+        <v>770.0</v>
       </c>
       <c r="P774" s="1"/>
       <c r="Q774" s="1"/>
@@ -39504,7 +39503,7 @@
       <c r="M775" s="1"/>
       <c r="N775" s="1"/>
       <c r="O775" s="33">
-        <v>770.0</v>
+        <v>771.0</v>
       </c>
       <c r="P775" s="1"/>
       <c r="Q775" s="1"/>
@@ -39534,7 +39533,7 @@
       <c r="M776" s="1"/>
       <c r="N776" s="1"/>
       <c r="O776" s="33">
-        <v>771.0</v>
+        <v>772.0</v>
       </c>
       <c r="P776" s="1"/>
       <c r="Q776" s="1"/>
@@ -39564,7 +39563,7 @@
       <c r="M777" s="1"/>
       <c r="N777" s="1"/>
       <c r="O777" s="33">
-        <v>772.0</v>
+        <v>773.0</v>
       </c>
       <c r="P777" s="1"/>
       <c r="Q777" s="1"/>
@@ -39594,7 +39593,7 @@
       <c r="M778" s="1"/>
       <c r="N778" s="1"/>
       <c r="O778" s="33">
-        <v>773.0</v>
+        <v>774.0</v>
       </c>
       <c r="P778" s="1"/>
       <c r="Q778" s="1"/>
@@ -39624,7 +39623,7 @@
       <c r="M779" s="1"/>
       <c r="N779" s="1"/>
       <c r="O779" s="33">
-        <v>774.0</v>
+        <v>775.0</v>
       </c>
       <c r="P779" s="1"/>
       <c r="Q779" s="1"/>
@@ -39654,7 +39653,7 @@
       <c r="M780" s="1"/>
       <c r="N780" s="1"/>
       <c r="O780" s="33">
-        <v>775.0</v>
+        <v>776.0</v>
       </c>
       <c r="P780" s="1"/>
       <c r="Q780" s="1"/>
@@ -39684,7 +39683,7 @@
       <c r="M781" s="1"/>
       <c r="N781" s="1"/>
       <c r="O781" s="33">
-        <v>776.0</v>
+        <v>777.0</v>
       </c>
       <c r="P781" s="1"/>
       <c r="Q781" s="1"/>
@@ -39714,7 +39713,7 @@
       <c r="M782" s="1"/>
       <c r="N782" s="1"/>
       <c r="O782" s="33">
-        <v>777.0</v>
+        <v>778.0</v>
       </c>
       <c r="P782" s="1"/>
       <c r="Q782" s="1"/>
@@ -39744,7 +39743,7 @@
       <c r="M783" s="1"/>
       <c r="N783" s="1"/>
       <c r="O783" s="33">
-        <v>778.0</v>
+        <v>779.0</v>
       </c>
       <c r="P783" s="1"/>
       <c r="Q783" s="1"/>
@@ -39774,7 +39773,7 @@
       <c r="M784" s="1"/>
       <c r="N784" s="1"/>
       <c r="O784" s="33">
-        <v>779.0</v>
+        <v>780.0</v>
       </c>
       <c r="P784" s="1"/>
       <c r="Q784" s="1"/>
@@ -39804,7 +39803,7 @@
       <c r="M785" s="1"/>
       <c r="N785" s="1"/>
       <c r="O785" s="33">
-        <v>780.0</v>
+        <v>781.0</v>
       </c>
       <c r="P785" s="1"/>
       <c r="Q785" s="1"/>
@@ -39834,7 +39833,7 @@
       <c r="M786" s="1"/>
       <c r="N786" s="1"/>
       <c r="O786" s="33">
-        <v>781.0</v>
+        <v>782.0</v>
       </c>
       <c r="P786" s="1"/>
       <c r="Q786" s="1"/>
@@ -39864,7 +39863,7 @@
       <c r="M787" s="1"/>
       <c r="N787" s="1"/>
       <c r="O787" s="33">
-        <v>782.0</v>
+        <v>783.0</v>
       </c>
       <c r="P787" s="1"/>
       <c r="Q787" s="1"/>
@@ -39894,7 +39893,7 @@
       <c r="M788" s="1"/>
       <c r="N788" s="1"/>
       <c r="O788" s="33">
-        <v>783.0</v>
+        <v>784.0</v>
       </c>
       <c r="P788" s="1"/>
       <c r="Q788" s="1"/>
@@ -39924,7 +39923,7 @@
       <c r="M789" s="1"/>
       <c r="N789" s="1"/>
       <c r="O789" s="33">
-        <v>784.0</v>
+        <v>785.0</v>
       </c>
       <c r="P789" s="1"/>
       <c r="Q789" s="1"/>
@@ -39954,7 +39953,7 @@
       <c r="M790" s="1"/>
       <c r="N790" s="1"/>
       <c r="O790" s="33">
-        <v>785.0</v>
+        <v>786.0</v>
       </c>
       <c r="P790" s="1"/>
       <c r="Q790" s="1"/>
@@ -39984,7 +39983,7 @@
       <c r="M791" s="1"/>
       <c r="N791" s="1"/>
       <c r="O791" s="33">
-        <v>786.0</v>
+        <v>787.0</v>
       </c>
       <c r="P791" s="1"/>
       <c r="Q791" s="1"/>
@@ -40014,7 +40013,7 @@
       <c r="M792" s="1"/>
       <c r="N792" s="1"/>
       <c r="O792" s="33">
-        <v>787.0</v>
+        <v>788.0</v>
       </c>
       <c r="P792" s="1"/>
       <c r="Q792" s="1"/>
@@ -40044,7 +40043,7 @@
       <c r="M793" s="1"/>
       <c r="N793" s="1"/>
       <c r="O793" s="33">
-        <v>788.0</v>
+        <v>789.0</v>
       </c>
       <c r="P793" s="1"/>
       <c r="Q793" s="1"/>
@@ -40074,7 +40073,7 @@
       <c r="M794" s="1"/>
       <c r="N794" s="1"/>
       <c r="O794" s="33">
-        <v>789.0</v>
+        <v>790.0</v>
       </c>
       <c r="P794" s="1"/>
       <c r="Q794" s="1"/>
@@ -40104,7 +40103,7 @@
       <c r="M795" s="1"/>
       <c r="N795" s="1"/>
       <c r="O795" s="33">
-        <v>790.0</v>
+        <v>791.0</v>
       </c>
       <c r="P795" s="1"/>
       <c r="Q795" s="1"/>
@@ -40134,7 +40133,7 @@
       <c r="M796" s="1"/>
       <c r="N796" s="1"/>
       <c r="O796" s="33">
-        <v>791.0</v>
+        <v>792.0</v>
       </c>
       <c r="P796" s="1"/>
       <c r="Q796" s="1"/>
@@ -40164,7 +40163,7 @@
       <c r="M797" s="1"/>
       <c r="N797" s="1"/>
       <c r="O797" s="33">
-        <v>792.0</v>
+        <v>793.0</v>
       </c>
       <c r="P797" s="1"/>
       <c r="Q797" s="1"/>
@@ -40194,7 +40193,7 @@
       <c r="M798" s="1"/>
       <c r="N798" s="1"/>
       <c r="O798" s="33">
-        <v>793.0</v>
+        <v>794.0</v>
       </c>
       <c r="P798" s="1"/>
       <c r="Q798" s="1"/>
@@ -40224,7 +40223,7 @@
       <c r="M799" s="1"/>
       <c r="N799" s="1"/>
       <c r="O799" s="33">
-        <v>794.0</v>
+        <v>795.0</v>
       </c>
       <c r="P799" s="1"/>
       <c r="Q799" s="1"/>
@@ -40254,7 +40253,7 @@
       <c r="M800" s="1"/>
       <c r="N800" s="1"/>
       <c r="O800" s="33">
-        <v>795.0</v>
+        <v>796.0</v>
       </c>
       <c r="P800" s="1"/>
       <c r="Q800" s="1"/>
@@ -40284,7 +40283,7 @@
       <c r="M801" s="1"/>
       <c r="N801" s="1"/>
       <c r="O801" s="33">
-        <v>796.0</v>
+        <v>797.0</v>
       </c>
       <c r="P801" s="1"/>
       <c r="Q801" s="1"/>
@@ -40314,7 +40313,7 @@
       <c r="M802" s="1"/>
       <c r="N802" s="1"/>
       <c r="O802" s="33">
-        <v>797.0</v>
+        <v>798.0</v>
       </c>
       <c r="P802" s="1"/>
       <c r="Q802" s="1"/>
@@ -40344,7 +40343,7 @@
       <c r="M803" s="1"/>
       <c r="N803" s="1"/>
       <c r="O803" s="33">
-        <v>798.0</v>
+        <v>799.0</v>
       </c>
       <c r="P803" s="1"/>
       <c r="Q803" s="1"/>
@@ -40374,7 +40373,7 @@
       <c r="M804" s="1"/>
       <c r="N804" s="1"/>
       <c r="O804" s="33">
-        <v>799.0</v>
+        <v>800.0</v>
       </c>
       <c r="P804" s="1"/>
       <c r="Q804" s="1"/>
@@ -40404,7 +40403,7 @@
       <c r="M805" s="1"/>
       <c r="N805" s="1"/>
       <c r="O805" s="33">
-        <v>800.0</v>
+        <v>801.0</v>
       </c>
       <c r="P805" s="1"/>
       <c r="Q805" s="1"/>
@@ -40434,7 +40433,7 @@
       <c r="M806" s="1"/>
       <c r="N806" s="1"/>
       <c r="O806" s="33">
-        <v>801.0</v>
+        <v>802.0</v>
       </c>
       <c r="P806" s="1"/>
       <c r="Q806" s="1"/>
@@ -40464,7 +40463,7 @@
       <c r="M807" s="1"/>
       <c r="N807" s="1"/>
       <c r="O807" s="33">
-        <v>802.0</v>
+        <v>803.0</v>
       </c>
       <c r="P807" s="1"/>
       <c r="Q807" s="1"/>
@@ -40494,7 +40493,7 @@
       <c r="M808" s="1"/>
       <c r="N808" s="1"/>
       <c r="O808" s="33">
-        <v>803.0</v>
+        <v>804.0</v>
       </c>
       <c r="P808" s="1"/>
       <c r="Q808" s="1"/>
@@ -40524,7 +40523,7 @@
       <c r="M809" s="1"/>
       <c r="N809" s="1"/>
       <c r="O809" s="33">
-        <v>804.0</v>
+        <v>805.0</v>
       </c>
       <c r="P809" s="1"/>
       <c r="Q809" s="1"/>
@@ -40554,7 +40553,7 @@
       <c r="M810" s="1"/>
       <c r="N810" s="1"/>
       <c r="O810" s="33">
-        <v>805.0</v>
+        <v>806.0</v>
       </c>
       <c r="P810" s="1"/>
       <c r="Q810" s="1"/>
@@ -40584,7 +40583,7 @@
       <c r="M811" s="1"/>
       <c r="N811" s="1"/>
       <c r="O811" s="33">
-        <v>806.0</v>
+        <v>807.0</v>
       </c>
       <c r="P811" s="1"/>
       <c r="Q811" s="1"/>
@@ -40614,7 +40613,7 @@
       <c r="M812" s="1"/>
       <c r="N812" s="1"/>
       <c r="O812" s="33">
-        <v>807.0</v>
+        <v>808.0</v>
       </c>
       <c r="P812" s="1"/>
       <c r="Q812" s="1"/>
@@ -40644,7 +40643,7 @@
       <c r="M813" s="1"/>
       <c r="N813" s="1"/>
       <c r="O813" s="33">
-        <v>808.0</v>
+        <v>809.0</v>
       </c>
       <c r="P813" s="1"/>
       <c r="Q813" s="1"/>
@@ -40674,7 +40673,7 @@
       <c r="M814" s="1"/>
       <c r="N814" s="1"/>
       <c r="O814" s="33">
-        <v>809.0</v>
+        <v>810.0</v>
       </c>
       <c r="P814" s="1"/>
       <c r="Q814" s="1"/>
@@ -40704,7 +40703,7 @@
       <c r="M815" s="1"/>
       <c r="N815" s="1"/>
       <c r="O815" s="33">
-        <v>810.0</v>
+        <v>811.0</v>
       </c>
       <c r="P815" s="1"/>
       <c r="Q815" s="1"/>
@@ -40734,7 +40733,7 @@
       <c r="M816" s="1"/>
       <c r="N816" s="1"/>
       <c r="O816" s="33">
-        <v>811.0</v>
+        <v>812.0</v>
       </c>
       <c r="P816" s="1"/>
       <c r="Q816" s="1"/>
@@ -40764,7 +40763,7 @@
       <c r="M817" s="1"/>
       <c r="N817" s="1"/>
       <c r="O817" s="33">
-        <v>812.0</v>
+        <v>813.0</v>
       </c>
       <c r="P817" s="1"/>
       <c r="Q817" s="1"/>
@@ -40794,7 +40793,7 @@
       <c r="M818" s="1"/>
       <c r="N818" s="1"/>
       <c r="O818" s="33">
-        <v>813.0</v>
+        <v>814.0</v>
       </c>
       <c r="P818" s="1"/>
       <c r="Q818" s="1"/>
@@ -40824,7 +40823,7 @@
       <c r="M819" s="1"/>
       <c r="N819" s="1"/>
       <c r="O819" s="33">
-        <v>814.0</v>
+        <v>815.0</v>
       </c>
       <c r="P819" s="1"/>
       <c r="Q819" s="1"/>
@@ -40854,7 +40853,7 @@
       <c r="M820" s="1"/>
       <c r="N820" s="1"/>
       <c r="O820" s="33">
-        <v>815.0</v>
+        <v>816.0</v>
       </c>
       <c r="P820" s="1"/>
       <c r="Q820" s="1"/>
@@ -40884,7 +40883,7 @@
       <c r="M821" s="1"/>
       <c r="N821" s="1"/>
       <c r="O821" s="33">
-        <v>816.0</v>
+        <v>817.0</v>
       </c>
       <c r="P821" s="1"/>
       <c r="Q821" s="1"/>
@@ -40914,7 +40913,7 @@
       <c r="M822" s="1"/>
       <c r="N822" s="1"/>
       <c r="O822" s="33">
-        <v>817.0</v>
+        <v>818.0</v>
       </c>
       <c r="P822" s="1"/>
       <c r="Q822" s="1"/>
@@ -40944,7 +40943,7 @@
       <c r="M823" s="1"/>
       <c r="N823" s="1"/>
       <c r="O823" s="33">
-        <v>818.0</v>
+        <v>819.0</v>
       </c>
       <c r="P823" s="1"/>
       <c r="Q823" s="1"/>
@@ -40974,7 +40973,7 @@
       <c r="M824" s="1"/>
       <c r="N824" s="1"/>
       <c r="O824" s="33">
-        <v>819.0</v>
+        <v>820.0</v>
       </c>
       <c r="P824" s="1"/>
       <c r="Q824" s="1"/>
@@ -41004,7 +41003,7 @@
       <c r="M825" s="1"/>
       <c r="N825" s="1"/>
       <c r="O825" s="33">
-        <v>820.0</v>
+        <v>821.0</v>
       </c>
       <c r="P825" s="1"/>
       <c r="Q825" s="1"/>
@@ -41034,7 +41033,7 @@
       <c r="M826" s="1"/>
       <c r="N826" s="1"/>
       <c r="O826" s="33">
-        <v>821.0</v>
+        <v>822.0</v>
       </c>
       <c r="P826" s="1"/>
       <c r="Q826" s="1"/>
@@ -41064,7 +41063,7 @@
       <c r="M827" s="1"/>
       <c r="N827" s="1"/>
       <c r="O827" s="33">
-        <v>822.0</v>
+        <v>823.0</v>
       </c>
       <c r="P827" s="1"/>
       <c r="Q827" s="1"/>
@@ -41094,7 +41093,7 @@
       <c r="M828" s="1"/>
       <c r="N828" s="1"/>
       <c r="O828" s="33">
-        <v>823.0</v>
+        <v>824.0</v>
       </c>
       <c r="P828" s="1"/>
       <c r="Q828" s="1"/>
@@ -41124,7 +41123,7 @@
       <c r="M829" s="1"/>
       <c r="N829" s="1"/>
       <c r="O829" s="33">
-        <v>824.0</v>
+        <v>825.0</v>
       </c>
       <c r="P829" s="1"/>
       <c r="Q829" s="1"/>
@@ -41154,7 +41153,7 @@
       <c r="M830" s="1"/>
       <c r="N830" s="1"/>
       <c r="O830" s="33">
-        <v>825.0</v>
+        <v>826.0</v>
       </c>
       <c r="P830" s="1"/>
       <c r="Q830" s="1"/>
@@ -41184,7 +41183,7 @@
       <c r="M831" s="1"/>
       <c r="N831" s="1"/>
       <c r="O831" s="33">
-        <v>826.0</v>
+        <v>827.0</v>
       </c>
       <c r="P831" s="1"/>
       <c r="Q831" s="1"/>
@@ -41214,7 +41213,7 @@
       <c r="M832" s="1"/>
       <c r="N832" s="1"/>
       <c r="O832" s="33">
-        <v>827.0</v>
+        <v>828.0</v>
       </c>
       <c r="P832" s="1"/>
       <c r="Q832" s="1"/>
@@ -41244,7 +41243,7 @@
       <c r="M833" s="1"/>
       <c r="N833" s="1"/>
       <c r="O833" s="33">
-        <v>828.0</v>
+        <v>829.0</v>
       </c>
       <c r="P833" s="1"/>
       <c r="Q833" s="1"/>
@@ -41274,7 +41273,7 @@
       <c r="M834" s="1"/>
       <c r="N834" s="1"/>
       <c r="O834" s="33">
-        <v>829.0</v>
+        <v>830.0</v>
       </c>
       <c r="P834" s="1"/>
       <c r="Q834" s="1"/>
@@ -41304,7 +41303,7 @@
       <c r="M835" s="1"/>
       <c r="N835" s="1"/>
       <c r="O835" s="33">
-        <v>830.0</v>
+        <v>831.0</v>
       </c>
       <c r="P835" s="1"/>
       <c r="Q835" s="1"/>
@@ -41334,7 +41333,7 @@
       <c r="M836" s="1"/>
       <c r="N836" s="1"/>
       <c r="O836" s="33">
-        <v>831.0</v>
+        <v>832.0</v>
       </c>
       <c r="P836" s="1"/>
       <c r="Q836" s="1"/>
@@ -41364,7 +41363,7 @@
       <c r="M837" s="1"/>
       <c r="N837" s="1"/>
       <c r="O837" s="33">
-        <v>832.0</v>
+        <v>833.0</v>
       </c>
       <c r="P837" s="1"/>
       <c r="Q837" s="1"/>
@@ -41394,7 +41393,7 @@
       <c r="M838" s="1"/>
       <c r="N838" s="1"/>
       <c r="O838" s="33">
-        <v>833.0</v>
+        <v>834.0</v>
       </c>
       <c r="P838" s="1"/>
       <c r="Q838" s="1"/>
@@ -41424,7 +41423,7 @@
       <c r="M839" s="1"/>
       <c r="N839" s="1"/>
       <c r="O839" s="33">
-        <v>834.0</v>
+        <v>835.0</v>
       </c>
       <c r="P839" s="1"/>
       <c r="Q839" s="1"/>
@@ -41454,7 +41453,7 @@
       <c r="M840" s="1"/>
       <c r="N840" s="1"/>
       <c r="O840" s="33">
-        <v>835.0</v>
+        <v>836.0</v>
       </c>
       <c r="P840" s="1"/>
       <c r="Q840" s="1"/>
@@ -41484,7 +41483,7 @@
       <c r="M841" s="1"/>
       <c r="N841" s="1"/>
       <c r="O841" s="33">
-        <v>836.0</v>
+        <v>837.0</v>
       </c>
       <c r="P841" s="1"/>
       <c r="Q841" s="1"/>
@@ -41514,7 +41513,7 @@
       <c r="M842" s="1"/>
       <c r="N842" s="1"/>
       <c r="O842" s="33">
-        <v>837.0</v>
+        <v>838.0</v>
       </c>
       <c r="P842" s="1"/>
       <c r="Q842" s="1"/>
@@ -41544,7 +41543,7 @@
       <c r="M843" s="1"/>
       <c r="N843" s="1"/>
       <c r="O843" s="33">
-        <v>838.0</v>
+        <v>839.0</v>
       </c>
       <c r="P843" s="1"/>
       <c r="Q843" s="1"/>
@@ -41574,7 +41573,7 @@
       <c r="M844" s="1"/>
       <c r="N844" s="1"/>
       <c r="O844" s="33">
-        <v>839.0</v>
+        <v>840.0</v>
       </c>
       <c r="P844" s="1"/>
       <c r="Q844" s="1"/>
@@ -41604,7 +41603,7 @@
       <c r="M845" s="1"/>
       <c r="N845" s="1"/>
       <c r="O845" s="33">
-        <v>840.0</v>
+        <v>841.0</v>
       </c>
       <c r="P845" s="1"/>
       <c r="Q845" s="1"/>
@@ -41634,7 +41633,7 @@
       <c r="M846" s="1"/>
       <c r="N846" s="1"/>
       <c r="O846" s="33">
-        <v>841.0</v>
+        <v>842.0</v>
       </c>
       <c r="P846" s="1"/>
       <c r="Q846" s="1"/>
@@ -41664,7 +41663,7 @@
       <c r="M847" s="1"/>
       <c r="N847" s="1"/>
       <c r="O847" s="33">
-        <v>842.0</v>
+        <v>843.0</v>
       </c>
       <c r="P847" s="1"/>
       <c r="Q847" s="1"/>
@@ -41694,7 +41693,7 @@
       <c r="M848" s="1"/>
       <c r="N848" s="1"/>
       <c r="O848" s="33">
-        <v>843.0</v>
+        <v>844.0</v>
       </c>
       <c r="P848" s="1"/>
       <c r="Q848" s="1"/>
@@ -41724,7 +41723,7 @@
       <c r="M849" s="1"/>
       <c r="N849" s="1"/>
       <c r="O849" s="33">
-        <v>844.0</v>
+        <v>845.0</v>
       </c>
       <c r="P849" s="1"/>
       <c r="Q849" s="1"/>
@@ -41754,7 +41753,7 @@
       <c r="M850" s="1"/>
       <c r="N850" s="1"/>
       <c r="O850" s="33">
-        <v>845.0</v>
+        <v>846.0</v>
       </c>
       <c r="P850" s="1"/>
       <c r="Q850" s="1"/>
@@ -41784,7 +41783,7 @@
       <c r="M851" s="1"/>
       <c r="N851" s="1"/>
       <c r="O851" s="33">
-        <v>846.0</v>
+        <v>847.0</v>
       </c>
       <c r="P851" s="1"/>
       <c r="Q851" s="1"/>
@@ -41814,7 +41813,7 @@
       <c r="M852" s="1"/>
       <c r="N852" s="1"/>
       <c r="O852" s="33">
-        <v>847.0</v>
+        <v>848.0</v>
       </c>
       <c r="P852" s="1"/>
       <c r="Q852" s="1"/>
@@ -41844,7 +41843,7 @@
       <c r="M853" s="1"/>
       <c r="N853" s="1"/>
       <c r="O853" s="33">
-        <v>848.0</v>
+        <v>849.0</v>
       </c>
       <c r="P853" s="1"/>
       <c r="Q853" s="1"/>
@@ -41874,7 +41873,7 @@
       <c r="M854" s="1"/>
       <c r="N854" s="1"/>
       <c r="O854" s="33">
-        <v>849.0</v>
+        <v>850.0</v>
       </c>
       <c r="P854" s="1"/>
       <c r="Q854" s="1"/>
@@ -41904,7 +41903,7 @@
       <c r="M855" s="1"/>
       <c r="N855" s="1"/>
       <c r="O855" s="33">
-        <v>850.0</v>
+        <v>851.0</v>
       </c>
       <c r="P855" s="1"/>
       <c r="Q855" s="1"/>
@@ -41934,7 +41933,7 @@
       <c r="M856" s="1"/>
       <c r="N856" s="1"/>
       <c r="O856" s="33">
-        <v>851.0</v>
+        <v>852.0</v>
       </c>
       <c r="P856" s="1"/>
       <c r="Q856" s="1"/>
@@ -41964,7 +41963,7 @@
       <c r="M857" s="1"/>
       <c r="N857" s="1"/>
       <c r="O857" s="33">
-        <v>852.0</v>
+        <v>853.0</v>
       </c>
       <c r="P857" s="1"/>
       <c r="Q857" s="1"/>
@@ -41994,7 +41993,7 @@
       <c r="M858" s="1"/>
       <c r="N858" s="1"/>
       <c r="O858" s="33">
-        <v>853.0</v>
+        <v>854.0</v>
       </c>
       <c r="P858" s="1"/>
       <c r="Q858" s="1"/>
@@ -42024,7 +42023,7 @@
       <c r="M859" s="1"/>
       <c r="N859" s="1"/>
       <c r="O859" s="33">
-        <v>854.0</v>
+        <v>855.0</v>
       </c>
       <c r="P859" s="1"/>
       <c r="Q859" s="1"/>
@@ -42054,7 +42053,7 @@
       <c r="M860" s="1"/>
       <c r="N860" s="1"/>
       <c r="O860" s="33">
-        <v>855.0</v>
+        <v>856.0</v>
       </c>
       <c r="P860" s="1"/>
       <c r="Q860" s="1"/>
@@ -42084,7 +42083,7 @@
       <c r="M861" s="1"/>
       <c r="N861" s="1"/>
       <c r="O861" s="33">
-        <v>856.0</v>
+        <v>857.0</v>
       </c>
       <c r="P861" s="1"/>
       <c r="Q861" s="1"/>
@@ -42114,7 +42113,7 @@
       <c r="M862" s="1"/>
       <c r="N862" s="1"/>
       <c r="O862" s="33">
-        <v>857.0</v>
+        <v>858.0</v>
       </c>
       <c r="P862" s="1"/>
       <c r="Q862" s="1"/>
@@ -42144,7 +42143,7 @@
       <c r="M863" s="1"/>
       <c r="N863" s="1"/>
       <c r="O863" s="33">
-        <v>858.0</v>
+        <v>859.0</v>
       </c>
       <c r="P863" s="1"/>
       <c r="Q863" s="1"/>
@@ -42174,7 +42173,7 @@
       <c r="M864" s="1"/>
       <c r="N864" s="1"/>
       <c r="O864" s="33">
-        <v>859.0</v>
+        <v>860.0</v>
       </c>
       <c r="P864" s="1"/>
       <c r="Q864" s="1"/>
@@ -42204,7 +42203,7 @@
       <c r="M865" s="1"/>
       <c r="N865" s="1"/>
       <c r="O865" s="33">
-        <v>860.0</v>
+        <v>861.0</v>
       </c>
       <c r="P865" s="1"/>
       <c r="Q865" s="1"/>
@@ -42234,7 +42233,7 @@
       <c r="M866" s="1"/>
       <c r="N866" s="1"/>
       <c r="O866" s="33">
-        <v>861.0</v>
+        <v>862.0</v>
       </c>
       <c r="P866" s="1"/>
       <c r="Q866" s="1"/>
@@ -42264,7 +42263,7 @@
       <c r="M867" s="1"/>
       <c r="N867" s="1"/>
       <c r="O867" s="33">
-        <v>862.0</v>
+        <v>863.0</v>
       </c>
       <c r="P867" s="1"/>
       <c r="Q867" s="1"/>
@@ -42294,7 +42293,7 @@
       <c r="M868" s="1"/>
       <c r="N868" s="1"/>
       <c r="O868" s="33">
-        <v>863.0</v>
+        <v>864.0</v>
       </c>
       <c r="P868" s="1"/>
       <c r="Q868" s="1"/>
@@ -42324,7 +42323,7 @@
       <c r="M869" s="1"/>
       <c r="N869" s="1"/>
       <c r="O869" s="33">
-        <v>864.0</v>
+        <v>865.0</v>
       </c>
       <c r="P869" s="1"/>
       <c r="Q869" s="1"/>
@@ -42354,7 +42353,7 @@
       <c r="M870" s="1"/>
       <c r="N870" s="1"/>
       <c r="O870" s="33">
-        <v>865.0</v>
+        <v>866.0</v>
       </c>
       <c r="P870" s="1"/>
       <c r="Q870" s="1"/>
@@ -42384,7 +42383,7 @@
       <c r="M871" s="1"/>
       <c r="N871" s="1"/>
       <c r="O871" s="33">
-        <v>866.0</v>
+        <v>867.0</v>
       </c>
       <c r="P871" s="1"/>
       <c r="Q871" s="1"/>
@@ -42414,7 +42413,7 @@
       <c r="M872" s="1"/>
       <c r="N872" s="1"/>
       <c r="O872" s="33">
-        <v>867.0</v>
+        <v>868.0</v>
       </c>
       <c r="P872" s="1"/>
       <c r="Q872" s="1"/>
@@ -42444,7 +42443,7 @@
       <c r="M873" s="1"/>
       <c r="N873" s="1"/>
       <c r="O873" s="33">
-        <v>868.0</v>
+        <v>869.0</v>
       </c>
       <c r="P873" s="1"/>
       <c r="Q873" s="1"/>
@@ -42474,7 +42473,7 @@
       <c r="M874" s="1"/>
       <c r="N874" s="1"/>
       <c r="O874" s="33">
-        <v>869.0</v>
+        <v>870.0</v>
       </c>
       <c r="P874" s="1"/>
       <c r="Q874" s="1"/>
@@ -42504,7 +42503,7 @@
       <c r="M875" s="1"/>
       <c r="N875" s="1"/>
       <c r="O875" s="33">
-        <v>870.0</v>
+        <v>871.0</v>
       </c>
       <c r="P875" s="1"/>
       <c r="Q875" s="1"/>
@@ -42534,7 +42533,7 @@
       <c r="M876" s="1"/>
       <c r="N876" s="1"/>
       <c r="O876" s="33">
-        <v>871.0</v>
+        <v>872.0</v>
       </c>
       <c r="P876" s="1"/>
       <c r="Q876" s="1"/>
@@ -42564,7 +42563,7 @@
       <c r="M877" s="1"/>
       <c r="N877" s="1"/>
       <c r="O877" s="33">
-        <v>872.0</v>
+        <v>873.0</v>
       </c>
       <c r="P877" s="1"/>
       <c r="Q877" s="1"/>
@@ -42594,7 +42593,7 @@
       <c r="M878" s="1"/>
       <c r="N878" s="1"/>
       <c r="O878" s="33">
-        <v>873.0</v>
+        <v>874.0</v>
       </c>
       <c r="P878" s="1"/>
       <c r="Q878" s="1"/>
@@ -42624,7 +42623,7 @@
       <c r="M879" s="1"/>
       <c r="N879" s="1"/>
       <c r="O879" s="33">
-        <v>874.0</v>
+        <v>875.0</v>
       </c>
       <c r="P879" s="1"/>
       <c r="Q879" s="1"/>
@@ -42654,7 +42653,7 @@
       <c r="M880" s="1"/>
       <c r="N880" s="1"/>
       <c r="O880" s="33">
-        <v>875.0</v>
+        <v>876.0</v>
       </c>
       <c r="P880" s="1"/>
       <c r="Q880" s="1"/>
@@ -42684,7 +42683,7 @@
       <c r="M881" s="1"/>
       <c r="N881" s="1"/>
       <c r="O881" s="33">
-        <v>876.0</v>
+        <v>877.0</v>
       </c>
       <c r="P881" s="1"/>
       <c r="Q881" s="1"/>
@@ -42714,7 +42713,7 @@
       <c r="M882" s="1"/>
       <c r="N882" s="1"/>
       <c r="O882" s="33">
-        <v>877.0</v>
+        <v>878.0</v>
       </c>
       <c r="P882" s="1"/>
       <c r="Q882" s="1"/>
@@ -42744,7 +42743,7 @@
       <c r="M883" s="1"/>
       <c r="N883" s="1"/>
       <c r="O883" s="33">
-        <v>878.0</v>
+        <v>879.0</v>
       </c>
       <c r="P883" s="1"/>
       <c r="Q883" s="1"/>
@@ -42774,7 +42773,7 @@
       <c r="M884" s="1"/>
       <c r="N884" s="1"/>
       <c r="O884" s="33">
-        <v>879.0</v>
+        <v>880.0</v>
       </c>
       <c r="P884" s="1"/>
       <c r="Q884" s="1"/>
@@ -42804,7 +42803,7 @@
       <c r="M885" s="1"/>
       <c r="N885" s="1"/>
       <c r="O885" s="33">
-        <v>880.0</v>
+        <v>881.0</v>
       </c>
       <c r="P885" s="1"/>
       <c r="Q885" s="1"/>
@@ -42834,7 +42833,7 @@
       <c r="M886" s="1"/>
       <c r="N886" s="1"/>
       <c r="O886" s="33">
-        <v>881.0</v>
+        <v>882.0</v>
       </c>
       <c r="P886" s="1"/>
       <c r="Q886" s="1"/>
@@ -42864,7 +42863,7 @@
       <c r="M887" s="1"/>
       <c r="N887" s="1"/>
       <c r="O887" s="33">
-        <v>882.0</v>
+        <v>883.0</v>
       </c>
       <c r="P887" s="1"/>
       <c r="Q887" s="1"/>
@@ -42894,7 +42893,7 @@
       <c r="M888" s="1"/>
       <c r="N888" s="1"/>
       <c r="O888" s="33">
-        <v>883.0</v>
+        <v>884.0</v>
       </c>
       <c r="P888" s="1"/>
       <c r="Q888" s="1"/>
@@ -42924,7 +42923,7 @@
       <c r="M889" s="1"/>
       <c r="N889" s="1"/>
       <c r="O889" s="33">
-        <v>884.0</v>
+        <v>885.0</v>
       </c>
       <c r="P889" s="1"/>
       <c r="Q889" s="1"/>
@@ -42954,7 +42953,7 @@
       <c r="M890" s="1"/>
       <c r="N890" s="1"/>
       <c r="O890" s="33">
-        <v>885.0</v>
+        <v>886.0</v>
       </c>
       <c r="P890" s="1"/>
       <c r="Q890" s="1"/>
@@ -42984,7 +42983,7 @@
       <c r="M891" s="1"/>
       <c r="N891" s="1"/>
       <c r="O891" s="33">
-        <v>886.0</v>
+        <v>887.0</v>
       </c>
       <c r="P891" s="1"/>
       <c r="Q891" s="1"/>
@@ -43014,7 +43013,7 @@
       <c r="M892" s="1"/>
       <c r="N892" s="1"/>
       <c r="O892" s="33">
-        <v>887.0</v>
+        <v>888.0</v>
       </c>
       <c r="P892" s="1"/>
       <c r="Q892" s="1"/>
@@ -43044,7 +43043,7 @@
       <c r="M893" s="1"/>
       <c r="N893" s="1"/>
       <c r="O893" s="33">
-        <v>888.0</v>
+        <v>889.0</v>
       </c>
       <c r="P893" s="1"/>
       <c r="Q893" s="1"/>
@@ -43074,7 +43073,7 @@
       <c r="M894" s="1"/>
       <c r="N894" s="1"/>
       <c r="O894" s="33">
-        <v>889.0</v>
+        <v>890.0</v>
       </c>
       <c r="P894" s="1"/>
       <c r="Q894" s="1"/>
@@ -43104,7 +43103,7 @@
       <c r="M895" s="1"/>
       <c r="N895" s="1"/>
       <c r="O895" s="33">
-        <v>890.0</v>
+        <v>891.0</v>
       </c>
       <c r="P895" s="1"/>
       <c r="Q895" s="1"/>
@@ -43134,7 +43133,7 @@
       <c r="M896" s="1"/>
       <c r="N896" s="1"/>
       <c r="O896" s="33">
-        <v>891.0</v>
+        <v>892.0</v>
       </c>
       <c r="P896" s="1"/>
       <c r="Q896" s="1"/>
@@ -43164,7 +43163,7 @@
       <c r="M897" s="1"/>
       <c r="N897" s="1"/>
       <c r="O897" s="33">
-        <v>892.0</v>
+        <v>893.0</v>
       </c>
       <c r="P897" s="1"/>
       <c r="Q897" s="1"/>
@@ -43194,7 +43193,7 @@
       <c r="M898" s="1"/>
       <c r="N898" s="1"/>
       <c r="O898" s="33">
-        <v>893.0</v>
+        <v>894.0</v>
       </c>
       <c r="P898" s="1"/>
       <c r="Q898" s="1"/>
@@ -43224,7 +43223,7 @@
       <c r="M899" s="1"/>
       <c r="N899" s="1"/>
       <c r="O899" s="33">
-        <v>894.0</v>
+        <v>895.0</v>
       </c>
       <c r="P899" s="1"/>
       <c r="Q899" s="1"/>
@@ -43254,7 +43253,7 @@
       <c r="M900" s="1"/>
       <c r="N900" s="1"/>
       <c r="O900" s="33">
-        <v>895.0</v>
+        <v>896.0</v>
       </c>
       <c r="P900" s="1"/>
       <c r="Q900" s="1"/>
@@ -43284,7 +43283,7 @@
       <c r="M901" s="1"/>
       <c r="N901" s="1"/>
       <c r="O901" s="33">
-        <v>896.0</v>
+        <v>897.0</v>
       </c>
       <c r="P901" s="1"/>
       <c r="Q901" s="1"/>
@@ -43314,7 +43313,7 @@
       <c r="M902" s="1"/>
       <c r="N902" s="1"/>
       <c r="O902" s="33">
-        <v>897.0</v>
+        <v>898.0</v>
       </c>
       <c r="P902" s="1"/>
       <c r="Q902" s="1"/>
@@ -43344,7 +43343,7 @@
       <c r="M903" s="1"/>
       <c r="N903" s="1"/>
       <c r="O903" s="33">
-        <v>898.0</v>
+        <v>899.0</v>
       </c>
       <c r="P903" s="1"/>
       <c r="Q903" s="1"/>
@@ -43374,7 +43373,7 @@
       <c r="M904" s="1"/>
       <c r="N904" s="1"/>
       <c r="O904" s="33">
-        <v>899.0</v>
+        <v>900.0</v>
       </c>
       <c r="P904" s="1"/>
       <c r="Q904" s="1"/>
@@ -43404,7 +43403,7 @@
       <c r="M905" s="1"/>
       <c r="N905" s="1"/>
       <c r="O905" s="33">
-        <v>900.0</v>
+        <v>901.0</v>
       </c>
       <c r="P905" s="1"/>
       <c r="Q905" s="1"/>
@@ -43434,7 +43433,7 @@
       <c r="M906" s="1"/>
       <c r="N906" s="1"/>
       <c r="O906" s="33">
-        <v>901.0</v>
+        <v>902.0</v>
       </c>
       <c r="P906" s="1"/>
       <c r="Q906" s="1"/>
@@ -43464,7 +43463,7 @@
       <c r="M907" s="1"/>
       <c r="N907" s="1"/>
       <c r="O907" s="33">
-        <v>902.0</v>
+        <v>903.0</v>
       </c>
       <c r="P907" s="1"/>
       <c r="Q907" s="1"/>
@@ -43494,7 +43493,7 @@
       <c r="M908" s="1"/>
       <c r="N908" s="1"/>
       <c r="O908" s="33">
-        <v>903.0</v>
+        <v>904.0</v>
       </c>
       <c r="P908" s="1"/>
       <c r="Q908" s="1"/>
@@ -43524,7 +43523,7 @@
       <c r="M909" s="1"/>
       <c r="N909" s="1"/>
       <c r="O909" s="33">
-        <v>904.0</v>
+        <v>905.0</v>
       </c>
       <c r="P909" s="1"/>
       <c r="Q909" s="1"/>
@@ -43554,7 +43553,7 @@
       <c r="M910" s="1"/>
       <c r="N910" s="1"/>
       <c r="O910" s="33">
-        <v>905.0</v>
+        <v>906.0</v>
       </c>
       <c r="P910" s="1"/>
       <c r="Q910" s="1"/>
@@ -43584,7 +43583,7 @@
       <c r="M911" s="1"/>
       <c r="N911" s="1"/>
       <c r="O911" s="33">
-        <v>906.0</v>
+        <v>907.0</v>
       </c>
       <c r="P911" s="1"/>
       <c r="Q911" s="1"/>
@@ -43614,7 +43613,7 @@
       <c r="M912" s="1"/>
       <c r="N912" s="1"/>
       <c r="O912" s="33">
-        <v>907.0</v>
+        <v>908.0</v>
       </c>
       <c r="P912" s="1"/>
       <c r="Q912" s="1"/>
@@ -43644,7 +43643,7 @@
       <c r="M913" s="1"/>
       <c r="N913" s="1"/>
       <c r="O913" s="33">
-        <v>908.0</v>
+        <v>909.0</v>
       </c>
       <c r="P913" s="1"/>
       <c r="Q913" s="1"/>
@@ -43674,7 +43673,7 @@
       <c r="M914" s="1"/>
       <c r="N914" s="1"/>
       <c r="O914" s="33">
-        <v>909.0</v>
+        <v>910.0</v>
       </c>
       <c r="P914" s="1"/>
       <c r="Q914" s="1"/>
@@ -43704,7 +43703,7 @@
       <c r="M915" s="1"/>
       <c r="N915" s="1"/>
       <c r="O915" s="33">
-        <v>910.0</v>
+        <v>911.0</v>
       </c>
       <c r="P915" s="1"/>
       <c r="Q915" s="1"/>
@@ -43734,7 +43733,7 @@
       <c r="M916" s="1"/>
       <c r="N916" s="1"/>
       <c r="O916" s="33">
-        <v>911.0</v>
+        <v>912.0</v>
       </c>
       <c r="P916" s="1"/>
       <c r="Q916" s="1"/>
@@ -43764,7 +43763,7 @@
       <c r="M917" s="1"/>
       <c r="N917" s="1"/>
       <c r="O917" s="33">
-        <v>912.0</v>
+        <v>913.0</v>
       </c>
       <c r="P917" s="1"/>
       <c r="Q917" s="1"/>
@@ -43794,7 +43793,7 @@
       <c r="M918" s="1"/>
       <c r="N918" s="1"/>
       <c r="O918" s="33">
-        <v>913.0</v>
+        <v>914.0</v>
       </c>
       <c r="P918" s="1"/>
       <c r="Q918" s="1"/>
@@ -43824,7 +43823,7 @@
       <c r="M919" s="1"/>
       <c r="N919" s="1"/>
       <c r="O919" s="33">
-        <v>914.0</v>
+        <v>915.0</v>
       </c>
       <c r="P919" s="1"/>
       <c r="Q919" s="1"/>
@@ -43854,7 +43853,7 @@
       <c r="M920" s="1"/>
       <c r="N920" s="1"/>
       <c r="O920" s="33">
-        <v>915.0</v>
+        <v>916.0</v>
       </c>
       <c r="P920" s="1"/>
       <c r="Q920" s="1"/>
@@ -43884,7 +43883,7 @@
       <c r="M921" s="1"/>
       <c r="N921" s="1"/>
       <c r="O921" s="33">
-        <v>916.0</v>
+        <v>917.0</v>
       </c>
       <c r="P921" s="1"/>
       <c r="Q921" s="1"/>
@@ -43914,7 +43913,7 @@
       <c r="M922" s="1"/>
       <c r="N922" s="1"/>
       <c r="O922" s="33">
-        <v>917.0</v>
+        <v>918.0</v>
       </c>
       <c r="P922" s="1"/>
       <c r="Q922" s="1"/>
@@ -43944,7 +43943,7 @@
       <c r="M923" s="1"/>
       <c r="N923" s="1"/>
       <c r="O923" s="33">
-        <v>918.0</v>
+        <v>919.0</v>
       </c>
       <c r="P923" s="1"/>
       <c r="Q923" s="1"/>
@@ -43974,7 +43973,7 @@
       <c r="M924" s="1"/>
       <c r="N924" s="1"/>
       <c r="O924" s="33">
-        <v>919.0</v>
+        <v>920.0</v>
       </c>
       <c r="P924" s="1"/>
       <c r="Q924" s="1"/>
@@ -44004,7 +44003,7 @@
       <c r="M925" s="1"/>
       <c r="N925" s="1"/>
       <c r="O925" s="33">
-        <v>920.0</v>
+        <v>921.0</v>
       </c>
       <c r="P925" s="1"/>
       <c r="Q925" s="1"/>
@@ -44034,7 +44033,7 @@
       <c r="M926" s="1"/>
       <c r="N926" s="1"/>
       <c r="O926" s="33">
-        <v>921.0</v>
+        <v>922.0</v>
       </c>
       <c r="P926" s="1"/>
       <c r="Q926" s="1"/>
@@ -44064,7 +44063,7 @@
       <c r="M927" s="1"/>
       <c r="N927" s="1"/>
       <c r="O927" s="33">
-        <v>922.0</v>
+        <v>923.0</v>
       </c>
       <c r="P927" s="1"/>
       <c r="Q927" s="1"/>
@@ -44094,7 +44093,7 @@
       <c r="M928" s="1"/>
       <c r="N928" s="1"/>
       <c r="O928" s="33">
-        <v>923.0</v>
+        <v>924.0</v>
       </c>
       <c r="P928" s="1"/>
       <c r="Q928" s="1"/>
@@ -44124,7 +44123,7 @@
       <c r="M929" s="1"/>
       <c r="N929" s="1"/>
       <c r="O929" s="33">
-        <v>924.0</v>
+        <v>925.0</v>
       </c>
       <c r="P929" s="1"/>
       <c r="Q929" s="1"/>
@@ -44154,7 +44153,7 @@
       <c r="M930" s="1"/>
       <c r="N930" s="1"/>
       <c r="O930" s="33">
-        <v>925.0</v>
+        <v>926.0</v>
       </c>
       <c r="P930" s="1"/>
       <c r="Q930" s="1"/>
@@ -44184,7 +44183,7 @@
       <c r="M931" s="1"/>
       <c r="N931" s="1"/>
       <c r="O931" s="33">
-        <v>926.0</v>
+        <v>927.0</v>
       </c>
       <c r="P931" s="1"/>
       <c r="Q931" s="1"/>
@@ -44214,7 +44213,7 @@
       <c r="M932" s="1"/>
       <c r="N932" s="1"/>
       <c r="O932" s="33">
-        <v>927.0</v>
+        <v>928.0</v>
       </c>
       <c r="P932" s="1"/>
       <c r="Q932" s="1"/>
@@ -44244,7 +44243,7 @@
       <c r="M933" s="1"/>
       <c r="N933" s="1"/>
       <c r="O933" s="33">
-        <v>928.0</v>
+        <v>929.0</v>
       </c>
       <c r="P933" s="1"/>
       <c r="Q933" s="1"/>
@@ -44274,7 +44273,7 @@
       <c r="M934" s="1"/>
       <c r="N934" s="1"/>
       <c r="O934" s="33">
-        <v>929.0</v>
+        <v>930.0</v>
       </c>
       <c r="P934" s="1"/>
       <c r="Q934" s="1"/>
@@ -44304,7 +44303,7 @@
       <c r="M935" s="1"/>
       <c r="N935" s="1"/>
       <c r="O935" s="33">
-        <v>930.0</v>
+        <v>931.0</v>
       </c>
       <c r="P935" s="1"/>
       <c r="Q935" s="1"/>
@@ -44334,7 +44333,7 @@
       <c r="M936" s="1"/>
       <c r="N936" s="1"/>
       <c r="O936" s="33">
-        <v>931.0</v>
+        <v>932.0</v>
       </c>
       <c r="P936" s="1"/>
       <c r="Q936" s="1"/>
@@ -44364,7 +44363,7 @@
       <c r="M937" s="1"/>
       <c r="N937" s="1"/>
       <c r="O937" s="33">
-        <v>932.0</v>
+        <v>933.0</v>
       </c>
       <c r="P937" s="1"/>
       <c r="Q937" s="1"/>
@@ -44394,7 +44393,7 @@
       <c r="M938" s="1"/>
       <c r="N938" s="1"/>
       <c r="O938" s="33">
-        <v>933.0</v>
+        <v>934.0</v>
       </c>
       <c r="P938" s="1"/>
       <c r="Q938" s="1"/>
@@ -44424,7 +44423,7 @@
       <c r="M939" s="1"/>
       <c r="N939" s="1"/>
       <c r="O939" s="33">
-        <v>934.0</v>
+        <v>935.0</v>
       </c>
       <c r="P939" s="1"/>
       <c r="Q939" s="1"/>
@@ -44454,7 +44453,7 @@
       <c r="M940" s="1"/>
       <c r="N940" s="1"/>
       <c r="O940" s="33">
-        <v>935.0</v>
+        <v>936.0</v>
       </c>
       <c r="P940" s="1"/>
       <c r="Q940" s="1"/>
@@ -44484,7 +44483,7 @@
       <c r="M941" s="1"/>
       <c r="N941" s="1"/>
       <c r="O941" s="33">
-        <v>936.0</v>
+        <v>937.0</v>
       </c>
       <c r="P941" s="1"/>
       <c r="Q941" s="1"/>
@@ -44514,7 +44513,7 @@
       <c r="M942" s="1"/>
       <c r="N942" s="1"/>
       <c r="O942" s="33">
-        <v>937.0</v>
+        <v>938.0</v>
       </c>
       <c r="P942" s="1"/>
       <c r="Q942" s="1"/>
@@ -44544,7 +44543,7 @@
       <c r="M943" s="1"/>
       <c r="N943" s="1"/>
       <c r="O943" s="33">
-        <v>938.0</v>
+        <v>939.0</v>
       </c>
       <c r="P943" s="1"/>
       <c r="Q943" s="1"/>
@@ -44574,7 +44573,7 @@
       <c r="M944" s="1"/>
       <c r="N944" s="1"/>
       <c r="O944" s="33">
-        <v>939.0</v>
+        <v>940.0</v>
       </c>
       <c r="P944" s="1"/>
       <c r="Q944" s="1"/>
@@ -44604,7 +44603,7 @@
       <c r="M945" s="1"/>
       <c r="N945" s="1"/>
       <c r="O945" s="33">
-        <v>940.0</v>
+        <v>941.0</v>
       </c>
       <c r="P945" s="1"/>
       <c r="Q945" s="1"/>
@@ -44634,7 +44633,7 @@
       <c r="M946" s="1"/>
       <c r="N946" s="1"/>
       <c r="O946" s="33">
-        <v>941.0</v>
+        <v>942.0</v>
       </c>
       <c r="P946" s="1"/>
       <c r="Q946" s="1"/>
@@ -44664,7 +44663,7 @@
       <c r="M947" s="1"/>
       <c r="N947" s="1"/>
       <c r="O947" s="33">
-        <v>942.0</v>
+        <v>943.0</v>
       </c>
       <c r="P947" s="1"/>
       <c r="Q947" s="1"/>
@@ -44694,7 +44693,7 @@
       <c r="M948" s="1"/>
       <c r="N948" s="1"/>
       <c r="O948" s="33">
-        <v>943.0</v>
+        <v>944.0</v>
       </c>
       <c r="P948" s="1"/>
       <c r="Q948" s="1"/>
@@ -44724,7 +44723,7 @@
       <c r="M949" s="1"/>
       <c r="N949" s="1"/>
       <c r="O949" s="33">
-        <v>944.0</v>
+        <v>945.0</v>
       </c>
       <c r="P949" s="1"/>
       <c r="Q949" s="1"/>
@@ -44754,7 +44753,7 @@
       <c r="M950" s="1"/>
       <c r="N950" s="1"/>
       <c r="O950" s="33">
-        <v>945.0</v>
+        <v>946.0</v>
       </c>
       <c r="P950" s="1"/>
       <c r="Q950" s="1"/>
@@ -44784,7 +44783,7 @@
       <c r="M951" s="1"/>
       <c r="N951" s="1"/>
       <c r="O951" s="33">
-        <v>946.0</v>
+        <v>947.0</v>
       </c>
       <c r="P951" s="1"/>
       <c r="Q951" s="1"/>
@@ -44814,7 +44813,7 @@
       <c r="M952" s="1"/>
       <c r="N952" s="1"/>
       <c r="O952" s="33">
-        <v>947.0</v>
+        <v>948.0</v>
       </c>
       <c r="P952" s="1"/>
       <c r="Q952" s="1"/>
@@ -44844,7 +44843,7 @@
       <c r="M953" s="1"/>
       <c r="N953" s="1"/>
       <c r="O953" s="33">
-        <v>948.0</v>
+        <v>949.0</v>
       </c>
       <c r="P953" s="1"/>
       <c r="Q953" s="1"/>
@@ -44874,7 +44873,7 @@
       <c r="M954" s="1"/>
       <c r="N954" s="1"/>
       <c r="O954" s="33">
-        <v>949.0</v>
+        <v>950.0</v>
       </c>
       <c r="P954" s="1"/>
       <c r="Q954" s="1"/>
@@ -44904,7 +44903,7 @@
       <c r="M955" s="1"/>
       <c r="N955" s="1"/>
       <c r="O955" s="33">
-        <v>950.0</v>
+        <v>951.0</v>
       </c>
       <c r="P955" s="1"/>
       <c r="Q955" s="1"/>
@@ -44934,7 +44933,7 @@
       <c r="M956" s="1"/>
       <c r="N956" s="1"/>
       <c r="O956" s="33">
-        <v>951.0</v>
+        <v>952.0</v>
       </c>
       <c r="P956" s="1"/>
       <c r="Q956" s="1"/>
@@ -44964,7 +44963,7 @@
       <c r="M957" s="1"/>
       <c r="N957" s="1"/>
       <c r="O957" s="33">
-        <v>952.0</v>
+        <v>953.0</v>
       </c>
       <c r="P957" s="1"/>
       <c r="Q957" s="1"/>
@@ -44994,7 +44993,7 @@
       <c r="M958" s="1"/>
       <c r="N958" s="1"/>
       <c r="O958" s="33">
-        <v>953.0</v>
+        <v>954.0</v>
       </c>
       <c r="P958" s="1"/>
       <c r="Q958" s="1"/>
@@ -45024,7 +45023,7 @@
       <c r="M959" s="1"/>
       <c r="N959" s="1"/>
       <c r="O959" s="33">
-        <v>954.0</v>
+        <v>955.0</v>
       </c>
       <c r="P959" s="1"/>
       <c r="Q959" s="1"/>
@@ -45054,7 +45053,7 @@
       <c r="M960" s="1"/>
       <c r="N960" s="1"/>
       <c r="O960" s="33">
-        <v>955.0</v>
+        <v>956.0</v>
       </c>
       <c r="P960" s="1"/>
       <c r="Q960" s="1"/>
@@ -45084,7 +45083,7 @@
       <c r="M961" s="1"/>
       <c r="N961" s="1"/>
       <c r="O961" s="33">
-        <v>956.0</v>
+        <v>957.0</v>
       </c>
       <c r="P961" s="1"/>
       <c r="Q961" s="1"/>
@@ -45114,7 +45113,7 @@
       <c r="M962" s="1"/>
       <c r="N962" s="1"/>
       <c r="O962" s="33">
-        <v>957.0</v>
+        <v>958.0</v>
       </c>
       <c r="P962" s="1"/>
       <c r="Q962" s="1"/>
@@ -45144,7 +45143,7 @@
       <c r="M963" s="1"/>
       <c r="N963" s="1"/>
       <c r="O963" s="33">
-        <v>958.0</v>
+        <v>959.0</v>
       </c>
       <c r="P963" s="1"/>
       <c r="Q963" s="1"/>
@@ -45174,7 +45173,7 @@
       <c r="M964" s="1"/>
       <c r="N964" s="1"/>
       <c r="O964" s="33">
-        <v>959.0</v>
+        <v>960.0</v>
       </c>
       <c r="P964" s="1"/>
       <c r="Q964" s="1"/>
@@ -45204,7 +45203,7 @@
       <c r="M965" s="1"/>
       <c r="N965" s="1"/>
       <c r="O965" s="33">
-        <v>960.0</v>
+        <v>961.0</v>
       </c>
       <c r="P965" s="1"/>
       <c r="Q965" s="1"/>
@@ -45234,7 +45233,7 @@
       <c r="M966" s="1"/>
       <c r="N966" s="1"/>
       <c r="O966" s="33">
-        <v>961.0</v>
+        <v>962.0</v>
       </c>
       <c r="P966" s="1"/>
       <c r="Q966" s="1"/>
@@ -45264,7 +45263,7 @@
       <c r="M967" s="1"/>
       <c r="N967" s="1"/>
       <c r="O967" s="33">
-        <v>962.0</v>
+        <v>963.0</v>
       </c>
       <c r="P967" s="1"/>
       <c r="Q967" s="1"/>
@@ -45294,7 +45293,7 @@
       <c r="M968" s="1"/>
       <c r="N968" s="1"/>
       <c r="O968" s="33">
-        <v>963.0</v>
+        <v>964.0</v>
       </c>
       <c r="P968" s="1"/>
       <c r="Q968" s="1"/>
@@ -45324,7 +45323,7 @@
       <c r="M969" s="1"/>
       <c r="N969" s="1"/>
       <c r="O969" s="33">
-        <v>964.0</v>
+        <v>965.0</v>
       </c>
       <c r="P969" s="1"/>
       <c r="Q969" s="1"/>
@@ -45354,7 +45353,7 @@
       <c r="M970" s="1"/>
       <c r="N970" s="1"/>
       <c r="O970" s="33">
-        <v>965.0</v>
+        <v>966.0</v>
       </c>
       <c r="P970" s="1"/>
       <c r="Q970" s="1"/>
@@ -45384,7 +45383,7 @@
       <c r="M971" s="1"/>
       <c r="N971" s="1"/>
       <c r="O971" s="33">
-        <v>966.0</v>
+        <v>967.0</v>
       </c>
       <c r="P971" s="1"/>
       <c r="Q971" s="1"/>
@@ -45414,7 +45413,7 @@
       <c r="M972" s="1"/>
       <c r="N972" s="1"/>
       <c r="O972" s="33">
-        <v>967.0</v>
+        <v>968.0</v>
       </c>
       <c r="P972" s="1"/>
       <c r="Q972" s="1"/>
@@ -45444,7 +45443,7 @@
       <c r="M973" s="1"/>
       <c r="N973" s="1"/>
       <c r="O973" s="33">
-        <v>968.0</v>
+        <v>969.0</v>
       </c>
       <c r="P973" s="1"/>
       <c r="Q973" s="1"/>
@@ -45474,7 +45473,7 @@
       <c r="M974" s="1"/>
       <c r="N974" s="1"/>
       <c r="O974" s="33">
-        <v>969.0</v>
+        <v>970.0</v>
       </c>
       <c r="P974" s="1"/>
       <c r="Q974" s="1"/>
@@ -45504,7 +45503,7 @@
       <c r="M975" s="1"/>
       <c r="N975" s="1"/>
       <c r="O975" s="33">
-        <v>970.0</v>
+        <v>971.0</v>
       </c>
       <c r="P975" s="1"/>
       <c r="Q975" s="1"/>
@@ -45534,7 +45533,7 @@
       <c r="M976" s="1"/>
       <c r="N976" s="1"/>
       <c r="O976" s="33">
-        <v>971.0</v>
+        <v>972.0</v>
       </c>
       <c r="P976" s="1"/>
       <c r="Q976" s="1"/>
@@ -45564,7 +45563,7 @@
       <c r="M977" s="1"/>
       <c r="N977" s="1"/>
       <c r="O977" s="33">
-        <v>972.0</v>
+        <v>973.0</v>
       </c>
       <c r="P977" s="1"/>
       <c r="Q977" s="1"/>
@@ -45594,7 +45593,7 @@
       <c r="M978" s="1"/>
       <c r="N978" s="1"/>
       <c r="O978" s="33">
-        <v>973.0</v>
+        <v>974.0</v>
       </c>
       <c r="P978" s="1"/>
       <c r="Q978" s="1"/>
@@ -45624,7 +45623,7 @@
       <c r="M979" s="1"/>
       <c r="N979" s="1"/>
       <c r="O979" s="33">
-        <v>974.0</v>
+        <v>975.0</v>
       </c>
       <c r="P979" s="1"/>
       <c r="Q979" s="1"/>
@@ -45654,7 +45653,7 @@
       <c r="M980" s="1"/>
       <c r="N980" s="1"/>
       <c r="O980" s="33">
-        <v>975.0</v>
+        <v>976.0</v>
       </c>
       <c r="P980" s="1"/>
       <c r="Q980" s="1"/>
@@ -45684,7 +45683,7 @@
       <c r="M981" s="1"/>
       <c r="N981" s="1"/>
       <c r="O981" s="33">
-        <v>976.0</v>
+        <v>977.0</v>
       </c>
       <c r="P981" s="1"/>
       <c r="Q981" s="1"/>
@@ -45714,7 +45713,7 @@
       <c r="M982" s="1"/>
       <c r="N982" s="1"/>
       <c r="O982" s="33">
-        <v>977.0</v>
+        <v>978.0</v>
       </c>
       <c r="P982" s="1"/>
       <c r="Q982" s="1"/>
@@ -45744,7 +45743,7 @@
       <c r="M983" s="1"/>
       <c r="N983" s="1"/>
       <c r="O983" s="33">
-        <v>978.0</v>
+        <v>979.0</v>
       </c>
       <c r="P983" s="1"/>
       <c r="Q983" s="1"/>
@@ -45774,7 +45773,7 @@
       <c r="M984" s="1"/>
       <c r="N984" s="1"/>
       <c r="O984" s="33">
-        <v>979.0</v>
+        <v>980.0</v>
       </c>
       <c r="P984" s="1"/>
       <c r="Q984" s="1"/>
@@ -45804,7 +45803,7 @@
       <c r="M985" s="1"/>
       <c r="N985" s="1"/>
       <c r="O985" s="33">
-        <v>980.0</v>
+        <v>981.0</v>
       </c>
       <c r="P985" s="1"/>
       <c r="Q985" s="1"/>
@@ -45834,7 +45833,7 @@
       <c r="M986" s="1"/>
       <c r="N986" s="1"/>
       <c r="O986" s="33">
-        <v>981.0</v>
+        <v>982.0</v>
       </c>
       <c r="P986" s="1"/>
       <c r="Q986" s="1"/>
@@ -45864,7 +45863,7 @@
       <c r="M987" s="1"/>
       <c r="N987" s="1"/>
       <c r="O987" s="33">
-        <v>982.0</v>
+        <v>983.0</v>
       </c>
       <c r="P987" s="1"/>
       <c r="Q987" s="1"/>
@@ -45894,7 +45893,7 @@
       <c r="M988" s="1"/>
       <c r="N988" s="1"/>
       <c r="O988" s="33">
-        <v>983.0</v>
+        <v>984.0</v>
       </c>
       <c r="P988" s="1"/>
       <c r="Q988" s="1"/>
@@ -45924,7 +45923,7 @@
       <c r="M989" s="1"/>
       <c r="N989" s="1"/>
       <c r="O989" s="33">
-        <v>984.0</v>
+        <v>985.0</v>
       </c>
       <c r="P989" s="1"/>
       <c r="Q989" s="1"/>
@@ -45954,7 +45953,7 @@
       <c r="M990" s="1"/>
       <c r="N990" s="1"/>
       <c r="O990" s="33">
-        <v>985.0</v>
+        <v>986.0</v>
       </c>
       <c r="P990" s="1"/>
       <c r="Q990" s="1"/>
@@ -45984,7 +45983,7 @@
       <c r="M991" s="1"/>
       <c r="N991" s="1"/>
       <c r="O991" s="33">
-        <v>986.0</v>
+        <v>987.0</v>
       </c>
       <c r="P991" s="1"/>
       <c r="Q991" s="1"/>
@@ -46014,7 +46013,7 @@
       <c r="M992" s="1"/>
       <c r="N992" s="1"/>
       <c r="O992" s="33">
-        <v>987.0</v>
+        <v>988.0</v>
       </c>
       <c r="P992" s="1"/>
       <c r="Q992" s="1"/>
@@ -46044,7 +46043,7 @@
       <c r="M993" s="1"/>
       <c r="N993" s="1"/>
       <c r="O993" s="33">
-        <v>988.0</v>
+        <v>989.0</v>
       </c>
       <c r="P993" s="1"/>
       <c r="Q993" s="1"/>
@@ -46074,7 +46073,7 @@
       <c r="M994" s="1"/>
       <c r="N994" s="1"/>
       <c r="O994" s="33">
-        <v>989.0</v>
+        <v>990.0</v>
       </c>
       <c r="P994" s="1"/>
       <c r="Q994" s="1"/>
@@ -46104,7 +46103,7 @@
       <c r="M995" s="1"/>
       <c r="N995" s="1"/>
       <c r="O995" s="33">
-        <v>990.0</v>
+        <v>991.0</v>
       </c>
       <c r="P995" s="1"/>
       <c r="Q995" s="1"/>
@@ -46134,7 +46133,7 @@
       <c r="M996" s="1"/>
       <c r="N996" s="1"/>
       <c r="O996" s="33">
-        <v>991.0</v>
+        <v>992.0</v>
       </c>
       <c r="P996" s="1"/>
       <c r="Q996" s="1"/>
@@ -46164,7 +46163,7 @@
       <c r="M997" s="1"/>
       <c r="N997" s="1"/>
       <c r="O997" s="33">
-        <v>992.0</v>
+        <v>993.0</v>
       </c>
       <c r="P997" s="1"/>
       <c r="Q997" s="1"/>
@@ -46194,7 +46193,7 @@
       <c r="M998" s="1"/>
       <c r="N998" s="1"/>
       <c r="O998" s="33">
-        <v>993.0</v>
+        <v>994.0</v>
       </c>
       <c r="P998" s="1"/>
       <c r="Q998" s="1"/>
@@ -46224,7 +46223,7 @@
       <c r="M999" s="1"/>
       <c r="N999" s="1"/>
       <c r="O999" s="33">
-        <v>994.0</v>
+        <v>995.0</v>
       </c>
       <c r="P999" s="1"/>
       <c r="Q999" s="1"/>
@@ -46254,7 +46253,7 @@
       <c r="M1000" s="1"/>
       <c r="N1000" s="1"/>
       <c r="O1000" s="33">
-        <v>995.0</v>
+        <v>996.0</v>
       </c>
       <c r="P1000" s="1"/>
       <c r="Q1000" s="1"/>
@@ -46284,7 +46283,7 @@
       <c r="M1001" s="1"/>
       <c r="N1001" s="1"/>
       <c r="O1001" s="33">
-        <v>996.0</v>
+        <v>997.0</v>
       </c>
       <c r="P1001" s="1"/>
       <c r="Q1001" s="1"/>
@@ -46314,7 +46313,7 @@
       <c r="M1002" s="1"/>
       <c r="N1002" s="1"/>
       <c r="O1002" s="33">
-        <v>997.0</v>
+        <v>998.0</v>
       </c>
       <c r="P1002" s="1"/>
       <c r="Q1002" s="1"/>
@@ -46344,7 +46343,7 @@
       <c r="M1003" s="1"/>
       <c r="N1003" s="1"/>
       <c r="O1003" s="33">
-        <v>998.0</v>
+        <v>999.0</v>
       </c>
       <c r="P1003" s="1"/>
       <c r="Q1003" s="1"/>
@@ -46373,9 +46372,7 @@
       <c r="L1004" s="1"/>
       <c r="M1004" s="1"/>
       <c r="N1004" s="1"/>
-      <c r="O1004" s="33">
-        <v>999.0</v>
-      </c>
+      <c r="O1004" s="102"/>
       <c r="P1004" s="1"/>
       <c r="Q1004" s="1"/>
       <c r="R1004" s="1"/>
@@ -46403,7 +46400,7 @@
       <c r="L1005" s="1"/>
       <c r="M1005" s="1"/>
       <c r="N1005" s="1"/>
-      <c r="O1005" s="103"/>
+      <c r="O1005" s="102"/>
       <c r="P1005" s="1"/>
       <c r="Q1005" s="1"/>
       <c r="R1005" s="1"/>
@@ -46431,7 +46428,7 @@
       <c r="L1006" s="1"/>
       <c r="M1006" s="1"/>
       <c r="N1006" s="1"/>
-      <c r="O1006" s="103"/>
+      <c r="O1006" s="102"/>
       <c r="P1006" s="1"/>
       <c r="Q1006" s="1"/>
       <c r="R1006" s="1"/>
@@ -46459,7 +46456,7 @@
       <c r="L1007" s="1"/>
       <c r="M1007" s="1"/>
       <c r="N1007" s="1"/>
-      <c r="O1007" s="103"/>
+      <c r="O1007" s="102"/>
       <c r="P1007" s="1"/>
       <c r="Q1007" s="1"/>
       <c r="R1007" s="1"/>
@@ -46487,7 +46484,7 @@
       <c r="L1008" s="1"/>
       <c r="M1008" s="1"/>
       <c r="N1008" s="1"/>
-      <c r="O1008" s="103"/>
+      <c r="O1008" s="102"/>
       <c r="P1008" s="1"/>
       <c r="Q1008" s="1"/>
       <c r="R1008" s="1"/>
@@ -46515,7 +46512,7 @@
       <c r="L1009" s="1"/>
       <c r="M1009" s="1"/>
       <c r="N1009" s="1"/>
-      <c r="O1009" s="103"/>
+      <c r="O1009" s="102"/>
       <c r="P1009" s="1"/>
       <c r="Q1009" s="1"/>
       <c r="R1009" s="1"/>
@@ -46543,7 +46540,7 @@
       <c r="L1010" s="1"/>
       <c r="M1010" s="1"/>
       <c r="N1010" s="1"/>
-      <c r="O1010" s="103"/>
+      <c r="O1010" s="102"/>
       <c r="P1010" s="1"/>
       <c r="Q1010" s="1"/>
       <c r="R1010" s="1"/>
@@ -46571,7 +46568,7 @@
       <c r="L1011" s="1"/>
       <c r="M1011" s="1"/>
       <c r="N1011" s="1"/>
-      <c r="O1011" s="103"/>
+      <c r="O1011" s="102"/>
       <c r="P1011" s="1"/>
       <c r="Q1011" s="1"/>
       <c r="R1011" s="1"/>
@@ -46599,7 +46596,7 @@
       <c r="L1012" s="1"/>
       <c r="M1012" s="1"/>
       <c r="N1012" s="1"/>
-      <c r="O1012" s="103"/>
+      <c r="O1012" s="102"/>
       <c r="P1012" s="1"/>
       <c r="Q1012" s="1"/>
       <c r="R1012" s="1"/>
@@ -46627,7 +46624,7 @@
       <c r="L1013" s="1"/>
       <c r="M1013" s="1"/>
       <c r="N1013" s="1"/>
-      <c r="O1013" s="103"/>
+      <c r="O1013" s="102"/>
       <c r="P1013" s="1"/>
       <c r="Q1013" s="1"/>
       <c r="R1013" s="1"/>
@@ -46655,7 +46652,7 @@
       <c r="L1014" s="1"/>
       <c r="M1014" s="1"/>
       <c r="N1014" s="1"/>
-      <c r="O1014" s="103"/>
+      <c r="O1014" s="102"/>
       <c r="P1014" s="1"/>
       <c r="Q1014" s="1"/>
       <c r="R1014" s="1"/>
@@ -46683,7 +46680,7 @@
       <c r="L1015" s="1"/>
       <c r="M1015" s="1"/>
       <c r="N1015" s="1"/>
-      <c r="O1015" s="103"/>
+      <c r="O1015" s="102"/>
       <c r="P1015" s="1"/>
       <c r="Q1015" s="1"/>
       <c r="R1015" s="1"/>
@@ -46711,7 +46708,7 @@
       <c r="L1016" s="1"/>
       <c r="M1016" s="1"/>
       <c r="N1016" s="1"/>
-      <c r="O1016" s="103"/>
+      <c r="O1016" s="102"/>
       <c r="P1016" s="1"/>
       <c r="Q1016" s="1"/>
       <c r="R1016" s="1"/>
@@ -46739,7 +46736,7 @@
       <c r="L1017" s="1"/>
       <c r="M1017" s="1"/>
       <c r="N1017" s="1"/>
-      <c r="O1017" s="103"/>
+      <c r="O1017" s="102"/>
       <c r="P1017" s="1"/>
       <c r="Q1017" s="1"/>
       <c r="R1017" s="1"/>
@@ -46767,7 +46764,7 @@
       <c r="L1018" s="1"/>
       <c r="M1018" s="1"/>
       <c r="N1018" s="1"/>
-      <c r="O1018" s="103"/>
+      <c r="O1018" s="102"/>
       <c r="P1018" s="1"/>
       <c r="Q1018" s="1"/>
       <c r="R1018" s="1"/>
@@ -46795,7 +46792,7 @@
       <c r="L1019" s="1"/>
       <c r="M1019" s="1"/>
       <c r="N1019" s="1"/>
-      <c r="O1019" s="103"/>
+      <c r="O1019" s="102"/>
       <c r="P1019" s="1"/>
       <c r="Q1019" s="1"/>
       <c r="R1019" s="1"/>
@@ -46823,7 +46820,7 @@
       <c r="L1020" s="1"/>
       <c r="M1020" s="1"/>
       <c r="N1020" s="1"/>
-      <c r="O1020" s="103"/>
+      <c r="O1020" s="102"/>
       <c r="P1020" s="1"/>
       <c r="Q1020" s="1"/>
       <c r="R1020" s="1"/>
@@ -46835,34 +46832,6 @@
       <c r="X1020" s="1"/>
       <c r="Y1020" s="1"/>
       <c r="Z1020" s="1"/>
-    </row>
-    <row r="1021" ht="12.75" customHeight="1">
-      <c r="A1021" s="1"/>
-      <c r="B1021" s="1"/>
-      <c r="C1021" s="1"/>
-      <c r="D1021" s="1"/>
-      <c r="E1021" s="1"/>
-      <c r="F1021" s="1"/>
-      <c r="G1021" s="1"/>
-      <c r="H1021" s="1"/>
-      <c r="I1021" s="1"/>
-      <c r="J1021" s="1"/>
-      <c r="K1021" s="1"/>
-      <c r="L1021" s="1"/>
-      <c r="M1021" s="1"/>
-      <c r="N1021" s="1"/>
-      <c r="O1021" s="103"/>
-      <c r="P1021" s="1"/>
-      <c r="Q1021" s="1"/>
-      <c r="R1021" s="1"/>
-      <c r="S1021" s="1"/>
-      <c r="T1021" s="1"/>
-      <c r="U1021" s="1"/>
-      <c r="V1021" s="1"/>
-      <c r="W1021" s="1"/>
-      <c r="X1021" s="1"/>
-      <c r="Y1021" s="1"/>
-      <c r="Z1021" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -47010,7 +46979,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="33"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="103" t="s">
         <v>134</v>
       </c>
       <c r="C7" s="49"/>
@@ -47038,16 +47007,16 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="33"/>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="105" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="33"/>
@@ -47514,12 +47483,12 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="33"/>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="106" t="s">
         <v>163</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="50"/>
-      <c r="E22" s="108">
+      <c r="E22" s="107">
         <f>0.6+(0.01*SUM(D9*E9,D10*E10,D11*E11,D12*E12,D13*E13,D14*E14,D15*E15,D16*E16,D17*E17,D18*E18,D19*E19,D20*E20,D21*E21))</f>
         <v>0.81</v>
       </c>
@@ -47609,14 +47578,14 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="33"/>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="103" t="s">
         <v>164</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="33"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
@@ -47638,18 +47607,18 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="33"/>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="112" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="112" t="s">
+      <c r="G27" s="111" t="s">
         <v>136</v>
       </c>
       <c r="H27" s="33"/>
@@ -47676,7 +47645,7 @@
       <c r="B28" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="113" t="s">
         <v>166</v>
       </c>
       <c r="D28" s="49"/>
@@ -47712,7 +47681,7 @@
       <c r="B29" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="114" t="s">
+      <c r="C29" s="113" t="s">
         <v>168</v>
       </c>
       <c r="D29" s="49"/>
@@ -47748,7 +47717,7 @@
       <c r="B30" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="113" t="s">
         <v>170</v>
       </c>
       <c r="D30" s="49"/>
@@ -47784,7 +47753,7 @@
       <c r="B31" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="113" t="s">
         <v>172</v>
       </c>
       <c r="D31" s="49"/>
@@ -47820,7 +47789,7 @@
       <c r="B32" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="114" t="s">
+      <c r="C32" s="113" t="s">
         <v>174</v>
       </c>
       <c r="D32" s="49"/>
@@ -47856,7 +47825,7 @@
       <c r="B33" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="114" t="s">
+      <c r="C33" s="113" t="s">
         <v>176</v>
       </c>
       <c r="D33" s="49"/>
@@ -47892,7 +47861,7 @@
       <c r="B34" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="114" t="s">
+      <c r="C34" s="113" t="s">
         <v>178</v>
       </c>
       <c r="D34" s="49"/>
@@ -47928,7 +47897,7 @@
       <c r="B35" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="114" t="s">
+      <c r="C35" s="113" t="s">
         <v>180</v>
       </c>
       <c r="D35" s="49"/>
@@ -47961,7 +47930,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="33"/>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="106" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="49"/>
@@ -54408,7 +54377,7 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="33"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="114" t="s">
         <v>182</v>
       </c>
       <c r="C1" s="57"/>
@@ -54421,7 +54390,7 @@
       <c r="J1" s="57"/>
       <c r="K1" s="57"/>
       <c r="L1" s="58"/>
-      <c r="M1" s="116"/>
+      <c r="M1" s="115"/>
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
       <c r="P1" s="33"/>
@@ -54546,37 +54515,37 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="33"/>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="117" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="119" t="s">
+      <c r="K5" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="119" t="s">
         <v>193</v>
       </c>
       <c r="M5" s="33"/>
@@ -54602,7 +54571,7 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="33"/>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="120" t="s">
         <v>194</v>
       </c>
       <c r="C6" s="86">
@@ -54612,28 +54581,28 @@
         <f t="shared" ref="D6:D9" si="1">SUM(E6:K6)</f>
         <v>589</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="121">
         <v>25.0</v>
       </c>
-      <c r="F6" s="122">
+      <c r="F6" s="121">
         <v>80.0</v>
       </c>
-      <c r="G6" s="122">
+      <c r="G6" s="121">
         <v>25.0</v>
       </c>
-      <c r="H6" s="122">
+      <c r="H6" s="121">
         <v>400.0</v>
       </c>
-      <c r="I6" s="122">
+      <c r="I6" s="121">
         <v>10.0</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="121">
         <v>25.0</v>
       </c>
-      <c r="K6" s="122">
+      <c r="K6" s="121">
         <v>24.0</v>
       </c>
-      <c r="L6" s="123">
+      <c r="L6" s="122">
         <f t="shared" ref="L6:L9" si="2">D6/C6</f>
         <v>3.1</v>
       </c>
@@ -54660,7 +54629,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="33"/>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="120" t="s">
         <v>195</v>
       </c>
       <c r="C7" s="67">
@@ -54670,28 +54639,28 @@
         <f t="shared" si="1"/>
         <v>326</v>
       </c>
-      <c r="E7" s="124">
+      <c r="E7" s="123">
         <v>20.0</v>
       </c>
-      <c r="F7" s="124">
+      <c r="F7" s="123">
         <v>120.0</v>
       </c>
-      <c r="G7" s="124">
+      <c r="G7" s="123">
         <v>30.0</v>
       </c>
-      <c r="H7" s="124">
+      <c r="H7" s="123">
         <v>100.0</v>
       </c>
-      <c r="I7" s="124">
+      <c r="I7" s="123">
         <v>10.0</v>
       </c>
-      <c r="J7" s="124">
+      <c r="J7" s="123">
         <v>30.0</v>
       </c>
-      <c r="K7" s="124">
+      <c r="K7" s="123">
         <v>16.0</v>
       </c>
-      <c r="L7" s="123">
+      <c r="L7" s="122">
         <f t="shared" si="2"/>
         <v>2.507692308</v>
       </c>
@@ -54718,7 +54687,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="33"/>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="120" t="s">
         <v>196</v>
       </c>
       <c r="C8" s="67">
@@ -54728,28 +54697,28 @@
         <f t="shared" si="1"/>
         <v>399</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="124">
         <v>17.0</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="124">
         <v>90.0</v>
       </c>
-      <c r="G8" s="125">
+      <c r="G8" s="124">
         <v>32.0</v>
       </c>
-      <c r="H8" s="125">
+      <c r="H8" s="124">
         <v>200.0</v>
       </c>
-      <c r="I8" s="125">
+      <c r="I8" s="124">
         <v>12.0</v>
       </c>
-      <c r="J8" s="125">
+      <c r="J8" s="124">
         <v>32.0</v>
       </c>
-      <c r="K8" s="125">
+      <c r="K8" s="124">
         <v>16.0</v>
       </c>
-      <c r="L8" s="123">
+      <c r="L8" s="122">
         <f t="shared" si="2"/>
         <v>2.85</v>
       </c>
@@ -54776,7 +54745,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="33"/>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="120" t="s">
         <v>197</v>
       </c>
       <c r="C9" s="67">
@@ -54786,28 +54755,28 @@
         <f t="shared" si="1"/>
         <v>486</v>
       </c>
-      <c r="E9" s="124">
+      <c r="E9" s="123">
         <v>22.0</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="123">
         <v>80.0</v>
       </c>
-      <c r="G9" s="124">
+      <c r="G9" s="123">
         <v>33.0</v>
       </c>
-      <c r="H9" s="124">
+      <c r="H9" s="123">
         <v>300.0</v>
       </c>
-      <c r="I9" s="124">
+      <c r="I9" s="123">
         <v>8.0</v>
       </c>
-      <c r="J9" s="124">
+      <c r="J9" s="123">
         <v>35.0</v>
       </c>
-      <c r="K9" s="124">
+      <c r="K9" s="123">
         <v>8.0</v>
       </c>
-      <c r="L9" s="123">
+      <c r="L9" s="122">
         <f t="shared" si="2"/>
         <v>3.888</v>
       </c>
@@ -54834,17 +54803,17 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="33"/>
-      <c r="B10" s="126"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="127"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="126"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
       <c r="O10" s="33"/>
@@ -54868,17 +54837,17 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="33"/>
-      <c r="B11" s="126"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="67"/>
       <c r="D11" s="67"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="127"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="126"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
@@ -54902,17 +54871,17 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="33"/>
-      <c r="B12" s="126"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="127"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="126"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
@@ -54936,17 +54905,17 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="33"/>
-      <c r="B13" s="126"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="127"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="126"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="33"/>
@@ -54970,17 +54939,17 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="33"/>
-      <c r="B14" s="126"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="127"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="126"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
@@ -55004,17 +54973,17 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="33"/>
-      <c r="B15" s="126"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="127"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="126"/>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
@@ -55038,17 +55007,17 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="33"/>
-      <c r="B16" s="126"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="127"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="126"/>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
       <c r="O16" s="33"/>
@@ -55072,17 +55041,17 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="33"/>
-      <c r="B17" s="126"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="67"/>
       <c r="D17" s="67"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="127"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="126"/>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
@@ -55106,17 +55075,17 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="126"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="67"/>
       <c r="D18" s="67"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="127"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="126"/>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
@@ -55140,17 +55109,17 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="33"/>
-      <c r="B19" s="126"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="127"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="126"/>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
       <c r="O19" s="33"/>
@@ -55174,17 +55143,17 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="33"/>
-      <c r="B20" s="126"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="127"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="126"/>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
@@ -55208,17 +55177,17 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="33"/>
-      <c r="B21" s="126"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="127"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="126"/>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
@@ -55242,17 +55211,17 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="33"/>
-      <c r="B22" s="126"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="127"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="126"/>
       <c r="M22" s="33"/>
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
@@ -55276,17 +55245,17 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="33"/>
-      <c r="B23" s="126"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="127"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="126"/>
       <c r="M23" s="33"/>
       <c r="N23" s="33"/>
       <c r="O23" s="33"/>
@@ -55310,17 +55279,17 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="33"/>
-      <c r="B24" s="126"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="67"/>
       <c r="D24" s="67"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="127"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="126"/>
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
@@ -55344,17 +55313,17 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="33"/>
-      <c r="B25" s="126"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="127"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="126"/>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
@@ -55378,17 +55347,17 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="33"/>
-      <c r="B26" s="126"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="127"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="126"/>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
@@ -55412,17 +55381,17 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="33"/>
-      <c r="B27" s="126"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="127"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="126"/>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33"/>
@@ -55446,16 +55415,16 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="33"/>
-      <c r="B28" s="128"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="70"/>
       <c r="D28" s="70"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
       <c r="L28" s="37"/>
       <c r="M28" s="33"/>
       <c r="N28" s="33"/>
@@ -55483,40 +55452,40 @@
       <c r="B29" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130">
+      <c r="C29" s="129"/>
+      <c r="D29" s="129">
         <f t="shared" ref="D29:K29" si="3">SUM(D6:D28)</f>
         <v>1800</v>
       </c>
-      <c r="E29" s="130">
+      <c r="E29" s="129">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="F29" s="130">
+      <c r="F29" s="129">
         <f t="shared" si="3"/>
         <v>370</v>
       </c>
-      <c r="G29" s="130">
+      <c r="G29" s="129">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="H29" s="130">
+      <c r="H29" s="129">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="I29" s="130">
+      <c r="I29" s="129">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="J29" s="130">
+      <c r="J29" s="129">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="K29" s="130">
+      <c r="K29" s="129">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L29" s="131"/>
+      <c r="L29" s="130"/>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
       <c r="O29" s="33"/>
@@ -55548,11 +55517,11 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
-      <c r="J30" s="132" t="s">
+      <c r="J30" s="131" t="s">
         <v>199</v>
       </c>
       <c r="K30" s="22"/>
-      <c r="L30" s="133">
+      <c r="L30" s="132">
         <v>8.0</v>
       </c>
       <c r="M30" s="33"/>
@@ -55578,40 +55547,40 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="33"/>
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="133" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="137">
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="136">
         <f t="shared" ref="E31:K31" si="4">(E29*1)/$D$29</f>
         <v>0.04666666667</v>
       </c>
-      <c r="F31" s="137">
+      <c r="F31" s="136">
         <f t="shared" si="4"/>
         <v>0.2055555556</v>
       </c>
-      <c r="G31" s="137">
+      <c r="G31" s="136">
         <f t="shared" si="4"/>
         <v>0.06666666667</v>
       </c>
-      <c r="H31" s="137">
+      <c r="H31" s="136">
         <f t="shared" si="4"/>
         <v>0.5555555556</v>
       </c>
-      <c r="I31" s="137">
+      <c r="I31" s="136">
         <f t="shared" si="4"/>
         <v>0.02222222222</v>
       </c>
-      <c r="J31" s="137">
+      <c r="J31" s="136">
         <f t="shared" si="4"/>
         <v>0.06777777778</v>
       </c>
-      <c r="K31" s="137">
+      <c r="K31" s="136">
         <f t="shared" si="4"/>
         <v>0.03555555556</v>
       </c>
-      <c r="L31" s="138">
+      <c r="L31" s="137">
         <f>SUM(E31:K31)</f>
         <v>1</v>
       </c>
